--- a/Season_Trophies/87.xlsx
+++ b/Season_Trophies/87.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E159"/>
+  <dimension ref="A1:E126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,17 +423,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2388</t>
+          <t>59783</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>32613475</t>
+          <t>42542275</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>"李 无 善 德"</t>
+          <t>"同 风 雨"</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -443,24 +443,24 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2516</t>
+          <t>2491</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>11418</t>
+          <t>1377</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>26424998</t>
+          <t>43800641</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>"Smok3y 1nOnly"</t>
+          <t>㊥蛋蛋大</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -470,24 +470,24 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>3245</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4279</t>
+          <t>5255</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>6940556</t>
+          <t>27468237</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>"Cry ab it林黛玉ᶻᵍˣ"</t>
+          <t>佛系复仇者秀川</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -497,24 +497,24 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>3113</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>11286</t>
+          <t>23014</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>27113069</t>
+          <t>4229136</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>㊥DumbSmoky</t>
+          <t>"totoro wu"</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -524,24 +524,24 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2856</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>12192</t>
+          <t>24842</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>22497</t>
+          <t>14424176</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>xixihahagggᶻᵍˣ</t>
+          <t>天才少年老纪</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -551,14 +551,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2836</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>12326</t>
+          <t>55299</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -578,24 +578,24 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2499</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>8239</t>
+          <t>7925</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4229136</t>
+          <t>12333251</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>"totoro wu"</t>
+          <t>"㊌ Mingxuan"</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -605,24 +605,24 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>3056</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>12700</t>
+          <t>8828</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>20199374</t>
+          <t>138176</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>RuanFan</t>
+          <t>Ze5kyphyr</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -632,24 +632,24 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>3040</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>8616</t>
+          <t>9296</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3946814</t>
+          <t>25376635</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>"小瑩 潘"</t>
+          <t>"sanchez ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -659,24 +659,24 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>3032</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>21371</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>43800641</t>
+          <t>29729468</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>㊥蛋蛋大</t>
+          <t>"风神舞动 WDᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -686,24 +686,24 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2875</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>26491</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>14424176</t>
+          <t>45967307</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>天才少年老纪</t>
+          <t>Ricky</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -713,24 +713,24 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2819</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>32120</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>27468237</t>
+          <t>58408326</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>佛系复仇者秀川</t>
+          <t>"Killer Bee"</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -740,24 +740,24 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2762</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>39503</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>21345373</t>
+          <t>1304123</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>林北不講武德</t>
+          <t>Cccccccccccc</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -767,24 +767,24 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2654</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2354</t>
+          <t>53773</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>38711610</t>
+          <t>7587898</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>心灵有为</t>
+          <t>藍精靈ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -794,24 +794,24 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2516</t>
+          <t>2500</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2788</t>
+          <t>54576</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1951758</t>
+          <t>20737010</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>我來找你了</t>
+          <t>混着玩...</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -821,24 +821,24 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2514</t>
+          <t>2500</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>10727</t>
+          <t>53854</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>29729468</t>
+          <t>6510348</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>"风神舞动 WDᶻᵍˣ"</t>
+          <t>Bonpoisson</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -855,17 +855,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>10364</t>
+          <t>74137</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>31267627</t>
+          <t>59100545</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>"㊥ Martin"</t>
+          <t>"black dragon"</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -875,24 +875,24 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>1696</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>7430</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>46422609</t>
+          <t>23687250</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>㊥林天大大神</t>
+          <t>"jetlijp ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -902,24 +902,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>5352</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>55317038</t>
+          <t>47928278</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>necman12345</t>
+          <t>"落日幻影 哈哈哈"</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -929,834 +929,834 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>12316</t>
+          <t>18031</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>21735478</t>
+          <t>37861953</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>耀翔fly</t>
+          <t>"Durex ๑• . •๑"</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2916</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>4464</t>
+          <t>32165</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>6510348</t>
+          <t>38809086</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Bonpoisson</t>
+          <t>Kouenᶻᵍˣ</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2762</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>13940</t>
+          <t>7530</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>11783968</t>
+          <t>4756174</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>F---119</t>
+          <t>純希です</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>3063</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>9670</t>
+          <t>7749</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>33656016</t>
+          <t>53060417</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>㊥☆梅海听雪☆</t>
+          <t>㊥老纳信耶稣</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>3059</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>11449</t>
+          <t>10131</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>26280580</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>AOW全体工作人员吃屎交易大厅</t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>3019</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>10706</t>
+          <t>14196</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>29861826</t>
+          <t>49710892</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>★★★Eric★★★</t>
+          <t>MMMMMMM</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2966</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>11599</t>
+          <t>15801</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>25376635</t>
+          <t>54698813</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>"sanchez ᶻᵍˣ"</t>
+          <t>閃亮唐老鴨</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2945</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>13625</t>
+          <t>19725</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>138176</t>
+          <t>55769051</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Ze5kyphyr</t>
+          <t>㊥叮叮当.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2895</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>4245</t>
+          <t>2053</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>7025661</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>"F ᶻᵍˣ"</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>3208</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>10837</t>
+          <t>1825</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>29211638</t>
+          <t>38995116</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>"㊥ PhononDisperse"</t>
+          <t>"Ramesh Pavai Nam"</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>3219</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>3533</t>
+          <t>6607</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>8741713</t>
+          <t>8057001</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve">㊥大咖玩家ky </t>
+          <t>㊥兵者诡道也</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>3081</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>11393</t>
+          <t>7299</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>26588375</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>何苦僧ai</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>3067</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>7937</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>7587898</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>藍精靈ᶻᵍˣ</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3055</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>8371</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>23687250</t>
+          <t>53520939</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>"jetlijp ᶻᵍˣ"</t>
+          <t>㊥虎哥tiger</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3047</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>8688</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1820342</t>
+          <t>47131129</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>摸鱼爱好者三战</t>
+          <t>NAM</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3042</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>10752</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>45967307</t>
+          <t>4493731</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Ricky</t>
+          <t>Player-1527362</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3009</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>13073</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>44955827</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>丶小阿狸丿</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2979</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>13657</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>47146736</t>
+          <t>31217211</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>"HK 品瑜"</t>
+          <t>解憂雜貨鋪㊥</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2973</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>14765</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>3477306</t>
+          <t>55317038</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>"MeGa Tsai"</t>
+          <t>necman12345</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2959</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>12569</t>
+          <t>17603</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>20737010</t>
+          <t>11582001</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>混着玩...</t>
+          <t>iMinatoX4</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2922</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>13875</t>
+          <t>18630</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>12333251</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>"㊌ Mingxuan"</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2908</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>20434</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>47928278</t>
+          <t>58839983</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>"落日幻影 哈哈哈"</t>
+          <t>每逢佳节胖六斤</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2886</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>20561</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>30411791</t>
+          <t>7852598</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>"㊥Ⓩ GOÐAFRÆÐI ᶻᵍˣ"</t>
+          <t>seiji</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2884</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>3249</t>
+          <t>20659</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>9541747</t>
+          <t>54778421</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>豹子头林冲</t>
+          <t>Emma</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2883</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>24440</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>28749280</t>
+          <t>31401481</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>㊥老船⛵⛵</t>
+          <t>Player-31401481</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2840</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>25798</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>31217211</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>解憂雜貨鋪㊥</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2825</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>26611</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>50837459</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>NINE日</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2818</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>27531</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>16206490</t>
+          <t>6809364</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>㊥Godcys</t>
+          <t>"Scorp IP"</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2809</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>28731</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>28387448</t>
+          <t>38561634</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>☜⊙‖⊙☞</t>
+          <t>"Ambrose PT"</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2798</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>28719</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>27484940</t>
+          <t>47146736</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>66666zgx</t>
+          <t>"HK 品瑜"</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2798</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>8922</t>
+          <t>29970</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>37861953</t>
+          <t>47459684</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>"Durex ๑• . •๑"</t>
+          <t>㊥阿闹切克闹</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1766,24 +1766,24 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2786</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>13635</t>
+          <t>34114</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>13738844</t>
+          <t>58203298</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>"Chen Hao"</t>
+          <t>权旨qua</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1793,24 +1793,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2737</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>36192</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>38809086</t>
+          <t>55860890</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Kouenᶻᵍˣ</t>
+          <t>㊥Ethan</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1820,24 +1820,24 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2707</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>5695</t>
+          <t>37178</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>53520939</t>
+          <t>56500325</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>㊥虎哥tiger</t>
+          <t>haruharuyukizg9735</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1847,24 +1847,24 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2692</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>5798</t>
+          <t>38831</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>53060417</t>
+          <t>24733875</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>㊥老纳信耶稣</t>
+          <t>龍少</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1874,24 +1874,24 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2665</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>15663</t>
+          <t>41718</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>57813281</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t>XAUEN</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1901,24 +1901,24 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2498</t>
+          <t>2616</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>51032</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>49710892</t>
+          <t>22161051</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>MMMMMMM</t>
+          <t>Botz5</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1928,24 +1928,24 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2516</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>5262</t>
+          <t>54701</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>55769051</t>
+          <t>14110169</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>㊥叮叮当.</t>
+          <t>"Pasiony CANQ"</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1962,17 +1962,17 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>7072</t>
+          <t>59486</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>4756174</t>
+          <t>32316256</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>純希です</t>
+          <t>"秋の風 .."</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1982,24 +1982,24 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2492</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>59795</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>54698813</t>
+          <t>38893233</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>閃亮唐老鴨</t>
+          <t>"快乐 二哈"</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2009,7 +2009,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2491</t>
         </is>
       </c>
     </row>
@@ -2021,12 +2021,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>42434117</t>
+          <t>68132</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>㊥有双飞鸟</t>
+          <t>"㊖TW9 百媚生"</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2043,17 +2043,17 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>12120</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>22885399</t>
+          <t>29565</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>余文琪</t>
+          <t>"aK.j Zhong ㊥"</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2063,24 +2063,24 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>3905</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>7852598</t>
+          <t>1550355</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>seiji</t>
+          <t>"皓茵 世界"</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2090,83 +2090,83 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>7227</t>
+          <t>7910</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>47131129</t>
+          <t>31134300</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>McMaX</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>3056</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>3826</t>
+          <t>45711</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>8057001</t>
+          <t>43281368</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>㊥兵者诡道也</t>
+          <t>xhs2763</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2561</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>8721</t>
+          <t>54154</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>38995116</t>
+          <t>44378757</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>"Ramesh Pavai Nam"</t>
+          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2178,638 +2178,638 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>8813</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>38561634</t>
+          <t>48738257</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>"Ambrose PT"</t>
+          <t>死亡洲际跳蛋</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>7730</t>
+          <t>22237</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>4493731</t>
+          <t>44708798</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Player-1527362</t>
+          <t>"㊥ mythgod"</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2865</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>10322</t>
+          <t>27802</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>31401481</t>
+          <t>25479797</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Player-31401481</t>
+          <t>"Mohamed Alnaqbi"</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2807</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>5601</t>
+          <t>37372</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>54588689</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>㊥墨衍枫迹☜</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2689</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>41878</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>38893233</t>
+          <t>37069173</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>"快乐 二哈"</t>
+          <t>詹toniii</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2614</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>58589</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>32316256</t>
+          <t>28855852</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>"秋の風 .."</t>
+          <t>tiger</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2494</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>4333</t>
+          <t>25066</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>6809364</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>"Scorp IP"</t>
+          <t>Globalking</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2833</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>29238</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>55860890</t>
+          <t>55499394</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>㊥Ethan</t>
+          <t>Player-55499394</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2793</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>31641</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>68132</t>
+          <t>56700848</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>"㊖TW9 百媚生"</t>
+          <t>工口漫画老师</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2768</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>34904</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>29565</t>
+          <t>18082891</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>"aK.j Zhong ㊥"</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2727</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>37003</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>55634661</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>Opalus</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2695</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>5201</t>
+          <t>39854</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>48634530</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>leezhenrui</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2647</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>39847</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1550355</t>
+          <t>52997727</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>"皓茵 世界"</t>
+          <t>larios</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2647</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>47378</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>56500325</t>
+          <t>52792063</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>haruharuyukizg9735</t>
+          <t>"Tramaine Dowlen"</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2544</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>48195</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>11582001</t>
+          <t>58940575</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>iMinatoX4</t>
+          <t>图啊图z z</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2537</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>50908</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>14110169</t>
+          <t>11645391</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>"Pasiony CANQ"</t>
+          <t>"omar omar"</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2517</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>51107</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>22161051</t>
+          <t>3649043</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Botz5</t>
+          <t>Dj6106</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2515</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>53999</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>47758619</t>
+          <t>5367482</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>"㊥ Moon ㊥"</t>
+          <t>Ігор</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2500</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>54829</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>58203298</t>
+          <t>9718882</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>权旨qua</t>
+          <t>小霸王2021</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2499</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>56487</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>57813281</t>
+          <t>47430231</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>XAUEN</t>
+          <t>Kentantrino</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2497</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>6246</t>
+          <t>61131</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>50837459</t>
+          <t>15436348</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>NINE日</t>
+          <t>Lucas</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2481</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>5462</t>
+          <t>77145</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>54778421</t>
+          <t>54941706</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Emma</t>
+          <t>AlexMenjivar20</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>1527</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>80713</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>24733875</t>
+          <t>57219176</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>龍少</t>
+          <t>青莲道人</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1499</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>92255</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>31134300</t>
+          <t>49000199</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>McMaX</t>
+          <t>SlipperyForester5672</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2819,7 +2819,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1125</t>
         </is>
       </c>
     </row>
@@ -2831,12 +2831,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>44378757</t>
+          <t>38994054</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
+          <t>chengnan</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2858,12 +2858,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>43281368</t>
+          <t>3391765</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>xhs2763</t>
+          <t>马er</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2885,12 +2885,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>48738257</t>
+          <t>55810157</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>死亡洲际跳蛋</t>
+          <t>Beard</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2912,12 +2912,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>28855852</t>
+          <t>57556179</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>tiger</t>
+          <t>特战新生代英雄</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2939,12 +2939,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>25479797</t>
+          <t>1222440</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>"Mohamed Alnaqbi"</t>
+          <t>"Sneaky Ninja Panda"</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2966,12 +2966,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>54588689</t>
+          <t>58340439</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>㊥墨衍枫迹☜</t>
+          <t>70qilin</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2993,12 +2993,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>44708798</t>
+          <t>20372140</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>"㊥ mythgod"</t>
+          <t>人山即是仙</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3020,12 +3020,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>37069173</t>
+          <t>58615925</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>詹toniii</t>
+          <t>齐天的大圣</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3042,17 +3042,17 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>958</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>58408326</t>
+          <t>58641574</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>"Killer Bee"</t>
+          <t>Player-58641574鱼</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3062,7 +3062,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>2573</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3074,12 +3074,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>47430231</t>
+          <t>58743790</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Kentantrino</t>
+          <t>Ma</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3096,27 +3096,27 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>46653</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>18082891</t>
+          <t>41849539</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>三号馆馆主</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2552</t>
         </is>
       </c>
     </row>
@@ -3128,17 +3128,17 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>55499394</t>
+          <t>47622456</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Player-55499394</t>
+          <t>伊恩</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -3155,17 +3155,17 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>56700848</t>
+          <t>56241637</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>工口漫画老师</t>
+          <t>Player-14day</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -3177,27 +3177,27 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>45533</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>38994054</t>
+          <t>55210350</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>chengnan</t>
+          <t>一个过客而已</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2563</t>
         </is>
       </c>
     </row>
@@ -3209,17 +3209,17 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>55634661</t>
+          <t>49553719</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Opalus</t>
+          <t>"Oreo Captain Sir"</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -3231,54 +3231,54 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>84714</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>9718882</t>
+          <t>41231396</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>小霸王2021</t>
+          <t>ollsthebro</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1400</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>85875</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>59106471</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>anime</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1373</t>
         </is>
       </c>
     </row>
@@ -3290,17 +3290,17 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>47459684</t>
+          <t>58572199</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>㊥阿闹切克闹</t>
+          <t>你干嘛～哎呦～</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -3317,17 +3317,17 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>11645391</t>
+          <t>58766144</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>"omar omar"</t>
+          <t>EquablePrecedence38</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -3344,17 +3344,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>48634530</t>
+          <t>29355299</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>leezhenrui</t>
+          <t>Player-29355299</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -3371,17 +3371,17 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>3391765</t>
+          <t>58910668</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>马er</t>
+          <t>BrittleAuthor33</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -3398,17 +3398,17 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>55810157</t>
+          <t>55745105</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Beard</t>
+          <t>eldeniz</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -3425,17 +3425,17 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>58174442</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Globalking</t>
+          <t>Player-58174442</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -3452,17 +3452,17 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>57556179</t>
+          <t>58671339</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>特战新生代英雄</t>
+          <t>"quang pro"</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -3479,17 +3479,17 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>1222440</t>
+          <t>59081265</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>"Sneaky Ninja Panda"</t>
+          <t>爬楼梯</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -3506,17 +3506,17 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>52997727</t>
+          <t>59082827</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>larios</t>
+          <t>Player-59082827</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -3528,27 +3528,27 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>14601</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>52792063</t>
+          <t>10636651</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>"Tramaine Dowlen"</t>
+          <t>"Ismail Aflou"</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>2499</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3560,17 +3560,17 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>5367482</t>
+          <t>12648101</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Ігор</t>
+          <t>"player 198827"</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -3587,17 +3587,17 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>9195340</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>Namllllllik</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -3614,17 +3614,17 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>58340439</t>
+          <t>41848598</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>70qilin</t>
+          <t>国家一级保护沙雕</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -3636,27 +3636,27 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>13375</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>15436348</t>
+          <t>15755724</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Lucas</t>
+          <t>"Last Good"</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3668,17 +3668,17 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>20372140</t>
+          <t>8850180</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>人山即是仙</t>
+          <t>30624300</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -3695,17 +3695,17 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>58615925</t>
+          <t>28624723</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>齐天的大圣</t>
+          <t>"Woody Shade"</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -3722,17 +3722,17 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>1304123</t>
+          <t>6010122</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Cccccccccccc</t>
+          <t>"Edward Peng"</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -3749,911 +3749,20 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>57219176</t>
+          <t>9913517</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>青莲道人</t>
+          <t>"Kenny Chan"</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>58641574</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>Player-58641574鱼</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>二馆</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>58839983</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>每逢佳节胖六斤</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>二馆</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>58743790</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>Ma</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>二馆</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>47244896</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>Dropthebeat</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>二馆</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>3649043</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>Dj6106</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>二馆</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>54941706</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>AlexMenjivar20</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>二馆</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>58940575</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>图啊图z z</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>二馆</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>52157846</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>Hamza</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>二馆</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>49000199</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>SlipperyForester5672</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>二馆</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>41849539</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>三号馆馆主</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>三馆</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>47622456</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>伊恩</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>三馆</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>56241637</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>Player-14day</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>三馆</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>55210350</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>一个过客而已</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>三馆</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>49553719</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>"Oreo Captain Sir"</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>三馆</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>58572199</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>你干嘛～哎呦～</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>三馆</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>58766144</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>EquablePrecedence38</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>三馆</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>29355299</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>Player-29355299</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>三馆</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>58910668</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>BrittleAuthor33</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>三馆</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>55745105</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>eldeniz</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>三馆</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>58174442</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>Player-58174442</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>三馆</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>58671339</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>"quang pro"</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>三馆</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>41231396</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>ollsthebro</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>三馆</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>59081265</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>爬楼梯</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>三馆</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>59082827</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>Player-59082827</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>三馆</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>10636651</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>"Ismail Aflou"</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>12648101</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>"player 198827"</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>9195340</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>Namllllllik</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>41848598</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>国家一级保护沙雕</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>15755724</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>"Last Good"</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>8850180</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>30624300</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>28624723</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>"Woody Shade"</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>6010122</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>"Edward Peng"</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>9913517</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>"Kenny Chan"</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/Season_Trophies/87.xlsx
+++ b/Season_Trophies/87.xlsx
@@ -423,7 +423,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>59783</t>
+          <t>60300</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -450,7 +450,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1377</t>
+          <t>2605</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -477,7 +477,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>5255</t>
+          <t>7340</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -504,17 +504,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>23014</t>
+          <t>21894</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>4229136</t>
+          <t>14424176</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>"totoro wu"</t>
+          <t>天才少年老纪</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -524,24 +524,24 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2856</t>
+          <t>2905</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>24842</t>
+          <t>24663</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>14424176</t>
+          <t>4229136</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>天才少年老纪</t>
+          <t>"totoro wu"</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -551,14 +551,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2836</t>
+          <t>2870</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>55299</t>
+          <t>56393</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -585,7 +585,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>7925</t>
+          <t>5672</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -605,14 +605,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3056</t>
+          <t>3149</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>8828</t>
+          <t>11370</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -639,7 +639,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>9296</t>
+          <t>11899</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -666,17 +666,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>21371</t>
+          <t>21190</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>29729468</t>
+          <t>58408326</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>"风神舞动 WDᶻᵍˣ"</t>
+          <t>"Killer Bee"</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -686,24 +686,24 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2875</t>
+          <t>2913</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>26491</t>
+          <t>24286</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>45967307</t>
+          <t>29729468</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Ricky</t>
+          <t>"风神舞动 WDᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -713,24 +713,24 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2819</t>
+          <t>2875</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>32120</t>
+          <t>29148</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>58408326</t>
+          <t>45967307</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>"Killer Bee"</t>
+          <t>Ricky</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -740,14 +740,14 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2762</t>
+          <t>2819</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>39503</t>
+          <t>41024</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -767,14 +767,14 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2654</t>
+          <t>2651</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>53773</t>
+          <t>54913</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -801,7 +801,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>54576</t>
+          <t>55723</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -828,7 +828,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>53854</t>
+          <t>54992</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -855,7 +855,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>74137</t>
+          <t>75345</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -936,44 +936,44 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>18031</t>
+          <t>30042</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>37861953</t>
+          <t>55634661</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>"Durex ๑• . •๑"</t>
+          <t>Opalus</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2916</t>
+          <t>2810</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>32165</t>
+          <t>20996</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>38809086</t>
+          <t>37861953</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Kouenᶻᵍˣ</t>
+          <t>"Durex ๑• . •๑"</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -983,24 +983,24 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2762</t>
+          <t>2916</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>7530</t>
+          <t>34268</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4756174</t>
+          <t>38809086</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>純希です</t>
+          <t>Kouenᶻᵍˣ</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1010,24 +1010,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3063</t>
+          <t>2761</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>7749</t>
+          <t>901</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>53060417</t>
+          <t>49710892</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>㊥老纳信耶稣</t>
+          <t>MMMMMMM</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3059</t>
+          <t>3393</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>10131</t>
+          <t>9163</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>53060417</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t>㊥老纳信耶稣</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1064,24 +1064,24 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3019</t>
+          <t>3076</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>14196</t>
+          <t>10100</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>49710892</t>
+          <t>4756174</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>MMMMMMM</t>
+          <t>純希です</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1091,24 +1091,24 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2966</t>
+          <t>3060</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>15801</t>
+          <t>11071</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>54698813</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>閃亮唐老鴨</t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1118,24 +1118,24 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2945</t>
+          <t>3045</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>19725</t>
+          <t>18695</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>55769051</t>
+          <t>54698813</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>㊥叮叮当.</t>
+          <t>閃亮唐老鴨</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1145,24 +1145,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2895</t>
+          <t>2945</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2053</t>
+          <t>22672</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>55769051</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>㊥叮叮当.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1172,14 +1172,14 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3208</t>
+          <t>2895</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1825</t>
+          <t>2361</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1199,24 +1199,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>3219</t>
+          <t>3258</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>6607</t>
+          <t>4199</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>8057001</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>㊥兵者诡道也</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1226,24 +1226,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>3081</t>
+          <t>3188</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>7299</t>
+          <t>7370</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>55317038</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>necman12345</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>3067</t>
+          <t>3112</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>7937</t>
+          <t>8795</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1280,24 +1280,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>3055</t>
+          <t>3083</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>8371</t>
+          <t>8953</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>53520939</t>
+          <t>8057001</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>㊥虎哥tiger</t>
+          <t>㊥兵者诡道也</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1307,24 +1307,24 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>3047</t>
+          <t>3080</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>8688</t>
+          <t>10776</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>47131129</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1334,24 +1334,24 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>3042</t>
+          <t>3049</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>10752</t>
+          <t>10903</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>4493731</t>
+          <t>53520939</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Player-1527362</t>
+          <t>㊥虎哥tiger</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1361,24 +1361,24 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3009</t>
+          <t>3047</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>13073</t>
+          <t>11239</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>47131129</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>NAM</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1388,24 +1388,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2979</t>
+          <t>3042</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>13657</t>
+          <t>13515</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>31217211</t>
+          <t>4493731</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>解憂雜貨鋪㊥</t>
+          <t>Player-1527362</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1415,24 +1415,24 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2973</t>
+          <t>3009</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>14765</t>
+          <t>13643</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>55317038</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>necman12345</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1442,24 +1442,24 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2959</t>
+          <t>3007</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>17603</t>
+          <t>16519</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>11582001</t>
+          <t>31217211</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>iMinatoX4</t>
+          <t>解憂雜貨鋪㊥</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1469,24 +1469,24 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2922</t>
+          <t>2973</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>18630</t>
+          <t>18403</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>58203298</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>权旨qua</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1496,24 +1496,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2908</t>
+          <t>2949</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>20434</t>
+          <t>20422</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>58839983</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>每逢佳节胖六斤</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1523,24 +1523,24 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2886</t>
+          <t>2923</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>20561</t>
+          <t>20718</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>7852598</t>
+          <t>11582001</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>seiji</t>
+          <t>iMinatoX4</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1550,14 +1550,14 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2884</t>
+          <t>2920</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>20659</t>
+          <t>23022</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1577,24 +1577,24 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2883</t>
+          <t>2891</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>24440</t>
+          <t>23519</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>31401481</t>
+          <t>7852598</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Player-31401481</t>
+          <t>seiji</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1604,24 +1604,24 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2840</t>
+          <t>2884</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>25798</t>
+          <t>24318</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>58839983</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>每逢佳节胖六斤</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1631,24 +1631,24 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2825</t>
+          <t>2874</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>26611</t>
+          <t>25960</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>50837459</t>
+          <t>31401481</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>NINE日</t>
+          <t>Player-31401481</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1658,24 +1658,24 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2818</t>
+          <t>2855</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>27531</t>
+          <t>26856</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>6809364</t>
+          <t>47459684</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>"Scorp IP"</t>
+          <t>㊥阿闹切克闹</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1685,24 +1685,24 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2809</t>
+          <t>2844</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>28731</t>
+          <t>28910</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>38561634</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>"Ambrose PT"</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1712,24 +1712,24 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2798</t>
+          <t>2821</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>28719</t>
+          <t>30119</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>47146736</t>
+          <t>6809364</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>"HK 品瑜"</t>
+          <t>"Scorp IP"</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1739,24 +1739,24 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2798</t>
+          <t>2809</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>29970</t>
+          <t>30350</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>47459684</t>
+          <t>50837459</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>㊥阿闹切克闹</t>
+          <t>NINE日</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1766,24 +1766,24 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2786</t>
+          <t>2807</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>34114</t>
+          <t>31190</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>58203298</t>
+          <t>47146736</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>权旨qua</t>
+          <t>"HK 品瑜"</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1793,24 +1793,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2737</t>
+          <t>2798</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>36192</t>
+          <t>31309</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>55860890</t>
+          <t>38561634</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>㊥Ethan</t>
+          <t>"Ambrose PT"</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1820,24 +1820,24 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2707</t>
+          <t>2797</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>37178</t>
+          <t>37893</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>56500325</t>
+          <t>55860890</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>haruharuyukizg9735</t>
+          <t>㊥Ethan</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1847,24 +1847,24 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2692</t>
+          <t>2706</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>38831</t>
+          <t>38081</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>24733875</t>
+          <t>56500325</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>龍少</t>
+          <t>haruharuyukizg9735</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1874,24 +1874,24 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2665</t>
+          <t>2703</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>41718</t>
+          <t>40271</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>57813281</t>
+          <t>24733875</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>XAUEN</t>
+          <t>龍少</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1901,24 +1901,24 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2616</t>
+          <t>2665</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>51032</t>
+          <t>42238</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>22161051</t>
+          <t>57813281</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Botz5</t>
+          <t>XAUEN</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1928,24 +1928,24 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2516</t>
+          <t>2630</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>54701</t>
+          <t>52519</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>14110169</t>
+          <t>22161051</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>"Pasiony CANQ"</t>
+          <t>Botz5</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1955,24 +1955,24 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2515</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>59486</t>
+          <t>55857</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>32316256</t>
+          <t>14110169</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>"秋の風 .."</t>
+          <t>"Pasiony CANQ"</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1982,24 +1982,24 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2492</t>
+          <t>2500</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>59795</t>
+          <t>59982</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>38893233</t>
+          <t>32316256</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>"快乐 二哈"</t>
+          <t>"秋の風 .."</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2009,24 +2009,24 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2491</t>
+          <t>2492</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>60585</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>68132</t>
+          <t>38893233</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>"㊖TW9 百媚生"</t>
+          <t>"快乐 二哈"</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2036,7 +2036,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2490</t>
         </is>
       </c>
     </row>
@@ -2048,12 +2048,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>29565</t>
+          <t>68132</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>"aK.j Zhong ㊥"</t>
+          <t>"㊖TW9 百媚生"</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2075,12 +2075,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1550355</t>
+          <t>29565</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>"皓茵 世界"</t>
+          <t>"aK.j Zhong ㊥"</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2097,44 +2097,44 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>7910</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>31134300</t>
+          <t>1550355</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>McMaX</t>
+          <t>"皓茵 世界"</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>3056</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>45711</t>
+          <t>9884</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>43281368</t>
+          <t>31134300</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>xhs2763</t>
+          <t>McMaX</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2144,24 +2144,24 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2561</t>
+          <t>3064</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>54154</t>
+          <t>47221</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>44378757</t>
+          <t>43281368</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
+          <t>xhs2763</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2171,24 +2171,24 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2560</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>55304</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>48738257</t>
+          <t>44378757</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>死亡洲际跳蛋</t>
+          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2198,24 +2198,24 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2500</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>22237</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>44708798</t>
+          <t>48738257</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>"㊥ mythgod"</t>
+          <t>死亡洲际跳蛋</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2225,24 +2225,24 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2865</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>27802</t>
+          <t>25455</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>25479797</t>
+          <t>44708798</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>"Mohamed Alnaqbi"</t>
+          <t>"㊥ mythgod"</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2252,24 +2252,24 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2807</t>
+          <t>2861</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>37372</t>
+          <t>30393</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>54588689</t>
+          <t>25479797</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>㊥墨衍枫迹☜</t>
+          <t>"Mohamed Alnaqbi"</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2279,24 +2279,24 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2689</t>
+          <t>2807</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>41878</t>
+          <t>37899</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>37069173</t>
+          <t>54588689</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>詹toniii</t>
+          <t>㊥墨衍枫迹☜</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2306,24 +2306,24 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2614</t>
+          <t>2706</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>58589</t>
+          <t>43295</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>28855852</t>
+          <t>37069173</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>tiger</t>
+          <t>詹toniii</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2333,24 +2333,24 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2494</t>
+          <t>2613</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>25066</t>
+          <t>59124</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>28855852</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Globalking</t>
+          <t>tiger</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2360,14 +2360,14 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2833</t>
+          <t>2494</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>29238</t>
+          <t>18407</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2387,24 +2387,24 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2793</t>
+          <t>2949</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>31641</t>
+          <t>27189</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>56700848</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>工口漫画老师</t>
+          <t>Globalking</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2414,24 +2414,24 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2768</t>
+          <t>2840</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>34904</t>
+          <t>31459</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>18082891</t>
+          <t>56700848</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>工口漫画老师</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2441,24 +2441,24 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2727</t>
+          <t>2795</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>37003</t>
+          <t>36655</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>55634661</t>
+          <t>18082891</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Opalus</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2468,24 +2468,24 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2695</t>
+          <t>2727</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>39854</t>
+          <t>36725</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>48634530</t>
+          <t>58940575</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>leezhenrui</t>
+          <t>图啊图z z</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2495,14 +2495,14 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2647</t>
+          <t>2725</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>39847</t>
+          <t>40452</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2522,24 +2522,24 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2647</t>
+          <t>2661</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>47378</t>
+          <t>41226</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>52792063</t>
+          <t>48634530</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>"Tramaine Dowlen"</t>
+          <t>leezhenrui</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2549,24 +2549,24 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2544</t>
+          <t>2647</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>48195</t>
+          <t>49223</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>58940575</t>
+          <t>52792063</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>图啊图z z</t>
+          <t>"Tramaine Dowlen"</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2576,14 +2576,14 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2537</t>
+          <t>2540</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>50908</t>
+          <t>52394</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2603,14 +2603,14 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2517</t>
+          <t>2516</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>51107</t>
+          <t>52679</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2630,24 +2630,24 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2515</t>
+          <t>2514</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>53999</t>
+          <t>56492</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>5367482</t>
+          <t>9718882</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Ігор</t>
+          <t>小霸王2021</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2657,24 +2657,24 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2498</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>54829</t>
+          <t>57882</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>9718882</t>
+          <t>47430231</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>小霸王2021</t>
+          <t>Kentantrino</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2684,24 +2684,24 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2499</t>
+          <t>2496</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>56487</t>
+          <t>57800</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>47430231</t>
+          <t>5367482</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Kentantrino</t>
+          <t>Ігор</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2711,14 +2711,14 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2497</t>
+          <t>2496</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>61131</t>
+          <t>58698</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2738,14 +2738,14 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2481</t>
+          <t>2495</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>77145</t>
+          <t>78813</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2765,14 +2765,14 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>1527</t>
+          <t>1526</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>80713</t>
+          <t>82249</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2799,7 +2799,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>92255</t>
+          <t>94390</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3096,7 +3096,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>46653</t>
+          <t>46067</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3116,24 +3116,24 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>2552</t>
+          <t>2573</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>55101</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>47622456</t>
+          <t>56241637</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>伊恩</t>
+          <t>Player-14day</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3143,7 +3143,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2500</t>
         </is>
       </c>
     </row>
@@ -3155,12 +3155,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>56241637</t>
+          <t>47622456</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Player-14day</t>
+          <t>伊恩</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3177,7 +3177,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>45533</t>
+          <t>46921</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3231,17 +3231,17 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>84714</t>
+          <t>76856</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>41231396</t>
+          <t>59082827</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>ollsthebro</t>
+          <t>Player-59082827</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3251,14 +3251,14 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>1578</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>85875</t>
+          <t>85370</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3278,24 +3278,24 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>1373</t>
+          <t>1436</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>86466</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>58572199</t>
+          <t>41231396</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>你干嘛～哎呦～</t>
+          <t>ollsthebro</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3305,7 +3305,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1400</t>
         </is>
       </c>
     </row>
@@ -3317,12 +3317,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>58766144</t>
+          <t>58572199</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>EquablePrecedence38</t>
+          <t>你干嘛～哎呦～</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3344,12 +3344,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>29355299</t>
+          <t>58766144</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Player-29355299</t>
+          <t>EquablePrecedence38</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3371,12 +3371,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>58910668</t>
+          <t>29355299</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>BrittleAuthor33</t>
+          <t>Player-29355299</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3398,12 +3398,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>55745105</t>
+          <t>58910668</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>eldeniz</t>
+          <t>BrittleAuthor33</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3425,12 +3425,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>58174442</t>
+          <t>55745105</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Player-58174442</t>
+          <t>eldeniz</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3452,12 +3452,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>58671339</t>
+          <t>58174442</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>"quang pro"</t>
+          <t>Player-58174442</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3479,12 +3479,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>59081265</t>
+          <t>58671339</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>爬楼梯</t>
+          <t>"quang pro"</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3506,12 +3506,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>59082827</t>
+          <t>59081265</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Player-59082827</t>
+          <t>爬楼梯</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">

--- a/Season_Trophies/87.xlsx
+++ b/Season_Trophies/87.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E126"/>
+  <dimension ref="A1:E123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -396,7 +396,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>56196</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -416,14 +416,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2522</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>60300</t>
+          <t>54070</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -443,24 +443,24 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2491</t>
+          <t>2542</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2605</t>
+          <t>5316</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>43800641</t>
+          <t>27468237</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>㊥蛋蛋大</t>
+          <t>佛系复仇者秀川</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -470,24 +470,24 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3245</t>
+          <t>3608</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>7340</t>
+          <t>5823</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>27468237</t>
+          <t>43800641</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>佛系复仇者秀川</t>
+          <t>㊥蛋蛋大</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -497,14 +497,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3113</t>
+          <t>3588</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>21894</t>
+          <t>15357</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -524,14 +524,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2905</t>
+          <t>3321</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>24663</t>
+          <t>24969</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -551,14 +551,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2870</t>
+          <t>3112</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>56393</t>
+          <t>56475</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -578,24 +578,24 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2499</t>
+          <t>2520</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>5672</t>
+          <t>1438</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>12333251</t>
+          <t>138176</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>"㊌ Mingxuan"</t>
+          <t>Ze5kyphyr</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -605,24 +605,24 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3149</t>
+          <t>3813</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>11370</t>
+          <t>12535</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>138176</t>
+          <t>12333251</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Ze5kyphyr</t>
+          <t>"㊌ Mingxuan"</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -632,24 +632,24 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3040</t>
+          <t>3393</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>11899</t>
+          <t>15555</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>25376635</t>
+          <t>29729468</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>"sanchez ᶻᵍˣ"</t>
+          <t>"风神舞动 WDᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -659,24 +659,24 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3032</t>
+          <t>3316</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>21190</t>
+          <t>23552</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>58408326</t>
+          <t>45967307</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>"Killer Bee"</t>
+          <t>Ricky</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -686,24 +686,24 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2913</t>
+          <t>3139</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>24286</t>
+          <t>34842</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>29729468</t>
+          <t>55634661</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>"风神舞动 WDᶻᵍˣ"</t>
+          <t>Opalus</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -713,24 +713,24 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2875</t>
+          <t>2907</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>29148</t>
+          <t>35991</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>45967307</t>
+          <t>37069173</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Ricky</t>
+          <t>詹toniii</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -740,24 +740,24 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2819</t>
+          <t>2882</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>41024</t>
+          <t>56090</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1304123</t>
+          <t>7587898</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Cccccccccccc</t>
+          <t>藍精靈ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -767,24 +767,24 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2651</t>
+          <t>2522</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>54913</t>
+          <t>59603</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>7587898</t>
+          <t>20737010</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>藍精靈ᶻᵍˣ</t>
+          <t>混着玩...</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -801,17 +801,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>55723</t>
+          <t>59182</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>20737010</t>
+          <t>6510348</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>混着玩...</t>
+          <t>Bonpoisson</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -828,17 +828,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>54992</t>
+          <t>65022</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>6510348</t>
+          <t>59093405</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Bonpoisson</t>
+          <t>永恒不朽6</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -848,14 +848,14 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2287</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>75345</t>
+          <t>79368</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -875,7 +875,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1696</t>
+          <t>1727</t>
         </is>
       </c>
     </row>
@@ -936,44 +936,44 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>30042</t>
+          <t>16306</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>55634661</t>
+          <t>37861953</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Opalus</t>
+          <t>"Durex ๑• . •๑"</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2810</t>
+          <t>3298</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20996</t>
+          <t>26937</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>37861953</t>
+          <t>38809086</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>"Durex ๑• . •๑"</t>
+          <t>Kouenᶻᵍˣ</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -983,24 +983,24 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2916</t>
+          <t>3073</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>34268</t>
+          <t>5297</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>38809086</t>
+          <t>53060417</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Kouenᶻᵍˣ</t>
+          <t>㊥老纳信耶稣</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1010,24 +1010,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2761</t>
+          <t>3608</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>901</t>
+          <t>7618</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>49710892</t>
+          <t>4756174</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>MMMMMMM</t>
+          <t>純希です</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3393</t>
+          <t>3524</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>9163</t>
+          <t>7761</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>53060417</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>㊥老纳信耶稣</t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1064,24 +1064,24 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3076</t>
+          <t>3520</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>10100</t>
+          <t>12696</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4756174</t>
+          <t>49710892</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>純希です</t>
+          <t>MMMMMMM</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1091,24 +1091,24 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3060</t>
+          <t>3388</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>11071</t>
+          <t>13984</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>54698813</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t>閃亮唐老鴨</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1118,24 +1118,24 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3045</t>
+          <t>3354</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>18695</t>
+          <t>23309</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>54698813</t>
+          <t>55769051</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>閃亮唐老鴨</t>
+          <t>㊥叮叮当.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1145,24 +1145,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2945</t>
+          <t>3144</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>22672</t>
+          <t>2174</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>55769051</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>㊥叮叮当.</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1172,24 +1172,24 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2895</t>
+          <t>3762</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2361</t>
+          <t>5985</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>38995116</t>
+          <t>53520939</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>"Ramesh Pavai Nam"</t>
+          <t>㊥虎哥tiger</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1199,24 +1199,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>3258</t>
+          <t>3581</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>4199</t>
+          <t>5744</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>38995116</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>"Ramesh Pavai Nam"</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1226,24 +1226,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>3188</t>
+          <t>3591</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>7370</t>
+          <t>7591</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>55317038</t>
+          <t>4493731</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>necman12345</t>
+          <t>Player-1527362</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>3112</t>
+          <t>3525</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>8795</t>
+          <t>8599</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1280,24 +1280,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>3083</t>
+          <t>3495</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>8953</t>
+          <t>8941</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>8057001</t>
+          <t>47131129</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>㊥兵者诡道也</t>
+          <t>NAM</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1307,24 +1307,24 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>3080</t>
+          <t>3485</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>10776</t>
+          <t>10515</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>8057001</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>㊥兵者诡道也</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1334,24 +1334,24 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>3049</t>
+          <t>3443</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>10903</t>
+          <t>10649</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>53520939</t>
+          <t>31217211</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>㊥虎哥tiger</t>
+          <t>解憂雜貨鋪㊥</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1361,24 +1361,24 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3047</t>
+          <t>3440</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>11239</t>
+          <t>13332</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>47131129</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1388,24 +1388,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>3042</t>
+          <t>3371</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>13515</t>
+          <t>13983</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>4493731</t>
+          <t>55317038</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Player-1527362</t>
+          <t>necman12345</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1415,24 +1415,24 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>3009</t>
+          <t>3354</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>13643</t>
+          <t>14819</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>7852598</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>seiji</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1442,24 +1442,24 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>3007</t>
+          <t>3333</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>16519</t>
+          <t>15186</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>31217211</t>
+          <t>54778421</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>解憂雜貨鋪㊥</t>
+          <t>Emma</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1469,24 +1469,24 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2973</t>
+          <t>3324</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>18403</t>
+          <t>17810</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>58203298</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>权旨qua</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1496,24 +1496,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2949</t>
+          <t>3261</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>20422</t>
+          <t>19691</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>31401481</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>Player-31401481</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1523,24 +1523,24 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2923</t>
+          <t>3218</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>20718</t>
+          <t>20861</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>11582001</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>iMinatoX4</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1550,24 +1550,24 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2920</t>
+          <t>3193</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>23022</t>
+          <t>21132</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>54778421</t>
+          <t>58839983</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Emma</t>
+          <t>每逢佳节胖六斤</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1577,24 +1577,24 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2891</t>
+          <t>3187</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>23519</t>
+          <t>23032</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>7852598</t>
+          <t>24733875</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>seiji</t>
+          <t>龍少</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1604,24 +1604,24 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2884</t>
+          <t>3149</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>24318</t>
+          <t>25126</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>58839983</t>
+          <t>47459684</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>每逢佳节胖六斤</t>
+          <t>㊥阿闹切克闹</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1631,24 +1631,24 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2874</t>
+          <t>3109</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>25960</t>
+          <t>25991</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>31401481</t>
+          <t>6809364</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Player-31401481</t>
+          <t>"Scorp IP"</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1658,24 +1658,24 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2855</t>
+          <t>3092</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>26856</t>
+          <t>28058</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>47459684</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>㊥阿闹切克闹</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1685,24 +1685,24 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2844</t>
+          <t>3049</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>28910</t>
+          <t>29050</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>58408326</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>"Killer Bee"</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1712,24 +1712,24 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2821</t>
+          <t>3028</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>30119</t>
+          <t>29241</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>6809364</t>
+          <t>47146736</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>"Scorp IP"</t>
+          <t>"HK 品瑜"</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1739,24 +1739,24 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2809</t>
+          <t>3025</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>30350</t>
+          <t>30960</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>50837459</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>NINE日</t>
+          <t>Globalking</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1766,24 +1766,24 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2807</t>
+          <t>2990</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>31190</t>
+          <t>33809</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>47146736</t>
+          <t>11582001</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>"HK 品瑜"</t>
+          <t>iMinatoX4</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1793,24 +1793,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2798</t>
+          <t>2931</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>31309</t>
+          <t>35074</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>38561634</t>
+          <t>58203298</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>"Ambrose PT"</t>
+          <t>权旨qua</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1820,24 +1820,24 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2797</t>
+          <t>2902</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>37893</t>
+          <t>35794</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>55860890</t>
+          <t>50837459</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>㊥Ethan</t>
+          <t>NINE日</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1847,24 +1847,24 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2706</t>
+          <t>2886</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>38081</t>
+          <t>35974</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>56500325</t>
+          <t>57813281</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>haruharuyukizg9735</t>
+          <t>XAUEN</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1874,24 +1874,24 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2703</t>
+          <t>2882</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>40271</t>
+          <t>37891</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>24733875</t>
+          <t>38561634</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>龍少</t>
+          <t>"Ambrose PT"</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1901,24 +1901,24 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2665</t>
+          <t>2843</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>42238</t>
+          <t>38708</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>57813281</t>
+          <t>32316256</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>XAUEN</t>
+          <t>"秋の風 .."</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1928,24 +1928,24 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2630</t>
+          <t>2826</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>52519</t>
+          <t>38873</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>22161051</t>
+          <t>56500325</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Botz5</t>
+          <t>haruharuyukizg9735</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1955,24 +1955,24 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2515</t>
+          <t>2822</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>55857</t>
+          <t>42505</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>14110169</t>
+          <t>48634530</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>"Pasiony CANQ"</t>
+          <t>leezhenrui</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1982,24 +1982,24 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2745</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>59982</t>
+          <t>43939</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>32316256</t>
+          <t>55860890</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>"秋の風 .."</t>
+          <t>㊥Ethan</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2009,24 +2009,24 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2492</t>
+          <t>2712</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>60585</t>
+          <t>44870</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>38893233</t>
+          <t>1304123</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>"快乐 二哈"</t>
+          <t>Cccccccccccc</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2036,24 +2036,24 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2490</t>
+          <t>2690</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>57051</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>68132</t>
+          <t>38893233</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>"㊖TW9 百媚生"</t>
+          <t>"快乐 二哈"</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2063,24 +2063,24 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2516</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>58132</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>29565</t>
+          <t>22161051</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>"aK.j Zhong ㊥"</t>
+          <t>Botz5</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2090,14 +2090,14 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2509</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>59661</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2117,51 +2117,51 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2500</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>9884</t>
+          <t>59678</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>31134300</t>
+          <t>14110169</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>McMaX</t>
+          <t>"Pasiony CANQ"</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>3064</t>
+          <t>2500</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>47221</t>
+          <t>10866</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>43281368</t>
+          <t>31134300</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>xhs2763</t>
+          <t>McMaX</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2171,24 +2171,24 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2560</t>
+          <t>3434</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>55304</t>
+          <t>50538</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>44378757</t>
+          <t>43281368</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
+          <t>xhs2763</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2198,24 +2198,24 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2584</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>59356</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>48738257</t>
+          <t>44378757</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>死亡洲际跳蛋</t>
+          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2225,24 +2225,24 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2500</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>25455</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>44708798</t>
+          <t>48738257</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>"㊥ mythgod"</t>
+          <t>死亡洲际跳蛋</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2252,24 +2252,24 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2861</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>30393</t>
+          <t>21852</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>25479797</t>
+          <t>44708798</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>"Mohamed Alnaqbi"</t>
+          <t>"㊥ mythgod"</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2279,24 +2279,24 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2807</t>
+          <t>3172</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>37899</t>
+          <t>29813</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>54588689</t>
+          <t>25479797</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>㊥墨衍枫迹☜</t>
+          <t>"Mohamed Alnaqbi"</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2306,24 +2306,24 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2706</t>
+          <t>3013</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>43295</t>
+          <t>39964</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>37069173</t>
+          <t>54588689</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>詹toniii</t>
+          <t>㊥墨衍枫迹☜</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2333,14 +2333,14 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2613</t>
+          <t>2801</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>59124</t>
+          <t>52375</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2360,24 +2360,24 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2494</t>
+          <t>2561</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>18407</t>
+          <t>17413</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>55499394</t>
+          <t>18082891</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Player-55499394</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2387,24 +2387,24 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2949</t>
+          <t>3271</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>27189</t>
+          <t>33969</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>55499394</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Globalking</t>
+          <t>Player-55499394</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2414,14 +2414,14 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2840</t>
+          <t>2927</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>31459</t>
+          <t>39709</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2441,24 +2441,24 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2795</t>
+          <t>2806</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>36655</t>
+          <t>41437</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>18082891</t>
+          <t>3649043</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Dj6106</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2468,24 +2468,24 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2727</t>
+          <t>2769</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>36725</t>
+          <t>43614</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>58940575</t>
+          <t>52997727</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>图啊图z z</t>
+          <t>larios</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2495,24 +2495,24 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2725</t>
+          <t>2720</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>40452</t>
+          <t>54770</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>52997727</t>
+          <t>52792063</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>larios</t>
+          <t>"Tramaine Dowlen"</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2522,24 +2522,24 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2661</t>
+          <t>2535</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>41226</t>
+          <t>55552</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>48634530</t>
+          <t>11645391</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>leezhenrui</t>
+          <t>"omar omar"</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2549,24 +2549,24 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2647</t>
+          <t>2528</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>49223</t>
+          <t>59448</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>52792063</t>
+          <t>3391765</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>"Tramaine Dowlen"</t>
+          <t>马er</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2576,24 +2576,24 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2540</t>
+          <t>2500</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>52394</t>
+          <t>61371</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>11645391</t>
+          <t>9718882</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>"omar omar"</t>
+          <t>小霸王2021</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2603,24 +2603,24 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2516</t>
+          <t>2494</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>52679</t>
+          <t>62204</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>3649043</t>
+          <t>5367482</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Dj6106</t>
+          <t>Ігор</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2630,24 +2630,24 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2514</t>
+          <t>2491</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>56492</t>
+          <t>62765</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>9718882</t>
+          <t>15436348</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>小霸王2021</t>
+          <t>Lucas</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2657,14 +2657,14 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2498</t>
+          <t>2489</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>57882</t>
+          <t>57035</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2684,24 +2684,24 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2496</t>
+          <t>2516</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>57800</t>
+          <t>84525</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>5367482</t>
+          <t>54941706</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Ігор</t>
+          <t>AlexMenjivar20</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2711,24 +2711,24 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2496</t>
+          <t>1524</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>58698</t>
+          <t>89760</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>15436348</t>
+          <t>57219176</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Lucas</t>
+          <t>青莲道人</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2738,24 +2738,24 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2495</t>
+          <t>1495</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>78813</t>
+          <t>102248</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>54941706</t>
+          <t>49000199</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>AlexMenjivar20</t>
+          <t>SlipperyForester5672</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2765,24 +2765,24 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>1526</t>
+          <t>1172</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>82249</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>57219176</t>
+          <t>38994054</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>青莲道人</t>
+          <t>chengnan</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2792,24 +2792,24 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>1499</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>94390</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>49000199</t>
+          <t>55810157</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>SlipperyForester5672</t>
+          <t>Beard</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2819,7 +2819,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>1125</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2831,12 +2831,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>38994054</t>
+          <t>57556179</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>chengnan</t>
+          <t>特战新生代英雄</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2858,12 +2858,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>3391765</t>
+          <t>1222440</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>马er</t>
+          <t>"Sneaky Ninja Panda"</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2885,12 +2885,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>55810157</t>
+          <t>58340439</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Beard</t>
+          <t>70qilin</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2912,12 +2912,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>57556179</t>
+          <t>20372140</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>特战新生代英雄</t>
+          <t>人山即是仙</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2939,12 +2939,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>1222440</t>
+          <t>58615925</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>"Sneaky Ninja Panda"</t>
+          <t>齐天的大圣</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2966,12 +2966,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>58340439</t>
+          <t>58641574</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>70qilin</t>
+          <t>Player-58641574鱼</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2993,12 +2993,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>20372140</t>
+          <t>58743790</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>人山即是仙</t>
+          <t>Ma</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3015,54 +3015,54 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>47672</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>58615925</t>
+          <t>41849539</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>齐天的大圣</t>
+          <t>三号馆馆主</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2630</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>40464</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>58641574</t>
+          <t>56241637</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Player-58641574鱼</t>
+          <t>Player-14day</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2791</t>
         </is>
       </c>
     </row>
@@ -3074,17 +3074,17 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>58743790</t>
+          <t>47622456</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Ma</t>
+          <t>伊恩</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -3096,17 +3096,17 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>46067</t>
+          <t>52847</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>41849539</t>
+          <t>55210350</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>三号馆馆主</t>
+          <t>一个过客而已</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3116,24 +3116,24 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>2573</t>
+          <t>2555</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>55101</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>56241637</t>
+          <t>49553719</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Player-14day</t>
+          <t>"Oreo Captain Sir"</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3143,24 +3143,24 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>81524</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>47622456</t>
+          <t>59082827</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>伊恩</t>
+          <t>Player-59082827</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3170,24 +3170,24 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1587</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>46921</t>
+          <t>91304</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>55210350</t>
+          <t>59106471</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>一个过客而已</t>
+          <t>anime</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3197,24 +3197,24 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>2563</t>
+          <t>1467</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>93207</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>49553719</t>
+          <t>41231396</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>"Oreo Captain Sir"</t>
+          <t>ollsthebro</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3224,24 +3224,24 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1400</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>76856</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>59082827</t>
+          <t>58572199</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Player-59082827</t>
+          <t>你干嘛～哎呦～</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3251,24 +3251,24 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>1578</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>85370</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>59106471</t>
+          <t>58766144</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>anime</t>
+          <t>EquablePrecedence38</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3278,24 +3278,24 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>1436</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>86466</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>41231396</t>
+          <t>29355299</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>ollsthebro</t>
+          <t>Player-29355299</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3305,7 +3305,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3317,12 +3317,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>58572199</t>
+          <t>58910668</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>你干嘛～哎呦～</t>
+          <t>BrittleAuthor33</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3344,12 +3344,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>58766144</t>
+          <t>55745105</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>EquablePrecedence38</t>
+          <t>eldeniz</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3371,12 +3371,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>29355299</t>
+          <t>58174442</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Player-29355299</t>
+          <t>Player-58174442</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3398,12 +3398,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>58910668</t>
+          <t>58671339</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>BrittleAuthor33</t>
+          <t>"quang pro"</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3425,12 +3425,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>55745105</t>
+          <t>59081265</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>eldeniz</t>
+          <t>爬楼梯</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3452,17 +3452,17 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>58174442</t>
+          <t>10636651</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Player-58174442</t>
+          <t>"Ismail Aflou"</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -3479,17 +3479,17 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>58671339</t>
+          <t>12648101</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>"quang pro"</t>
+          <t>"player 198827"</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -3506,17 +3506,17 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>59081265</t>
+          <t>9195340</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>爬楼梯</t>
+          <t>Namllllllik</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -3533,12 +3533,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>10636651</t>
+          <t>41848598</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>"Ismail Aflou"</t>
+          <t>国家一级保护沙雕</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3560,12 +3560,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>12648101</t>
+          <t>15755724</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>"player 198827"</t>
+          <t>"Last Good"</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3587,12 +3587,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>9195340</t>
+          <t>8850180</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Namllllllik</t>
+          <t>30624300</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3614,12 +3614,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>41848598</t>
+          <t>28624723</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>国家一级保护沙雕</t>
+          <t>"Woody Shade"</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3641,12 +3641,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>15755724</t>
+          <t>6010122</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>"Last Good"</t>
+          <t>"Edward Peng"</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3668,12 +3668,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>8850180</t>
+          <t>9913517</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>30624300</t>
+          <t>"Kenny Chan"</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3682,87 +3682,6 @@
         </is>
       </c>
       <c r="E123" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>28624723</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>"Woody Shade"</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>6010122</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>"Edward Peng"</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>9913517</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>"Kenny Chan"</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/Season_Trophies/87.xlsx
+++ b/Season_Trophies/87.xlsx
@@ -396,17 +396,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>56196</t>
+          <t>55965</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>42542275</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>春田花花幼稚园</t>
+          <t>"同 风 雨"</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -416,24 +416,24 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2522</t>
+          <t>2556</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>54070</t>
+          <t>1981</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>42542275</t>
+          <t>27468237</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>"同 风 雨"</t>
+          <t>佛系复仇者秀川</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -443,24 +443,24 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2542</t>
+          <t>4179</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>5316</t>
+          <t>7829</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>27468237</t>
+          <t>43800641</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>佛系复仇者秀川</t>
+          <t>㊥蛋蛋大</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -470,24 +470,24 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3608</t>
+          <t>3945</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>5823</t>
+          <t>12082</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>43800641</t>
+          <t>14424176</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>㊥蛋蛋大</t>
+          <t>天才少年老纪</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -497,24 +497,24 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3588</t>
+          <t>3774</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>15357</t>
+          <t>23012</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>14424176</t>
+          <t>4229136</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>天才少年老纪</t>
+          <t>"totoro wu"</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -524,24 +524,24 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3321</t>
+          <t>3443</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>24969</t>
+          <t>59368</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>4229136</t>
+          <t>21665473</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>"totoro wu"</t>
+          <t>"Dog Gamedesiger"</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -551,24 +551,24 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3112</t>
+          <t>2520</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>56475</t>
+          <t>20228</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>21665473</t>
+          <t>12333251</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>"Dog Gamedesiger"</t>
+          <t>"㊌ Mingxuan"</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -578,24 +578,24 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2520</t>
+          <t>3516</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1438</t>
+          <t>15413</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>138176</t>
+          <t>45967307</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Ze5kyphyr</t>
+          <t>Ricky</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -605,24 +605,24 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3813</t>
+          <t>3660</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>12535</t>
+          <t>24774</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>12333251</t>
+          <t>29729468</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>"㊌ Mingxuan"</t>
+          <t>"风神舞动 WDᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -632,24 +632,24 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3393</t>
+          <t>3398</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>15555</t>
+          <t>36214</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>29729468</t>
+          <t>37069173</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>"风神舞动 WDᶻᵍˣ"</t>
+          <t>詹toniii</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -659,24 +659,24 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3316</t>
+          <t>3065</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>23552</t>
+          <t>36794</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>45967307</t>
+          <t>55634661</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Ricky</t>
+          <t>Opalus</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -686,24 +686,24 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3139</t>
+          <t>3046</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>34842</t>
+          <t>59042</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>55634661</t>
+          <t>7587898</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Opalus</t>
+          <t>藍精靈ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -713,24 +713,24 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2907</t>
+          <t>2522</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>35991</t>
+          <t>59475</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>37069173</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>詹toniii</t>
+          <t>春田花花幼稚园</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -740,24 +740,24 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2882</t>
+          <t>2519</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>56090</t>
+          <t>59704</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>7587898</t>
+          <t>6510348</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>藍精靈ᶻᵍˣ</t>
+          <t>Bonpoisson</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -767,14 +767,14 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2522</t>
+          <t>2516</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>59603</t>
+          <t>61851</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -801,17 +801,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>59182</t>
+          <t>62292</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>6510348</t>
+          <t>59095922</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Bonpoisson</t>
+          <t>xxxx7</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -821,14 +821,14 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2498</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>65022</t>
+          <t>66894</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -848,14 +848,14 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2287</t>
+          <t>2283</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>79368</t>
+          <t>82373</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -875,7 +875,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1727</t>
+          <t>1724</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>16306</t>
+          <t>16186</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -956,14 +956,14 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3298</t>
+          <t>3636</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>26937</t>
+          <t>23879</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -983,24 +983,24 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3073</t>
+          <t>3421</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>5297</t>
+          <t>2898</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>53060417</t>
+          <t>49710892</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>㊥老纳信耶稣</t>
+          <t>MMMMMMM</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1010,24 +1010,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3608</t>
+          <t>4116</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>7618</t>
+          <t>4613</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4756174</t>
+          <t>53060417</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>純希です</t>
+          <t>㊥老纳信耶稣</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3524</t>
+          <t>4030</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>7761</t>
+          <t>9945</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>54698813</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t>閃亮唐老鴨</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1064,24 +1064,24 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3520</t>
+          <t>3855</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>12696</t>
+          <t>11544</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>49710892</t>
+          <t>4756174</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>MMMMMMM</t>
+          <t>純希です</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1091,24 +1091,24 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3388</t>
+          <t>3794</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>13984</t>
+          <t>12237</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>54698813</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>閃亮唐老鴨</t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1118,14 +1118,14 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3354</t>
+          <t>3768</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>23309</t>
+          <t>31566</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1145,24 +1145,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3144</t>
+          <t>3209</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2174</t>
+          <t>4689</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>47131129</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>NAM</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1172,24 +1172,24 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3762</t>
+          <t>4027</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5985</t>
+          <t>5486</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>53520939</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>㊥虎哥tiger</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1199,24 +1199,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>3581</t>
+          <t>3998</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5744</t>
+          <t>5810</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>38995116</t>
+          <t>4493731</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>"Ramesh Pavai Nam"</t>
+          <t>Player-1527362</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1226,24 +1226,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>3591</t>
+          <t>3995</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>7591</t>
+          <t>6611</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>4493731</t>
+          <t>53520939</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Player-1527362</t>
+          <t>㊥虎哥tiger</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>3525</t>
+          <t>3987</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>8599</t>
+          <t>9514</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>31217211</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>解憂雜貨鋪㊥</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1280,24 +1280,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>3495</t>
+          <t>3875</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>8941</t>
+          <t>11057</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>47131129</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1307,14 +1307,14 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>3485</t>
+          <t>3811</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>10515</t>
+          <t>12153</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1334,24 +1334,24 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>3443</t>
+          <t>3771</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>10649</t>
+          <t>12095</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>31217211</t>
+          <t>38995116</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>解憂雜貨鋪㊥</t>
+          <t>"Ramesh Pavai Nam"</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1361,14 +1361,14 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3440</t>
+          <t>3773</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>13332</t>
+          <t>13871</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1388,24 +1388,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>3371</t>
+          <t>3712</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>13983</t>
+          <t>14137</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>55317038</t>
+          <t>7852598</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>necman12345</t>
+          <t>seiji</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1415,24 +1415,24 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>3354</t>
+          <t>3703</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>14819</t>
+          <t>14330</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>7852598</t>
+          <t>55317038</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>seiji</t>
+          <t>necman12345</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1442,24 +1442,24 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>3333</t>
+          <t>3697</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>15186</t>
+          <t>14850</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>54778421</t>
+          <t>24733875</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Emma</t>
+          <t>龍少</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1469,24 +1469,24 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>3324</t>
+          <t>3679</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>17810</t>
+          <t>16279</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>54778421</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>Emma</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1496,14 +1496,14 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>3261</t>
+          <t>3633</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>19691</t>
+          <t>21131</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1523,24 +1523,24 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>3218</t>
+          <t>3491</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>20861</t>
+          <t>23192</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>58839983</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>每逢佳节胖六斤</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1550,24 +1550,24 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>3193</t>
+          <t>3438</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>21132</t>
+          <t>23197</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>58839983</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>每逢佳节胖六斤</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1577,24 +1577,24 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>3187</t>
+          <t>3438</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>23032</t>
+          <t>24420</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>24733875</t>
+          <t>11582001</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>龍少</t>
+          <t>iMinatoX4</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1604,24 +1604,24 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>3149</t>
+          <t>3408</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>25126</t>
+          <t>25509</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>47459684</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>㊥阿闹切克闹</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1631,24 +1631,24 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>3109</t>
+          <t>3378</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>25991</t>
+          <t>26442</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>6809364</t>
+          <t>47146736</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>"Scorp IP"</t>
+          <t>"HK 品瑜"</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1658,24 +1658,24 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>3092</t>
+          <t>3353</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>28058</t>
+          <t>26535</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>6809364</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>"Scorp IP"</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1685,24 +1685,24 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>3049</t>
+          <t>3350</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>29050</t>
+          <t>27172</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>58408326</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>"Killer Bee"</t>
+          <t>Globalking1001</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1712,24 +1712,24 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>3028</t>
+          <t>3333</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>29241</t>
+          <t>27515</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>47146736</t>
+          <t>47459684</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>"HK 品瑜"</t>
+          <t>㊥阿闹切克闹</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1739,24 +1739,24 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>3025</t>
+          <t>3323</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>30960</t>
+          <t>28476</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Globalking</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1766,24 +1766,24 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2990</t>
+          <t>3296</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>33809</t>
+          <t>31600</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>11582001</t>
+          <t>58408326</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>iMinatoX4</t>
+          <t>"Killer Bee"</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1793,24 +1793,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2931</t>
+          <t>3208</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>35074</t>
+          <t>34570</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>58203298</t>
+          <t>57813281</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>权旨qua</t>
+          <t>XAUEN</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1820,24 +1820,24 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2902</t>
+          <t>3117</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>35794</t>
+          <t>35714</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>50837459</t>
+          <t>38561634</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>NINE日</t>
+          <t>"Ambrose PT"</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1847,24 +1847,24 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2886</t>
+          <t>3082</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>35974</t>
+          <t>37821</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>57813281</t>
+          <t>58203298</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>XAUEN</t>
+          <t>权旨qua</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1874,24 +1874,24 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2882</t>
+          <t>3010</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>37891</t>
+          <t>37921</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>38561634</t>
+          <t>56500325</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>"Ambrose PT"</t>
+          <t>haruharuyukizg9735</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1901,24 +1901,24 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2843</t>
+          <t>3007</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>38708</t>
+          <t>37980</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>32316256</t>
+          <t>1304123</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>"秋の風 .."</t>
+          <t>Cccccccccccc</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1928,24 +1928,24 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2826</t>
+          <t>3006</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>38873</t>
+          <t>40161</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>56500325</t>
+          <t>50837459</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>haruharuyukizg9735</t>
+          <t>NINE日</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1955,24 +1955,24 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2822</t>
+          <t>2934</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>42505</t>
+          <t>43771</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>48634530</t>
+          <t>32316256</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>leezhenrui</t>
+          <t>"秋の風 .."</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1982,24 +1982,24 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2745</t>
+          <t>2823</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>43939</t>
+          <t>44734</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>55860890</t>
+          <t>48634530</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>㊥Ethan</t>
+          <t>leezhenrui</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2009,24 +2009,24 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2712</t>
+          <t>2795</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>44870</t>
+          <t>44822</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1304123</t>
+          <t>52997727</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Cccccccccccc</t>
+          <t>larios</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2036,24 +2036,24 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2690</t>
+          <t>2793</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>57051</t>
+          <t>47905</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>38893233</t>
+          <t>55860890</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>"快乐 二哈"</t>
+          <t>㊥Ethan</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2063,24 +2063,24 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2516</t>
+          <t>2709</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>58132</t>
+          <t>59797</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>22161051</t>
+          <t>1550355</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Botz5</t>
+          <t>"皓茵 世界"</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2090,24 +2090,24 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2509</t>
+          <t>2516</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>59661</t>
+          <t>60294</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1550355</t>
+          <t>38893233</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>"皓茵 世界"</t>
+          <t>"快乐 二哈"</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2117,24 +2117,24 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2512</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>59678</t>
+          <t>61320</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>14110169</t>
+          <t>22161051</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>"Pasiony CANQ"</t>
+          <t>Botz5</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2144,51 +2144,51 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2502</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>10866</t>
+          <t>61908</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>31134300</t>
+          <t>14110169</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>McMaX</t>
+          <t>"Pasiony CANQ"</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>3434</t>
+          <t>2500</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>50538</t>
+          <t>12187</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>43281368</t>
+          <t>31134300</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>xhs2763</t>
+          <t>McMaX</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2198,24 +2198,24 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2584</t>
+          <t>3770</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>59356</t>
+          <t>51379</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>44378757</t>
+          <t>43281368</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
+          <t>xhs2763</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2225,24 +2225,24 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2629</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>61646</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>48738257</t>
+          <t>44378757</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>死亡洲际跳蛋</t>
+          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2252,24 +2252,24 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2500</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>21852</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>44708798</t>
+          <t>48738257</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>"㊥ mythgod"</t>
+          <t>死亡洲际跳蛋</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2279,24 +2279,24 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>3172</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>29813</t>
+          <t>25261</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>25479797</t>
+          <t>44708798</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>"Mohamed Alnaqbi"</t>
+          <t>"㊥ mythgod"</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2306,24 +2306,24 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>3013</t>
+          <t>3385</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>39964</t>
+          <t>29896</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>54588689</t>
+          <t>25479797</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>㊥墨衍枫迹☜</t>
+          <t>"Mohamed Alnaqbi"</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2333,24 +2333,24 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2801</t>
+          <t>3258</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>52375</t>
+          <t>42842</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>28855852</t>
+          <t>54588689</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>tiger</t>
+          <t>㊥墨衍枫迹☜</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2360,24 +2360,24 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2561</t>
+          <t>2849</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>17413</t>
+          <t>55662</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>18082891</t>
+          <t>28855852</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>tiger</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2387,14 +2387,14 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>3271</t>
+          <t>2560</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>33969</t>
+          <t>27882</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2414,24 +2414,24 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2927</t>
+          <t>3313</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>39709</t>
+          <t>28820</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>56700848</t>
+          <t>18082891</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>工口漫画老师</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2441,14 +2441,14 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2806</t>
+          <t>3288</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>41437</t>
+          <t>34525</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2468,24 +2468,24 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2769</t>
+          <t>3119</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>43614</t>
+          <t>42456</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>52997727</t>
+          <t>56700848</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>larios</t>
+          <t>工口漫画老师</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2495,14 +2495,14 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2720</t>
+          <t>2860</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>54770</t>
+          <t>57803</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2529,17 +2529,17 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>55552</t>
+          <t>58681</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>11645391</t>
+          <t>47430231</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>"omar omar"</t>
+          <t>Kentantrino</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2549,24 +2549,24 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2528</t>
+          <t>2526</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>59448</t>
+          <t>58820</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>3391765</t>
+          <t>11645391</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>马er</t>
+          <t>"omar omar"</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2576,24 +2576,24 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2525</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>61371</t>
+          <t>62047</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>9718882</t>
+          <t>5367482</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>小霸王2021</t>
+          <t>Ігор</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2603,24 +2603,24 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2494</t>
+          <t>2499</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>62204</t>
+          <t>62408</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>5367482</t>
+          <t>3391765</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Ігор</t>
+          <t>马er</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2630,24 +2630,24 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2491</t>
+          <t>2498</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>62765</t>
+          <t>64372</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>15436348</t>
+          <t>9718882</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Lucas</t>
+          <t>小霸王2021</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2657,24 +2657,24 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2489</t>
+          <t>2486</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>57035</t>
+          <t>64609</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>47430231</t>
+          <t>15436348</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Kentantrino</t>
+          <t>Lucas</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2684,14 +2684,14 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2516</t>
+          <t>2485</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>84525</t>
+          <t>88605</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2711,14 +2711,14 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>1524</t>
+          <t>1523</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>89760</t>
+          <t>94487</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2738,14 +2738,14 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>1495</t>
+          <t>1490</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>102248</t>
+          <t>108378</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2765,7 +2765,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>1172</t>
+          <t>1171</t>
         </is>
       </c>
     </row>
@@ -3015,7 +3015,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>47672</t>
+          <t>50249</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3035,14 +3035,14 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>2630</t>
+          <t>2652</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>40464</t>
+          <t>38347</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3062,7 +3062,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>2791</t>
+          <t>2994</t>
         </is>
       </c>
     </row>
@@ -3096,7 +3096,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>52847</t>
+          <t>54192</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3116,7 +3116,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>2555</t>
+          <t>2581</t>
         </is>
       </c>
     </row>
@@ -3150,7 +3150,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>81524</t>
+          <t>83495</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3170,14 +3170,14 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>1587</t>
+          <t>1649</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>91304</t>
+          <t>90167</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3197,14 +3197,14 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>1467</t>
+          <t>1500</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>93207</t>
+          <t>98141</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -3224,7 +3224,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>1399</t>
         </is>
       </c>
     </row>

--- a/Season_Trophies/87.xlsx
+++ b/Season_Trophies/87.xlsx
@@ -396,7 +396,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>55965</t>
+          <t>56842</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -416,14 +416,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2556</t>
+          <t>2554</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1981</t>
+          <t>2696</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -443,24 +443,24 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4179</t>
+          <t>4171</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>7829</t>
+          <t>5416</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>43800641</t>
+          <t>14424176</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>㊥蛋蛋大</t>
+          <t>天才少年老纪</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -470,24 +470,24 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3945</t>
+          <t>4041</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>12082</t>
+          <t>8899</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>14424176</t>
+          <t>43800641</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天才少年老纪</t>
+          <t>㊥蛋蛋大</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -497,14 +497,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3774</t>
+          <t>3961</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>23012</t>
+          <t>25818</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -531,7 +531,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>59368</t>
+          <t>59970</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -558,17 +558,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20228</t>
+          <t>17824</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>12333251</t>
+          <t>45967307</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>"㊌ Mingxuan"</t>
+          <t>Ricky</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -578,24 +578,24 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3516</t>
+          <t>3660</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>15413</t>
+          <t>21811</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>45967307</t>
+          <t>12333251</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Ricky</t>
+          <t>"㊌ Mingxuan"</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -605,14 +605,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3660</t>
+          <t>3548</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>24774</t>
+          <t>27552</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -639,7 +639,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>36214</t>
+          <t>36693</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -659,14 +659,14 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3065</t>
+          <t>3102</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>36794</t>
+          <t>38224</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -686,24 +686,24 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3046</t>
+          <t>3044</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>59042</t>
+          <t>55841</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>7587898</t>
+          <t>59095922</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>藍精靈ᶻᵍˣ</t>
+          <t>xxxx7</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -713,24 +713,24 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2522</t>
+          <t>2567</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>59475</t>
+          <t>59663</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>7587898</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>春田花花幼稚园</t>
+          <t>藍精靈ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -740,24 +740,24 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2519</t>
+          <t>2522</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>59704</t>
+          <t>60096</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>6510348</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Bonpoisson</t>
+          <t>春田花花幼稚园</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -767,24 +767,24 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2516</t>
+          <t>2519</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>61851</t>
+          <t>60329</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>20737010</t>
+          <t>6510348</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>混着玩...</t>
+          <t>Bonpoisson</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -794,24 +794,24 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2516</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>62292</t>
+          <t>62372</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>59095922</t>
+          <t>20737010</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>xxxx7</t>
+          <t>混着玩...</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -821,14 +821,14 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2498</t>
+          <t>2500</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>66894</t>
+          <t>67400</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -848,14 +848,14 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2283</t>
+          <t>2277</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>82373</t>
+          <t>83143</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -875,7 +875,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1724</t>
+          <t>1720</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>16186</t>
+          <t>16892</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -956,14 +956,14 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3636</t>
+          <t>3689</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>23879</t>
+          <t>26675</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -990,7 +990,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2898</t>
+          <t>4825</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1010,24 +1010,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4116</t>
+          <t>4067</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>4613</t>
+          <t>5604</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>53060417</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>㊥老纳信耶稣</t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>4030</t>
+          <t>4034</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>9945</t>
+          <t>6845</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>54698813</t>
+          <t>53060417</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>閃亮唐老鴨</t>
+          <t>㊥老纳信耶稣</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1064,14 +1064,14 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3855</t>
+          <t>3997</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>11544</t>
+          <t>9877</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1091,24 +1091,24 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3794</t>
+          <t>3926</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>12237</t>
+          <t>9951</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>54698813</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t>閃亮唐老鴨</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1118,14 +1118,14 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3768</t>
+          <t>3923</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>31566</t>
+          <t>33311</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1145,24 +1145,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3209</t>
+          <t>3221</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>4689</t>
+          <t>5318</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>47131129</t>
+          <t>8057001</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>㊥兵者诡道也</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1172,24 +1172,24 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>4027</t>
+          <t>4044</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5486</t>
+          <t>5487</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>47131129</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>NAM</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>3998</t>
+          <t>4038</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5810</t>
+          <t>7124</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1233,7 +1233,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>6611</t>
+          <t>7085</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>3987</t>
+          <t>3995</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>9514</t>
+          <t>7240</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>31217211</t>
+          <t>55317038</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>解憂雜貨鋪㊥</t>
+          <t>necman12345</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1280,24 +1280,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>3875</t>
+          <t>3994</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>11057</t>
+          <t>7626</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1307,24 +1307,24 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>3811</t>
+          <t>3991</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>12153</t>
+          <t>11279</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>8057001</t>
+          <t>31217211</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>㊥兵者诡道也</t>
+          <t>解憂雜貨鋪㊥</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1334,14 +1334,14 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>3771</t>
+          <t>3875</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>12095</t>
+          <t>11481</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1361,24 +1361,24 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3773</t>
+          <t>3867</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>13871</t>
+          <t>12103</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>7852598</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>seiji</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1388,24 +1388,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>3712</t>
+          <t>3844</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>14137</t>
+          <t>13271</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>7852598</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>seiji</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1415,24 +1415,24 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>3703</t>
+          <t>3804</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>14330</t>
+          <t>14505</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>55317038</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>necman12345</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1442,14 +1442,14 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>3697</t>
+          <t>3761</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>14850</t>
+          <t>17226</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1476,7 +1476,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>16279</t>
+          <t>18186</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1496,24 +1496,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>3633</t>
+          <t>3649</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>21131</t>
+          <t>18561</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>31401481</t>
+          <t>47146736</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Player-31401481</t>
+          <t>"HK 品瑜"</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1523,14 +1523,14 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>3491</t>
+          <t>3638</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>23192</t>
+          <t>22104</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1550,24 +1550,24 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>3438</t>
+          <t>3540</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>23197</t>
+          <t>24110</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>31401481</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>Player-31401481</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1577,24 +1577,24 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>3438</t>
+          <t>3488</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>24420</t>
+          <t>26350</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>11582001</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>iMinatoX4</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1604,14 +1604,14 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>3408</t>
+          <t>3430</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>25509</t>
+          <t>26422</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1631,24 +1631,24 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>3378</t>
+          <t>3428</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>26442</t>
+          <t>27197</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>47146736</t>
+          <t>11582001</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>"HK 品瑜"</t>
+          <t>iMinatoX4</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1658,24 +1658,24 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>3353</t>
+          <t>3408</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>26535</t>
+          <t>27488</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>6809364</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>"Scorp IP"</t>
+          <t>Globalking1001</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1685,24 +1685,24 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>3350</t>
+          <t>3399</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>27172</t>
+          <t>28629</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>47459684</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Globalking1001</t>
+          <t>㊥阿闹切克闹</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1712,24 +1712,24 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>3333</t>
+          <t>3366</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>27515</t>
+          <t>29061</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>47459684</t>
+          <t>50837459</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>㊥阿闹切克闹</t>
+          <t>NINE日</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1739,24 +1739,24 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>3323</t>
+          <t>3355</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>28476</t>
+          <t>25502</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>6809364</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>"Scorp IP"</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1766,24 +1766,24 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>3296</t>
+          <t>3450</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>31600</t>
+          <t>30043</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>58408326</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>"Killer Bee"</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1793,24 +1793,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>3208</t>
+          <t>3325</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>34570</t>
+          <t>31415</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>57813281</t>
+          <t>58408326</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>XAUEN</t>
+          <t>"Killer Bee"</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1820,24 +1820,24 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>3117</t>
+          <t>3283</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>35714</t>
+          <t>31594</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>38561634</t>
+          <t>57813281</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>"Ambrose PT"</t>
+          <t>XAUEN</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1847,14 +1847,14 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>3082</t>
+          <t>3277</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>37821</t>
+          <t>32417</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1874,24 +1874,24 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>3010</t>
+          <t>3251</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>37921</t>
+          <t>37245</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>56500325</t>
+          <t>38561634</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>haruharuyukizg9735</t>
+          <t>"Ambrose PT"</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1901,24 +1901,24 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>3007</t>
+          <t>3081</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>37980</t>
+          <t>39326</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1304123</t>
+          <t>56500325</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Cccccccccccc</t>
+          <t>haruharuyukizg9735</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1928,24 +1928,24 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>3006</t>
+          <t>3003</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>40161</t>
+          <t>39381</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>50837459</t>
+          <t>1304123</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>NINE日</t>
+          <t>Cccccccccccc</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1955,24 +1955,24 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2934</t>
+          <t>3002</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>43771</t>
+          <t>44074</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>32316256</t>
+          <t>48634530</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>"秋の風 .."</t>
+          <t>leezhenrui</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1982,24 +1982,24 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2823</t>
+          <t>2841</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>44734</t>
+          <t>44702</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>48634530</t>
+          <t>32316256</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>leezhenrui</t>
+          <t>"秋の風 .."</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2009,14 +2009,14 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2795</t>
+          <t>2823</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>44822</t>
+          <t>45740</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2036,14 +2036,14 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2793</t>
+          <t>2792</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>47905</t>
+          <t>47608</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2063,14 +2063,14 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2709</t>
+          <t>2739</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>59797</t>
+          <t>58770</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2090,14 +2090,14 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2516</t>
+          <t>2532</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>60294</t>
+          <t>61107</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2117,24 +2117,24 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2512</t>
+          <t>2510</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>61320</t>
+          <t>62431</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>22161051</t>
+          <t>14110169</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Botz5</t>
+          <t>"Pasiony CANQ"</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2144,24 +2144,24 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2502</t>
+          <t>2500</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>61908</t>
+          <t>62361</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>14110169</t>
+          <t>22161051</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>"Pasiony CANQ"</t>
+          <t>Botz5</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2178,7 +2178,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>12187</t>
+          <t>14250</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2205,7 +2205,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>51379</t>
+          <t>52412</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2225,14 +2225,14 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2629</t>
+          <t>2625</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>61646</t>
+          <t>62180</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2286,17 +2286,17 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>25261</t>
+          <t>20622</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>44708798</t>
+          <t>25479797</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>"㊥ mythgod"</t>
+          <t>"Mohamed Alnaqbi"</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2306,24 +2306,24 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>3385</t>
+          <t>3580</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>29896</t>
+          <t>26134</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>25479797</t>
+          <t>44708798</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>"Mohamed Alnaqbi"</t>
+          <t>"㊥ mythgod"</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2333,14 +2333,14 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>3258</t>
+          <t>3435</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>42842</t>
+          <t>43484</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2360,14 +2360,14 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2849</t>
+          <t>2859</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>55662</t>
+          <t>56535</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2387,24 +2387,24 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2560</t>
+          <t>2558</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>27882</t>
+          <t>23376</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>55499394</t>
+          <t>18082891</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Player-55499394</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2414,24 +2414,24 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>3313</t>
+          <t>3507</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>28820</t>
+          <t>30646</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>18082891</t>
+          <t>55499394</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Player-55499394</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2441,14 +2441,14 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>3288</t>
+          <t>3307</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>34525</t>
+          <t>36409</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2468,14 +2468,14 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>3119</t>
+          <t>3112</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>42456</t>
+          <t>43571</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2495,14 +2495,14 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2860</t>
+          <t>2856</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>57803</t>
+          <t>58625</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2522,24 +2522,24 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2535</t>
+          <t>2533</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>58681</t>
+          <t>59434</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>47430231</t>
+          <t>11645391</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Kentantrino</t>
+          <t>"omar omar"</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2549,24 +2549,24 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2526</t>
+          <t>2525</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>58820</t>
+          <t>59485</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>11645391</t>
+          <t>47430231</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>"omar omar"</t>
+          <t>Kentantrino</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2576,14 +2576,14 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2525</t>
+          <t>2524</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>62047</t>
+          <t>62788</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2603,14 +2603,14 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2499</t>
+          <t>2498</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>62408</t>
+          <t>63121</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2630,14 +2630,14 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2498</t>
+          <t>2497</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>64372</t>
+          <t>64676</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2664,7 +2664,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>64609</t>
+          <t>64895</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2691,7 +2691,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>88605</t>
+          <t>89681</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2718,7 +2718,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>94487</t>
+          <t>91133</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2738,14 +2738,14 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>1490</t>
+          <t>1504</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>108378</t>
+          <t>109943</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2765,7 +2765,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>1171</t>
+          <t>1170</t>
         </is>
       </c>
     </row>
@@ -3015,7 +3015,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>50249</t>
+          <t>51198</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3035,14 +3035,14 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>2652</t>
+          <t>2649</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>38347</t>
+          <t>39752</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3062,7 +3062,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>2994</t>
+          <t>2988</t>
         </is>
       </c>
     </row>
@@ -3096,7 +3096,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>54192</t>
+          <t>55006</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3116,7 +3116,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>2581</t>
+          <t>2580</t>
         </is>
       </c>
     </row>
@@ -3150,7 +3150,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>83495</t>
+          <t>84359</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3170,14 +3170,14 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>1649</t>
+          <t>1647</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>90167</t>
+          <t>91315</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3204,7 +3204,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>98141</t>
+          <t>99266</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">

--- a/Season_Trophies/87.xlsx
+++ b/Season_Trophies/87.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E123"/>
+  <dimension ref="A1:E124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -396,7 +396,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>56842</t>
+          <t>56496</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -416,14 +416,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2554</t>
+          <t>2580</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2696</t>
+          <t>2917</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -443,14 +443,14 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4171</t>
+          <t>4454</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>5416</t>
+          <t>9765</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -470,14 +470,14 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4041</t>
+          <t>4125</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>8899</t>
+          <t>15473</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -497,14 +497,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3961</t>
+          <t>3981</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>25818</t>
+          <t>20415</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -524,14 +524,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3443</t>
+          <t>3811</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>59970</t>
+          <t>49108</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -551,24 +551,24 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2520</t>
+          <t>2746</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>17824</t>
+          <t>1275</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>45967307</t>
+          <t>20199374</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Ricky</t>
+          <t>RuanFan</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -578,24 +578,24 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3660</t>
+          <t>4591</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>21811</t>
+          <t>2849</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>12333251</t>
+          <t>1951758</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>"㊌ Mingxuan"</t>
+          <t>我來找你了</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -605,24 +605,24 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3548</t>
+          <t>4459</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>27552</t>
+          <t>7840</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>29729468</t>
+          <t>25376635</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>"风神舞动 WDᶻᵍˣ"</t>
+          <t>"sanchez ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -632,24 +632,24 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3398</t>
+          <t>4206</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>36693</t>
+          <t>24978</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>37069173</t>
+          <t>45967307</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>詹toniii</t>
+          <t>Ricky</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -659,24 +659,24 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3102</t>
+          <t>3660</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>38224</t>
+          <t>25739</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>55634661</t>
+          <t>12333251</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Opalus</t>
+          <t>"㊌ Mingxuan"</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -686,24 +686,24 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3044</t>
+          <t>3635</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>55841</t>
+          <t>39343</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>59095922</t>
+          <t>37069173</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>xxxx7</t>
+          <t>詹toniii</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -713,24 +713,24 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2567</t>
+          <t>3117</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>59663</t>
+          <t>40877</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>7587898</t>
+          <t>55634661</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>藍精靈ᶻᵍˣ</t>
+          <t>Opalus</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -740,24 +740,24 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2522</t>
+          <t>3043</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>60096</t>
+          <t>46001</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>20737010</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>春田花花幼稚园</t>
+          <t>混着玩...</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -767,24 +767,24 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2519</t>
+          <t>2843</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>60329</t>
+          <t>55703</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>6510348</t>
+          <t>59095922</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Bonpoisson</t>
+          <t>xxxx7</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -794,24 +794,24 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2516</t>
+          <t>2592</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>62372</t>
+          <t>58833</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>20737010</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>混着玩...</t>
+          <t>春田花花幼稚园</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -821,24 +821,24 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2547</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>67400</t>
+          <t>60989</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>59093405</t>
+          <t>7587898</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>永恒不朽6</t>
+          <t>藍精靈ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -848,24 +848,24 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2277</t>
+          <t>2521</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>83143</t>
+          <t>61518</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>59100545</t>
+          <t>6510348</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>"black dragon"</t>
+          <t>Bonpoisson</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -875,24 +875,24 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1720</t>
+          <t>2516</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>68483</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>23687250</t>
+          <t>59093405</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>"jetlijp ᶻᵍˣ"</t>
+          <t>永恒不朽6</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -902,24 +902,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2269</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>84567</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>47928278</t>
+          <t>59100545</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>"落日幻影 哈哈哈"</t>
+          <t>"black dragon"</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -929,105 +929,105 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1719</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>16892</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>37861953</t>
+          <t>23687250</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>"Durex ๑• . •๑"</t>
+          <t>"jetlijp ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3689</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>26675</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>38809086</t>
+          <t>47928278</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Kouenᶻᵍˣ</t>
+          <t>"落日幻影 哈哈哈"</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3421</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>4825</t>
+          <t>1164</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>49710892</t>
+          <t>46422609</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>MMMMMMM</t>
+          <t>㊥林天大大神</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4067</t>
+          <t>4605</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5604</t>
+          <t>22921</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>37861953</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t>"Durex ๑• . •๑"</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>4034</t>
+          <t>3729</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>6845</t>
+          <t>8341</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>53060417</t>
+          <t>31217211</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>㊥老纳信耶稣</t>
+          <t>解憂雜貨鋪㊥</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1064,24 +1064,24 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3997</t>
+          <t>4184</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>9877</t>
+          <t>11244</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4756174</t>
+          <t>53520939</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>純希です</t>
+          <t>㊥虎哥tiger</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1091,24 +1091,24 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3926</t>
+          <t>4065</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>9951</t>
+          <t>21422</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>54698813</t>
+          <t>38809086</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>閃亮唐老鴨</t>
+          <t>Kouenᶻᵍˣ</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1118,24 +1118,24 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3923</t>
+          <t>3778</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>33311</t>
+          <t>26635</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>55769051</t>
+          <t>47146736</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>㊥叮叮当.</t>
+          <t>"HK 品瑜"</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1145,24 +1145,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3221</t>
+          <t>3607</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5318</t>
+          <t>8720</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>8057001</t>
+          <t>53060417</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>㊥兵者诡道也</t>
+          <t>㊥老纳信耶稣</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1172,24 +1172,24 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>4044</t>
+          <t>4168</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5487</t>
+          <t>12223</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>47131129</t>
+          <t>49710892</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>MMMMMMM</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1199,24 +1199,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>4038</t>
+          <t>4030</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>7124</t>
+          <t>12780</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>4493731</t>
+          <t>54698813</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Player-1527362</t>
+          <t>閃亮唐老鴨</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1226,24 +1226,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>3995</t>
+          <t>4013</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>7085</t>
+          <t>13619</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>53520939</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>㊥虎哥tiger</t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>3995</t>
+          <t>3997</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>7240</t>
+          <t>14531</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>55317038</t>
+          <t>4756174</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>necman12345</t>
+          <t>純希です</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1280,24 +1280,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>3994</t>
+          <t>3991</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>7626</t>
+          <t>15318</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>8057001</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>㊥兵者诡道也</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1307,24 +1307,24 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>3991</t>
+          <t>3983</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>11279</t>
+          <t>34672</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>31217211</t>
+          <t>55769051</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>解憂雜貨鋪㊥</t>
+          <t>㊥叮叮当.</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1334,24 +1334,24 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>3875</t>
+          <t>3320</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>11481</t>
+          <t>4638</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>38995116</t>
+          <t>4493731</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>"Ramesh Pavai Nam"</t>
+          <t>Player-1527362</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1361,24 +1361,24 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3867</t>
+          <t>4359</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>12103</t>
+          <t>6407</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>7852598</t>
+          <t>47131129</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>seiji</t>
+          <t>NAM</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1388,24 +1388,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>3844</t>
+          <t>4276</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>13271</t>
+          <t>8661</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>24733875</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>龍少</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1415,24 +1415,24 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>3804</t>
+          <t>4171</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>14505</t>
+          <t>10391</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>7852598</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>seiji</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1442,24 +1442,24 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>3761</t>
+          <t>4097</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>17226</t>
+          <t>11121</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>24733875</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>龍少</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1469,24 +1469,24 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>3679</t>
+          <t>4069</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>18186</t>
+          <t>10226</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>54778421</t>
+          <t>38995116</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Emma</t>
+          <t>"Ramesh Pavai Nam"</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1496,24 +1496,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>3649</t>
+          <t>4104</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>18561</t>
+          <t>12498</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>47146736</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>"HK 品瑜"</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1523,24 +1523,24 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>3638</t>
+          <t>4021</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>22104</t>
+          <t>14357</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>58839983</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>每逢佳节胖六斤</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1550,24 +1550,24 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>3540</t>
+          <t>3992</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>24110</t>
+          <t>15086</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>31401481</t>
+          <t>55317038</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Player-31401481</t>
+          <t>necman12345</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1577,24 +1577,24 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>3488</t>
+          <t>3986</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>26350</t>
+          <t>16343</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>54778421</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>Emma</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1604,24 +1604,24 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>3430</t>
+          <t>3954</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>26422</t>
+          <t>19585</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>11582001</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>iMinatoX4</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1631,24 +1631,24 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>3428</t>
+          <t>3839</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>27197</t>
+          <t>21425</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>11582001</t>
+          <t>31401481</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>iMinatoX4</t>
+          <t>Player-31401481</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1658,24 +1658,24 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>3408</t>
+          <t>3778</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>27488</t>
+          <t>24388</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Globalking1001</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1685,24 +1685,24 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>3399</t>
+          <t>3680</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>28629</t>
+          <t>24729</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>47459684</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>㊥阿闹切克闹</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1712,24 +1712,24 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>3366</t>
+          <t>3668</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>29061</t>
+          <t>24702</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>50837459</t>
+          <t>58839983</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>NINE日</t>
+          <t>每逢佳节胖六斤</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1739,14 +1739,14 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>3355</t>
+          <t>3669</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>25502</t>
+          <t>25232</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1766,24 +1766,24 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>3450</t>
+          <t>3651</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>30043</t>
+          <t>28192</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>Globalking1001</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1793,24 +1793,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>3325</t>
+          <t>3554</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>31415</t>
+          <t>29565</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>58408326</t>
+          <t>47459684</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>"Killer Bee"</t>
+          <t>㊥阿闹切克闹</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1820,24 +1820,24 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>3283</t>
+          <t>3508</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>31594</t>
+          <t>29582</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>57813281</t>
+          <t>58408326</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>XAUEN</t>
+          <t>"Killer Bee"</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1847,24 +1847,24 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>3277</t>
+          <t>3507</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>32417</t>
+          <t>33201</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>58203298</t>
+          <t>50837459</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>权旨qua</t>
+          <t>NINE日</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1874,24 +1874,24 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>3251</t>
+          <t>3376</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>37245</t>
+          <t>34918</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>38561634</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>"Ambrose PT"</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1901,24 +1901,24 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>3081</t>
+          <t>3310</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>39326</t>
+          <t>36392</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>56500325</t>
+          <t>57813281</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>haruharuyukizg9735</t>
+          <t>XAUEN</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1928,24 +1928,24 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>3003</t>
+          <t>3249</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>39381</t>
+          <t>36869</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1304123</t>
+          <t>58203298</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Cccccccccccc</t>
+          <t>权旨qua</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1955,24 +1955,24 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>3002</t>
+          <t>3230</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>44074</t>
+          <t>37370</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>48634530</t>
+          <t>1304123</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>leezhenrui</t>
+          <t>Cccccccccccc</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1982,24 +1982,24 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2841</t>
+          <t>3209</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>44702</t>
+          <t>38948</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>32316256</t>
+          <t>56500325</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>"秋の風 .."</t>
+          <t>haruharuyukizg9735</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2009,24 +2009,24 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2823</t>
+          <t>3135</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>45740</t>
+          <t>39561</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>52997727</t>
+          <t>3649043</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>larios</t>
+          <t>Dj6106</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2036,24 +2036,24 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2792</t>
+          <t>3104</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>47608</t>
+          <t>40090</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>55860890</t>
+          <t>38561634</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>㊥Ethan</t>
+          <t>"Ambrose PT"</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2063,24 +2063,24 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2739</t>
+          <t>3079</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>58770</t>
+          <t>42697</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1550355</t>
+          <t>52997727</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>"皓茵 世界"</t>
+          <t>larios</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2090,24 +2090,24 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2532</t>
+          <t>2965</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>61107</t>
+          <t>45160</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>38893233</t>
+          <t>48634530</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>"快乐 二哈"</t>
+          <t>leezhenrui</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2117,24 +2117,24 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2510</t>
+          <t>2870</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>62431</t>
+          <t>45993</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>14110169</t>
+          <t>32316256</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>"Pasiony CANQ"</t>
+          <t>"秋の風 .."</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2144,24 +2144,24 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2843</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>62361</t>
+          <t>46861</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>22161051</t>
+          <t>55860890</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Botz5</t>
+          <t>㊥Ethan</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2171,78 +2171,78 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2815</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>14250</t>
+          <t>54567</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>31134300</t>
+          <t>38893233</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>McMaX</t>
+          <t>"快乐 二哈"</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>3770</t>
+          <t>2614</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>52412</t>
+          <t>60074</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>43281368</t>
+          <t>1550355</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>xhs2763</t>
+          <t>"皓茵 世界"</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2625</t>
+          <t>2532</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>62180</t>
+          <t>11805</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>44378757</t>
+          <t>31134300</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
+          <t>McMaX</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2252,24 +2252,24 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>4045</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>54163</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>48738257</t>
+          <t>43281368</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>死亡洲际跳蛋</t>
+          <t>xhs2763</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2279,24 +2279,24 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2622</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>20622</t>
+          <t>63179</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>25479797</t>
+          <t>44378757</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>"Mohamed Alnaqbi"</t>
+          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2306,24 +2306,24 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>3580</t>
+          <t>2500</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>26134</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>44708798</t>
+          <t>48738257</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>"㊥ mythgod"</t>
+          <t>死亡洲际跳蛋</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2333,24 +2333,24 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>3435</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>43484</t>
+          <t>22707</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>54588689</t>
+          <t>44708798</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>㊥墨衍枫迹☜</t>
+          <t>"㊥ mythgod"</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2360,24 +2360,24 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2859</t>
+          <t>3736</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>56535</t>
+          <t>27520</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>28855852</t>
+          <t>25479797</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>tiger</t>
+          <t>"Mohamed Alnaqbi"</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2387,24 +2387,24 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2558</t>
+          <t>3577</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>23376</t>
+          <t>44379</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>18082891</t>
+          <t>54588689</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>㊥墨衍枫迹☜</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2414,24 +2414,24 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>3507</t>
+          <t>2897</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>30646</t>
+          <t>56760</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>55499394</t>
+          <t>28855852</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Player-55499394</t>
+          <t>tiger</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2441,24 +2441,24 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>3307</t>
+          <t>2576</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>36409</t>
+          <t>29815</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>3649043</t>
+          <t>18082891</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Dj6106</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2468,24 +2468,24 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>3112</t>
+          <t>3499</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>43571</t>
+          <t>34919</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>56700848</t>
+          <t>55499394</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>工口漫画老师</t>
+          <t>Player-55499394</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2495,24 +2495,24 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2856</t>
+          <t>3310</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>58625</t>
+          <t>44788</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>52792063</t>
+          <t>56700848</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>"Tramaine Dowlen"</t>
+          <t>工口漫画老师</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2522,24 +2522,24 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2533</t>
+          <t>2883</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>59434</t>
+          <t>47448</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>11645391</t>
+          <t>9718882</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>"omar omar"</t>
+          <t>小霸王2021</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2549,14 +2549,14 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2525</t>
+          <t>2796</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>59485</t>
+          <t>58594</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2576,24 +2576,24 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2524</t>
+          <t>2550</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>62788</t>
+          <t>59326</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>5367482</t>
+          <t>11645391</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Ігор</t>
+          <t>"omar omar"</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2603,24 +2603,24 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2498</t>
+          <t>2541</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>63121</t>
+          <t>60383</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>3391765</t>
+          <t>52792063</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>马er</t>
+          <t>"Tramaine Dowlen"</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2630,24 +2630,24 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2497</t>
+          <t>2528</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>64676</t>
+          <t>62000</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>9718882</t>
+          <t>3391765</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>小霸王2021</t>
+          <t>马er</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2657,24 +2657,24 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2486</t>
+          <t>2512</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>64895</t>
+          <t>63945</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>15436348</t>
+          <t>5367482</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Lucas</t>
+          <t>Ігор</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2684,24 +2684,24 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2485</t>
+          <t>2497</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>89681</t>
+          <t>65569</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>54941706</t>
+          <t>15436348</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>AlexMenjivar20</t>
+          <t>Lucas</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2711,24 +2711,24 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>1523</t>
+          <t>2484</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>91133</t>
+          <t>89666</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>57219176</t>
+          <t>54941706</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>青莲道人</t>
+          <t>AlexMenjivar20</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2738,24 +2738,24 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>1504</t>
+          <t>1550</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>109943</t>
+          <t>94769</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>49000199</t>
+          <t>57219176</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>SlipperyForester5672</t>
+          <t>青莲道人</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2765,24 +2765,24 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>1170</t>
+          <t>1500</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>112804</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>38994054</t>
+          <t>49000199</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>chengnan</t>
+          <t>SlipperyForester5672</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2792,7 +2792,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1182</t>
         </is>
       </c>
     </row>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>55810157</t>
+          <t>38994054</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Beard</t>
+          <t>chengnan</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2831,12 +2831,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>57556179</t>
+          <t>55810157</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>特战新生代英雄</t>
+          <t>Beard</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2858,12 +2858,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>1222440</t>
+          <t>57556179</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>"Sneaky Ninja Panda"</t>
+          <t>特战新生代英雄</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2885,12 +2885,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>58340439</t>
+          <t>1222440</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>70qilin</t>
+          <t>"Sneaky Ninja Panda"</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2912,12 +2912,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>20372140</t>
+          <t>58340439</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>人山即是仙</t>
+          <t>70qilin</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2939,12 +2939,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>58615925</t>
+          <t>20372140</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>齐天的大圣</t>
+          <t>人山即是仙</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2966,12 +2966,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>58641574</t>
+          <t>58615925</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Player-58641574鱼</t>
+          <t>齐天的大圣</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2993,12 +2993,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>58743790</t>
+          <t>58641574</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Ma</t>
+          <t>Player-58641574鱼</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3015,44 +3015,44 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>51198</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>41849539</t>
+          <t>58743790</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>三号馆馆主</t>
+          <t>Ma</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>2649</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>39752</t>
+          <t>52922</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>56241637</t>
+          <t>41849539</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Player-14day</t>
+          <t>三号馆馆主</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3062,24 +3062,24 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>2988</t>
+          <t>2647</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>42326</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>47622456</t>
+          <t>56241637</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>伊恩</t>
+          <t>Player-14day</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3089,24 +3089,24 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2981</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>55006</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>55210350</t>
+          <t>47622456</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>一个过客而已</t>
+          <t>伊恩</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3116,24 +3116,24 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>2580</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>56017</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>49553719</t>
+          <t>55210350</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>"Oreo Captain Sir"</t>
+          <t>一个过客而已</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3143,24 +3143,24 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2587</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>84359</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>59082827</t>
+          <t>49553719</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Player-59082827</t>
+          <t>"Oreo Captain Sir"</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3170,24 +3170,24 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>1647</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>91315</t>
+          <t>86022</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>59106471</t>
+          <t>59082827</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>anime</t>
+          <t>Player-59082827</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3197,24 +3197,24 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>1500</t>
+          <t>1642</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>99266</t>
+          <t>93418</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>41231396</t>
+          <t>59106471</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>ollsthebro</t>
+          <t>anime</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3224,24 +3224,24 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>1399</t>
+          <t>1500</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>101518</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>58572199</t>
+          <t>41231396</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>你干嘛～哎呦～</t>
+          <t>ollsthebro</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3251,7 +3251,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1399</t>
         </is>
       </c>
     </row>
@@ -3263,12 +3263,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>58766144</t>
+          <t>58572199</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>EquablePrecedence38</t>
+          <t>你干嘛～哎呦～</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3290,12 +3290,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>29355299</t>
+          <t>58766144</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Player-29355299</t>
+          <t>EquablePrecedence38</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3317,12 +3317,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>58910668</t>
+          <t>29355299</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>BrittleAuthor33</t>
+          <t>Player-29355299</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3344,12 +3344,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>55745105</t>
+          <t>58910668</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>eldeniz</t>
+          <t>BrittleAuthor33</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3371,12 +3371,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>58174442</t>
+          <t>55745105</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Player-58174442</t>
+          <t>eldeniz</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3398,12 +3398,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>58671339</t>
+          <t>58174442</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>"quang pro"</t>
+          <t>Player-58174442</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3425,12 +3425,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>59081265</t>
+          <t>58671339</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>爬楼梯</t>
+          <t>"quang pro"</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3452,17 +3452,17 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>10636651</t>
+          <t>59081265</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>"Ismail Aflou"</t>
+          <t>爬楼梯</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -3479,12 +3479,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>12648101</t>
+          <t>10636651</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>"player 198827"</t>
+          <t>"Ismail Aflou"</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3506,12 +3506,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>9195340</t>
+          <t>12648101</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Namllllllik</t>
+          <t>"player 198827"</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3533,12 +3533,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>41848598</t>
+          <t>9195340</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>国家一级保护沙雕</t>
+          <t>Namllllllik</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3560,12 +3560,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>15755724</t>
+          <t>41848598</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>"Last Good"</t>
+          <t>国家一级保护沙雕</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3587,12 +3587,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>8850180</t>
+          <t>15755724</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>30624300</t>
+          <t>"Last Good"</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3614,12 +3614,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>28624723</t>
+          <t>8850180</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>"Woody Shade"</t>
+          <t>30624300</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3641,12 +3641,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>6010122</t>
+          <t>28624723</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>"Edward Peng"</t>
+          <t>"Woody Shade"</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3668,20 +3668,47 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
+          <t>6010122</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>"Edward Peng"</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>999999</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
           <t>9913517</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
+      <c r="C124" t="inlineStr">
         <is>
           <t>"Kenny Chan"</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
+      <c r="D124" t="inlineStr">
         <is>
           <t>Chinese</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/Season_Trophies/87.xlsx
+++ b/Season_Trophies/87.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E124"/>
+  <dimension ref="A1:E127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -396,7 +396,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>56496</t>
+          <t>56650</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -423,17 +423,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2917</t>
+          <t>1124</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>27468237</t>
+          <t>6940556</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>佛系复仇者秀川</t>
+          <t>"Cry ab it林黛玉ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -443,24 +443,24 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4454</t>
+          <t>4618</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>9765</t>
+          <t>1344</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>14424176</t>
+          <t>20199374</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天才少年老纪</t>
+          <t>RuanFan</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -470,24 +470,24 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4125</t>
+          <t>4591</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>15473</t>
+          <t>493</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>43800641</t>
+          <t>8741713</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>㊥蛋蛋大</t>
+          <t xml:space="preserve">㊥大咖玩家ky </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -497,24 +497,24 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3981</t>
+          <t>4728</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20415</t>
+          <t>1297</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>4229136</t>
+          <t>46422609</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>"totoro wu"</t>
+          <t>㊥林天大大神</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -524,24 +524,24 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3811</t>
+          <t>4596</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>49108</t>
+          <t>2967</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>21665473</t>
+          <t>1951758</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>"Dog Gamedesiger"</t>
+          <t>我來找你了</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -551,24 +551,24 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2746</t>
+          <t>4459</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1275</t>
+          <t>3036</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>20199374</t>
+          <t>27468237</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>RuanFan</t>
+          <t>佛系复仇者秀川</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -578,24 +578,24 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4591</t>
+          <t>4454</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2849</t>
+          <t>9557</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1951758</t>
+          <t>14424176</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>我來找你了</t>
+          <t>天才少年老纪</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -605,24 +605,24 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4459</t>
+          <t>4146</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>7840</t>
+          <t>16001</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>25376635</t>
+          <t>43800641</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>"sanchez ᶻᵍˣ"</t>
+          <t>㊥蛋蛋大</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -632,24 +632,24 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4206</t>
+          <t>3981</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>24978</t>
+          <t>16774</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>45967307</t>
+          <t>26588375</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Ricky</t>
+          <t>何苦僧ai</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -659,24 +659,24 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3660</t>
+          <t>3958</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>25739</t>
+          <t>21076</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>12333251</t>
+          <t>4229136</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>"㊌ Mingxuan"</t>
+          <t>"totoro wu"</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -686,24 +686,24 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3635</t>
+          <t>3811</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>39343</t>
+          <t>49289</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>37069173</t>
+          <t>21665473</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>詹toniii</t>
+          <t>"Dog Gamedesiger"</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -713,24 +713,24 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3117</t>
+          <t>2746</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>40877</t>
+          <t>8116</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>55634661</t>
+          <t>25376635</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Opalus</t>
+          <t>"sanchez ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -740,24 +740,24 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3043</t>
+          <t>4206</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>46001</t>
+          <t>25646</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>20737010</t>
+          <t>45967307</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>混着玩...</t>
+          <t>Ricky</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -767,24 +767,24 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2843</t>
+          <t>3660</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>55703</t>
+          <t>25946</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>59095922</t>
+          <t>12333251</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>xxxx7</t>
+          <t>"㊌ Mingxuan"</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -794,24 +794,24 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2592</t>
+          <t>3650</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>58833</t>
+          <t>39667</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>37069173</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>春田花花幼稚园</t>
+          <t>詹toniii</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -821,24 +821,24 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2547</t>
+          <t>3115</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>60989</t>
+          <t>41103</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>7587898</t>
+          <t>55634661</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>藍精靈ᶻᵍˣ</t>
+          <t>Opalus</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -848,24 +848,24 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2521</t>
+          <t>3043</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>61518</t>
+          <t>46176</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>6510348</t>
+          <t>20737010</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Bonpoisson</t>
+          <t>混着玩...</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -875,24 +875,24 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2516</t>
+          <t>2843</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>68483</t>
+          <t>55865</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>59093405</t>
+          <t>59095922</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>永恒不朽6</t>
+          <t>xxxx7</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -902,24 +902,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2269</t>
+          <t>2592</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>84567</t>
+          <t>58981</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>59100545</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>"black dragon"</t>
+          <t>春田花花幼稚园</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -929,24 +929,24 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1719</t>
+          <t>2547</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>61106</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>23687250</t>
+          <t>7587898</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>"jetlijp ᶻᵍˣ"</t>
+          <t>藍精靈ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -956,24 +956,24 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2521</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>61631</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>47928278</t>
+          <t>6510348</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>"落日幻影 哈哈哈"</t>
+          <t>Bonpoisson</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -983,24 +983,24 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2516</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1164</t>
+          <t>68588</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>46422609</t>
+          <t>59093405</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>㊥林天大大神</t>
+          <t>永恒不朽6</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1010,105 +1010,105 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4605</t>
+          <t>2269</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>22921</t>
+          <t>84716</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>37861953</t>
+          <t>59100545</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>"Durex ๑• . •๑"</t>
+          <t>"black dragon"</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3729</t>
+          <t>1719</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>8341</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>31217211</t>
+          <t>23687250</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>解憂雜貨鋪㊥</t>
+          <t>"jetlijp ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4184</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>11244</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>53520939</t>
+          <t>47928278</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>㊥虎哥tiger</t>
+          <t>"落日幻影 哈哈哈"</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4065</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>21422</t>
+          <t>23588</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>38809086</t>
+          <t>37861953</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Kouenᶻᵍˣ</t>
+          <t>"Durex ๑• . •๑"</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1118,24 +1118,24 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3778</t>
+          <t>3729</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>26635</t>
+          <t>8611</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>47146736</t>
+          <t>31217211</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>"HK 品瑜"</t>
+          <t>解憂雜貨鋪㊥</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1145,24 +1145,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3607</t>
+          <t>4184</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>8720</t>
+          <t>11806</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>53060417</t>
+          <t>53520939</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>㊥老纳信耶稣</t>
+          <t>㊥虎哥tiger</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1172,24 +1172,24 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>4168</t>
+          <t>4060</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>12223</t>
+          <t>22092</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>49710892</t>
+          <t>38809086</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>MMMMMMM</t>
+          <t>Kouenᶻᵍˣ</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1199,24 +1199,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>4030</t>
+          <t>3778</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>12780</t>
+          <t>27360</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>54698813</t>
+          <t>47146736</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>閃亮唐老鴨</t>
+          <t>"HK 品瑜"</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1226,24 +1226,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>4013</t>
+          <t>3605</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>13619</t>
+          <t>5134</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>49710892</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t>MMMMMMM</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>3997</t>
+          <t>4343</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>14531</t>
+          <t>9484</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>4756174</t>
+          <t>53060417</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>純希です</t>
+          <t>㊥老纳信耶稣</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1280,24 +1280,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>3991</t>
+          <t>4148</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>15318</t>
+          <t>13763</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>8057001</t>
+          <t>54698813</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>㊥兵者诡道也</t>
+          <t>閃亮唐老鴨</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1307,24 +1307,24 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>3983</t>
+          <t>4003</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>34672</t>
+          <t>14226</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>55769051</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>㊥叮叮当.</t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1334,24 +1334,24 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>3320</t>
+          <t>3997</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>4638</t>
+          <t>15270</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>4493731</t>
+          <t>4756174</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Player-1527362</t>
+          <t>純希です</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1361,24 +1361,24 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>4359</t>
+          <t>3990</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>6407</t>
+          <t>15852</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>47131129</t>
+          <t>8057001</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>㊥兵者诡道也</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1388,24 +1388,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4276</t>
+          <t>3983</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>8661</t>
+          <t>35075</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>24733875</t>
+          <t>55769051</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>龍少</t>
+          <t>㊥叮叮当.</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1415,24 +1415,24 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>4171</t>
+          <t>3319</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>10391</t>
+          <t>4818</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>7852598</t>
+          <t>4493731</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>seiji</t>
+          <t>Player-1527362</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1442,24 +1442,24 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4097</t>
+          <t>4359</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>11121</t>
+          <t>6603</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>47131129</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>NAM</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1469,24 +1469,24 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>4069</t>
+          <t>4276</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>10226</t>
+          <t>7997</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>38995116</t>
+          <t>55317038</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>"Ramesh Pavai Nam"</t>
+          <t>necman12345</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1496,24 +1496,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>4104</t>
+          <t>4210</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>12498</t>
+          <t>8943</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>24733875</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>龍少</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1523,24 +1523,24 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>4021</t>
+          <t>4171</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>14357</t>
+          <t>10012</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>38995116</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>"Ramesh Pavai Nam"</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1550,24 +1550,24 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>3992</t>
+          <t>4128</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>15086</t>
+          <t>10779</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>55317038</t>
+          <t>7852598</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>necman12345</t>
+          <t>seiji</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1577,24 +1577,24 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>3986</t>
+          <t>4097</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>16343</t>
+          <t>12539</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>54778421</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Emma</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1604,24 +1604,24 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>3954</t>
+          <t>4036</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>19585</t>
+          <t>13523</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>11582001</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>iMinatoX4</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1631,24 +1631,24 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>3839</t>
+          <t>4008</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>21425</t>
+          <t>13821</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>31401481</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Player-31401481</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1658,24 +1658,24 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>3778</t>
+          <t>4002</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>24388</t>
+          <t>16532</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>54778421</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>Emma</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1685,24 +1685,24 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>3680</t>
+          <t>3966</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>24729</t>
+          <t>20186</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>11582001</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>iMinatoX4</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1712,24 +1712,24 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>3668</t>
+          <t>3839</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>24702</t>
+          <t>22173</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>58839983</t>
+          <t>31401481</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>每逢佳节胖六斤</t>
+          <t>Player-31401481</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1739,24 +1739,24 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>3669</t>
+          <t>3775</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>25232</t>
+          <t>24444</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>6809364</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>"Scorp IP"</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1766,24 +1766,24 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>3651</t>
+          <t>3701</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>28192</t>
+          <t>25662</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>58839983</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Globalking1001</t>
+          <t>每逢佳节胖六斤</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1793,24 +1793,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>3554</t>
+          <t>3659</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>29565</t>
+          <t>25719</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>47459684</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>㊥阿闹切克闹</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1820,24 +1820,24 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>3508</t>
+          <t>3657</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>29582</t>
+          <t>25885</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>58408326</t>
+          <t>6809364</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>"Killer Bee"</t>
+          <t>"Scorp IP"</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1847,24 +1847,24 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>3507</t>
+          <t>3651</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>33201</t>
+          <t>25932</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>50837459</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>NINE日</t>
+          <t>Globalking1001</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1874,24 +1874,24 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>3376</t>
+          <t>3650</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>34918</t>
+          <t>27528</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>58408326</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>"Killer Bee"</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1901,24 +1901,24 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>3310</t>
+          <t>3599</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>36392</t>
+          <t>29567</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>57813281</t>
+          <t>47459684</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>XAUEN</t>
+          <t>㊥阿闹切克闹</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1928,24 +1928,24 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>3249</t>
+          <t>3529</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>36869</t>
+          <t>31257</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>58203298</t>
+          <t>3649043</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>权旨qua</t>
+          <t>Dj6106</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1955,24 +1955,24 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>3230</t>
+          <t>3468</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>37370</t>
+          <t>33681</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1304123</t>
+          <t>50837459</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Cccccccccccc</t>
+          <t>NINE日</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1982,24 +1982,24 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>3209</t>
+          <t>3375</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>38948</t>
+          <t>35337</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>56500325</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>haruharuyukizg9735</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2009,24 +2009,24 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>3135</t>
+          <t>3308</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>39561</t>
+          <t>36741</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>3649043</t>
+          <t>57813281</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Dj6106</t>
+          <t>XAUEN</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2036,24 +2036,24 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>3104</t>
+          <t>3249</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>40090</t>
+          <t>36388</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>38561634</t>
+          <t>58203298</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>"Ambrose PT"</t>
+          <t>权旨qua</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2063,24 +2063,24 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>3079</t>
+          <t>3264</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>42697</t>
+          <t>37499</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>52997727</t>
+          <t>1304123</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>larios</t>
+          <t>Cccccccccccc</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2090,24 +2090,24 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2965</t>
+          <t>3218</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>45160</t>
+          <t>39342</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>48634530</t>
+          <t>56500325</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>leezhenrui</t>
+          <t>haruharuyukizg9735</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2117,24 +2117,24 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2870</t>
+          <t>3131</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>45993</t>
+          <t>40421</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>32316256</t>
+          <t>38561634</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>"秋の風 .."</t>
+          <t>"Ambrose PT"</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2144,24 +2144,24 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2843</t>
+          <t>3077</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>46861</t>
+          <t>42912</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>55860890</t>
+          <t>52997727</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>㊥Ethan</t>
+          <t>larios</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2171,24 +2171,24 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2815</t>
+          <t>2965</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>54567</t>
+          <t>44909</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>38893233</t>
+          <t>48634530</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>"快乐 二哈"</t>
+          <t>leezhenrui</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2198,24 +2198,24 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2614</t>
+          <t>2886</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>60074</t>
+          <t>46171</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1550355</t>
+          <t>32316256</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>"皓茵 世界"</t>
+          <t>"秋の風 .."</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2225,105 +2225,105 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2532</t>
+          <t>2843</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>11805</t>
+          <t>47067</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>31134300</t>
+          <t>55860890</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>McMaX</t>
+          <t>㊥Ethan</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>4045</t>
+          <t>2814</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>54163</t>
+          <t>54729</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>43281368</t>
+          <t>38893233</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>xhs2763</t>
+          <t>"快乐 二哈"</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2622</t>
+          <t>2614</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>63179</t>
+          <t>60195</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>44378757</t>
+          <t>1550355</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
+          <t>"皓茵 世界"</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2532</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>12271</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>48738257</t>
+          <t>31134300</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>死亡洲际跳蛋</t>
+          <t>McMaX</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2333,24 +2333,24 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4045</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>22707</t>
+          <t>54332</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>44708798</t>
+          <t>43281368</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>"㊥ mythgod"</t>
+          <t>xhs2763</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2360,24 +2360,24 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>3736</t>
+          <t>2622</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>27520</t>
+          <t>63259</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>25479797</t>
+          <t>44378757</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>"Mohamed Alnaqbi"</t>
+          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2387,24 +2387,24 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>3577</t>
+          <t>2500</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>44379</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>54588689</t>
+          <t>48738257</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>㊥墨衍枫迹☜</t>
+          <t>死亡洲际跳蛋</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2414,24 +2414,24 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2897</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>56760</t>
+          <t>22433</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>28855852</t>
+          <t>44708798</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>tiger</t>
+          <t>"㊥ mythgod"</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2441,24 +2441,24 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2576</t>
+          <t>3766</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>29815</t>
+          <t>28170</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>18082891</t>
+          <t>25479797</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>"Mohamed Alnaqbi"</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2468,24 +2468,24 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>3499</t>
+          <t>3577</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>34919</t>
+          <t>44597</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>55499394</t>
+          <t>54588689</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Player-55499394</t>
+          <t>㊥墨衍枫迹☜</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2495,24 +2495,24 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>3310</t>
+          <t>2897</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>44788</t>
+          <t>56985</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>56700848</t>
+          <t>28855852</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>工口漫画老师</t>
+          <t>tiger</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2522,24 +2522,24 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2883</t>
+          <t>2575</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>47448</t>
+          <t>26467</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>9718882</t>
+          <t>18082891</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>小霸王2021</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2549,24 +2549,24 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2796</t>
+          <t>3632</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>58594</t>
+          <t>27314</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>47430231</t>
+          <t>55499394</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Kentantrino</t>
+          <t>Player-55499394</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2576,24 +2576,24 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2550</t>
+          <t>3606</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>59326</t>
+          <t>44989</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>11645391</t>
+          <t>56700848</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>"omar omar"</t>
+          <t>工口漫画老师</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2603,24 +2603,24 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2541</t>
+          <t>2883</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>60383</t>
+          <t>47628</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>52792063</t>
+          <t>9718882</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>"Tramaine Dowlen"</t>
+          <t>小霸王2021</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2630,24 +2630,24 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2528</t>
+          <t>2796</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>62000</t>
+          <t>58811</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>3391765</t>
+          <t>47430231</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>马er</t>
+          <t>Kentantrino</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2657,24 +2657,24 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2512</t>
+          <t>2549</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>63945</t>
+          <t>59478</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>5367482</t>
+          <t>11645391</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Ігор</t>
+          <t>"omar omar"</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2684,24 +2684,24 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2497</t>
+          <t>2541</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>65569</t>
+          <t>60594</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>15436348</t>
+          <t>52792063</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Lucas</t>
+          <t>"Tramaine Dowlen"</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2711,24 +2711,24 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2484</t>
+          <t>2527</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>89666</t>
+          <t>62110</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>54941706</t>
+          <t>3391765</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>AlexMenjivar20</t>
+          <t>马er</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2738,24 +2738,24 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>1550</t>
+          <t>2512</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>94769</t>
+          <t>64013</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>57219176</t>
+          <t>5367482</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>青莲道人</t>
+          <t>Ігор</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2765,24 +2765,24 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>1500</t>
+          <t>2497</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>112804</t>
+          <t>65611</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>49000199</t>
+          <t>15436348</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>SlipperyForester5672</t>
+          <t>Lucas</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2792,24 +2792,24 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>1182</t>
+          <t>2484</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>89862</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>38994054</t>
+          <t>54941706</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>chengnan</t>
+          <t>AlexMenjivar20</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2819,24 +2819,24 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1550</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>95765</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>55810157</t>
+          <t>57219176</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Beard</t>
+          <t>青莲道人</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2846,24 +2846,24 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1499</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>113106</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>57556179</t>
+          <t>49000199</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>特战新生代英雄</t>
+          <t>SlipperyForester5672</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1182</t>
         </is>
       </c>
     </row>
@@ -2885,12 +2885,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>1222440</t>
+          <t>38994054</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>"Sneaky Ninja Panda"</t>
+          <t>chengnan</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2912,12 +2912,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>58340439</t>
+          <t>55810157</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>70qilin</t>
+          <t>Beard</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2939,12 +2939,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>20372140</t>
+          <t>57556179</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>人山即是仙</t>
+          <t>特战新生代英雄</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2966,12 +2966,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>58615925</t>
+          <t>1222440</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>齐天的大圣</t>
+          <t>"Sneaky Ninja Panda"</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2993,12 +2993,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>58641574</t>
+          <t>58340439</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Player-58641574鱼</t>
+          <t>70qilin</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3020,12 +3020,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>58743790</t>
+          <t>20372140</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Ma</t>
+          <t>人山即是仙</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3042,54 +3042,54 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>52922</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>41849539</t>
+          <t>58615925</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>三号馆馆主</t>
+          <t>齐天的大圣</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>2647</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>42326</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>56241637</t>
+          <t>58641574</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Player-14day</t>
+          <t>Player-58641574鱼</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>2981</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3101,17 +3101,17 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>47622456</t>
+          <t>58743790</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>伊恩</t>
+          <t>Ma</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -3123,17 +3123,17 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>56017</t>
+          <t>53074</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>55210350</t>
+          <t>41849539</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>一个过客而已</t>
+          <t>三号馆馆主</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3143,24 +3143,24 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>2587</t>
+          <t>2647</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>42587</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>49553719</t>
+          <t>56241637</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>"Oreo Captain Sir"</t>
+          <t>Player-14day</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3170,24 +3170,24 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2978</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>86022</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>59082827</t>
+          <t>47622456</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Player-59082827</t>
+          <t>伊恩</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3197,24 +3197,24 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>1642</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>93418</t>
+          <t>56234</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>59106471</t>
+          <t>55210350</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>anime</t>
+          <t>一个过客而已</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3224,24 +3224,24 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>1500</t>
+          <t>2586</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>101518</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>41231396</t>
+          <t>49553719</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>ollsthebro</t>
+          <t>"Oreo Captain Sir"</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3251,24 +3251,24 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>1399</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>85798</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>58572199</t>
+          <t>59082827</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>你干嘛～哎呦～</t>
+          <t>Player-59082827</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3278,24 +3278,24 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1659</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>93622</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>58766144</t>
+          <t>59106471</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>EquablePrecedence38</t>
+          <t>anime</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3305,24 +3305,24 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1500</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>101761</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>29355299</t>
+          <t>41231396</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Player-29355299</t>
+          <t>ollsthebro</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3332,7 +3332,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1399</t>
         </is>
       </c>
     </row>
@@ -3344,12 +3344,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>58910668</t>
+          <t>58572199</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>BrittleAuthor33</t>
+          <t>你干嘛～哎呦～</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3371,12 +3371,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>55745105</t>
+          <t>58766144</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>eldeniz</t>
+          <t>EquablePrecedence38</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3398,12 +3398,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>58174442</t>
+          <t>29355299</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Player-58174442</t>
+          <t>Player-29355299</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3425,12 +3425,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>58671339</t>
+          <t>58910668</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>"quang pro"</t>
+          <t>BrittleAuthor33</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3452,12 +3452,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>59081265</t>
+          <t>55745105</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>爬楼梯</t>
+          <t>eldeniz</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3479,17 +3479,17 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>10636651</t>
+          <t>58174442</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>"Ismail Aflou"</t>
+          <t>Player-58174442</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -3506,17 +3506,17 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>12648101</t>
+          <t>58671339</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>"player 198827"</t>
+          <t>"quang pro"</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -3533,17 +3533,17 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>9195340</t>
+          <t>59081265</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Namllllllik</t>
+          <t>爬楼梯</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -3560,12 +3560,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>41848598</t>
+          <t>10636651</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>国家一级保护沙雕</t>
+          <t>"Ismail Aflou"</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3587,12 +3587,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>15755724</t>
+          <t>12648101</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>"Last Good"</t>
+          <t>"player 198827"</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3614,12 +3614,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>8850180</t>
+          <t>9195340</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>30624300</t>
+          <t>Namllllllik</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3641,12 +3641,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>28624723</t>
+          <t>41848598</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>"Woody Shade"</t>
+          <t>国家一级保护沙雕</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3668,12 +3668,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>6010122</t>
+          <t>15755724</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>"Edward Peng"</t>
+          <t>"Last Good"</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3695,20 +3695,101 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
+          <t>8850180</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>30624300</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>999999</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>28624723</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>"Woody Shade"</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>999999</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>6010122</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>"Edward Peng"</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>999999</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
           <t>9913517</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="C127" t="inlineStr">
         <is>
           <t>"Kenny Chan"</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
+      <c r="D127" t="inlineStr">
         <is>
           <t>Chinese</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
+      <c r="E127" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/Season_Trophies/87.xlsx
+++ b/Season_Trophies/87.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E127"/>
+  <dimension ref="A1:E129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -396,7 +396,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>56650</t>
+          <t>58586</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -416,24 +416,24 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2580</t>
+          <t>2574</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1124</t>
+          <t>687</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6940556</t>
+          <t>20199374</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>"Cry ab it林黛玉ᶻᵍˣ"</t>
+          <t>RuanFan</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -443,24 +443,24 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4618</t>
+          <t>5007</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1344</t>
+          <t>793</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>20199374</t>
+          <t>6940556</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>RuanFan</t>
+          <t>"Cry ab it林黛玉ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -470,14 +470,14 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4591</t>
+          <t>4987</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -497,14 +497,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4728</t>
+          <t>5150</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1297</t>
+          <t>1553</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -524,14 +524,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4596</t>
+          <t>4882</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2967</t>
+          <t>1775</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -551,14 +551,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4459</t>
+          <t>4858</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3036</t>
+          <t>4054</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -578,24 +578,24 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4454</t>
+          <t>4677</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>9557</t>
+          <t>7311</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>14424176</t>
+          <t>43800641</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>天才少年老纪</t>
+          <t>㊥蛋蛋大</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -605,24 +605,24 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4146</t>
+          <t>4496</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>16001</t>
+          <t>9578</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>43800641</t>
+          <t>14424176</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>㊥蛋蛋大</t>
+          <t>天才少年老纪</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -632,14 +632,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3981</t>
+          <t>4387</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>16774</t>
+          <t>10655</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -659,14 +659,14 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3958</t>
+          <t>4338</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>21076</t>
+          <t>15707</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -686,14 +686,14 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3811</t>
+          <t>4152</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>49289</t>
+          <t>31686</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -713,24 +713,24 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2746</t>
+          <t>3659</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>8116</t>
+          <t>3633</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>25376635</t>
+          <t>29211638</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>"sanchez ᶻᵍˣ"</t>
+          <t>"㊥ PhononDisperse"</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -740,24 +740,24 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4206</t>
+          <t>4703</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>25646</t>
+          <t>4175</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>45967307</t>
+          <t>25376635</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Ricky</t>
+          <t>"sanchez ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -767,14 +767,14 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3660</t>
+          <t>4670</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>25946</t>
+          <t>24388</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -794,24 +794,24 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3650</t>
+          <t>3949</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>39667</t>
+          <t>31677</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>37069173</t>
+          <t>45967307</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>詹toniii</t>
+          <t>Ricky</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -821,24 +821,24 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3115</t>
+          <t>3659</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>41103</t>
+          <t>31982</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>55634661</t>
+          <t>37069173</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Opalus</t>
+          <t>詹toniii</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -848,24 +848,24 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3043</t>
+          <t>3646</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>46176</t>
+          <t>42630</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>20737010</t>
+          <t>55634661</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>混着玩...</t>
+          <t>Opalus</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -875,24 +875,24 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2843</t>
+          <t>3086</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>55865</t>
+          <t>48192</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>59095922</t>
+          <t>20737010</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>xxxx7</t>
+          <t>混着玩...</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -902,24 +902,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2592</t>
+          <t>2843</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>58981</t>
+          <t>50542</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>59095922</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>春田花花幼稚园</t>
+          <t>xxxx7</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -929,24 +929,24 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2547</t>
+          <t>2764</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>61106</t>
+          <t>59436</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>7587898</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>藍精靈ᶻᵍˣ</t>
+          <t>春田花花幼稚园</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -956,24 +956,24 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2521</t>
+          <t>2561</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>61631</t>
+          <t>61154</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>6510348</t>
+          <t>7587898</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Bonpoisson</t>
+          <t>藍精靈ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -983,24 +983,24 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2516</t>
+          <t>2537</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>68588</t>
+          <t>62912</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>59093405</t>
+          <t>6510348</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>永恒不朽6</t>
+          <t>Bonpoisson</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1010,24 +1010,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2269</t>
+          <t>2516</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>84716</t>
+          <t>69578</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>59100545</t>
+          <t>59093405</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>"black dragon"</t>
+          <t>永恒不朽6</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1719</t>
+          <t>2279</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>86360</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>23687250</t>
+          <t>59100545</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>"jetlijp ᶻᵍˣ"</t>
+          <t>"black dragon"</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1064,24 +1064,24 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1717</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>88083</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>47928278</t>
+          <t>59083984</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>"落日幻影 哈哈哈"</t>
+          <t>战神哥606</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1091,78 +1091,78 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1638</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>23588</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>37861953</t>
+          <t>23687250</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>"Durex ๑• . •๑"</t>
+          <t>"jetlijp ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3729</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>8611</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>31217211</t>
+          <t>47928278</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>解憂雜貨鋪㊥</t>
+          <t>"落日幻影 哈哈哈"</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>4184</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>11806</t>
+          <t>19803</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>53520939</t>
+          <t>37861953</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>㊥虎哥tiger</t>
+          <t>"Durex ๑• . •๑"</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1172,24 +1172,24 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>4060</t>
+          <t>4033</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>22092</t>
+          <t>8447</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>38809086</t>
+          <t>31217211</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Kouenᶻᵍˣ</t>
+          <t>解憂雜貨鋪㊥</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1199,24 +1199,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>3778</t>
+          <t>4439</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>27360</t>
+          <t>13587</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>47146736</t>
+          <t>53520939</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>"HK 品瑜"</t>
+          <t>㊥虎哥tiger</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1226,24 +1226,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>3605</t>
+          <t>4220</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5134</t>
+          <t>14134</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>49710892</t>
+          <t>38809086</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>MMMMMMM</t>
+          <t>Kouenᶻᵍˣ</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4343</t>
+          <t>4202</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>9484</t>
+          <t>25892</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>53060417</t>
+          <t>47146736</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>㊥老纳信耶稣</t>
+          <t>"HK 品瑜"</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1280,24 +1280,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4148</t>
+          <t>3892</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>13763</t>
+          <t>5976</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>54698813</t>
+          <t>49710892</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>閃亮唐老鴨</t>
+          <t>MMMMMMM</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1307,24 +1307,24 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4003</t>
+          <t>4561</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>14226</t>
+          <t>9511</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>53060417</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t>㊥老纳信耶稣</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1334,24 +1334,24 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>3997</t>
+          <t>4390</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>15270</t>
+          <t>14606</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>4756174</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>純希です</t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1361,24 +1361,24 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3990</t>
+          <t>4187</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>15852</t>
+          <t>15070</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>8057001</t>
+          <t>4756174</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>㊥兵者诡道也</t>
+          <t>純希です</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1388,24 +1388,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>3983</t>
+          <t>4172</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>35075</t>
+          <t>17482</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>55769051</t>
+          <t>8057001</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>㊥叮叮当.</t>
+          <t>㊥兵者诡道也</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1415,24 +1415,24 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>3319</t>
+          <t>4098</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>4818</t>
+          <t>19397</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>4493731</t>
+          <t>54698813</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Player-1527362</t>
+          <t>閃亮唐老鴨</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1442,24 +1442,24 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4359</t>
+          <t>4045</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>6603</t>
+          <t>36177</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>47131129</t>
+          <t>55769051</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>㊥叮叮当.</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1469,24 +1469,24 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>4276</t>
+          <t>3451</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>7997</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>55317038</t>
+          <t>27484940</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>necman12345</t>
+          <t>66666zgx</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1496,24 +1496,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>4210</t>
+          <t>5335</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>8943</t>
+          <t>5055</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>24733875</t>
+          <t>4493731</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>龍少</t>
+          <t>Player-1527362</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1523,24 +1523,24 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>4171</t>
+          <t>4614</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>10012</t>
+          <t>7378</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>38995116</t>
+          <t>47131129</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>"Ramesh Pavai Nam"</t>
+          <t>NAM</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1550,24 +1550,24 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>4128</t>
+          <t>4493</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>10779</t>
+          <t>10135</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>7852598</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>seiji</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1577,24 +1577,24 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>4097</t>
+          <t>4362</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>12539</t>
+          <t>11491</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>7852598</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>seiji</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1604,24 +1604,24 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>4036</t>
+          <t>4300</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>13523</t>
+          <t>13648</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1631,24 +1631,24 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>4008</t>
+          <t>4218</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>13821</t>
+          <t>14151</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>11582001</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>iMinatoX4</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1658,24 +1658,24 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>4002</t>
+          <t>4202</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>16532</t>
+          <t>15111</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>54778421</t>
+          <t>24733875</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Emma</t>
+          <t>龍少</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1685,24 +1685,24 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>3966</t>
+          <t>4171</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>20186</t>
+          <t>15739</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>11582001</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>iMinatoX4</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1712,24 +1712,24 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>3839</t>
+          <t>4151</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>22173</t>
+          <t>16861</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>31401481</t>
+          <t>55317038</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Player-31401481</t>
+          <t>necman12345</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1739,24 +1739,24 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>3775</t>
+          <t>4117</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>24444</t>
+          <t>20423</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>54778421</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>Emma</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1766,24 +1766,24 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>3701</t>
+          <t>4016</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>25662</t>
+          <t>22502</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>58839983</t>
+          <t>31401481</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>每逢佳节胖六斤</t>
+          <t>Player-31401481</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1793,24 +1793,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>3659</t>
+          <t>3991</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>25719</t>
+          <t>23068</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>38995116</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>"Ramesh Pavai Nam"</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1820,24 +1820,24 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>3657</t>
+          <t>3985</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>25885</t>
+          <t>24891</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>6809364</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>"Scorp IP"</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1847,24 +1847,24 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>3651</t>
+          <t>3929</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>25932</t>
+          <t>25205</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>6809364</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Globalking1001</t>
+          <t>"Scorp IP"</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1874,24 +1874,24 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>3650</t>
+          <t>3917</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>27528</t>
+          <t>26020</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>58408326</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>"Killer Bee"</t>
+          <t>Globalking1001</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1901,24 +1901,24 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>3599</t>
+          <t>3886</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>29567</t>
+          <t>27296</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>47459684</t>
+          <t>58839983</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>㊥阿闹切克闹</t>
+          <t>每逢佳节胖六斤</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1928,24 +1928,24 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>3529</t>
+          <t>3837</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>31257</t>
+          <t>28899</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>3649043</t>
+          <t>47459684</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Dj6106</t>
+          <t>㊥阿闹切克闹</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1955,24 +1955,24 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>3468</t>
+          <t>3773</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>33681</t>
+          <t>29071</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>50837459</t>
+          <t>58408326</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>NINE日</t>
+          <t>"Killer Bee"</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1982,24 +1982,24 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>3375</t>
+          <t>3766</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>35337</t>
+          <t>30296</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>50837459</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>NINE日</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2009,24 +2009,24 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>3308</t>
+          <t>3719</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>36741</t>
+          <t>30585</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>57813281</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>XAUEN</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2036,24 +2036,24 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>3249</t>
+          <t>3706</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>36388</t>
+          <t>32284</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>58203298</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>权旨qua</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2063,14 +2063,14 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>3264</t>
+          <t>3632</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>37499</t>
+          <t>35851</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2090,24 +2090,24 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>3218</t>
+          <t>3467</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>39342</t>
+          <t>34905</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>56500325</t>
+          <t>3649043</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>haruharuyukizg9735</t>
+          <t>Dj6106</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2117,24 +2117,24 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>3131</t>
+          <t>3511</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>40421</t>
+          <t>36350</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>38561634</t>
+          <t>58203298</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>"Ambrose PT"</t>
+          <t>权旨qua</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2144,24 +2144,24 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>3077</t>
+          <t>3443</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>42912</t>
+          <t>37313</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>52997727</t>
+          <t>57813281</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>larios</t>
+          <t>XAUEN</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2171,24 +2171,24 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2965</t>
+          <t>3391</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>44909</t>
+          <t>37192</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>48634530</t>
+          <t>38561634</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>leezhenrui</t>
+          <t>"Ambrose PT"</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2198,24 +2198,24 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2886</t>
+          <t>3398</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>46171</t>
+          <t>38787</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>32316256</t>
+          <t>56500325</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>"秋の風 .."</t>
+          <t>haruharuyukizg9735</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2225,24 +2225,24 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2843</t>
+          <t>3311</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>47067</t>
+          <t>41998</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>55860890</t>
+          <t>52997727</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>㊥Ethan</t>
+          <t>larios</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2252,24 +2252,24 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2814</t>
+          <t>3122</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>54729</t>
+          <t>45989</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>38893233</t>
+          <t>48634530</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>"快乐 二哈"</t>
+          <t>leezhenrui</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2279,24 +2279,24 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2614</t>
+          <t>2927</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>60195</t>
+          <t>47441</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1550355</t>
+          <t>32316256</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>"皓茵 世界"</t>
+          <t>"秋の風 .."</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2306,105 +2306,105 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2532</t>
+          <t>2870</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>12271</t>
+          <t>49186</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>31134300</t>
+          <t>55860890</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>McMaX</t>
+          <t>㊥Ethan</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>4045</t>
+          <t>2808</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>54332</t>
+          <t>56760</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>43281368</t>
+          <t>38893233</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>xhs2763</t>
+          <t>"快乐 二哈"</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2622</t>
+          <t>2607</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>63259</t>
+          <t>61715</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>44378757</t>
+          <t>1550355</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
+          <t>"皓茵 世界"</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2531</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>12228</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>48738257</t>
+          <t>31134300</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>死亡洲际跳蛋</t>
+          <t>McMaX</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2414,24 +2414,24 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4270</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>22433</t>
+          <t>56185</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>44708798</t>
+          <t>43281368</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>"㊥ mythgod"</t>
+          <t>xhs2763</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2441,24 +2441,24 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>3766</t>
+          <t>2619</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>28170</t>
+          <t>64353</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>25479797</t>
+          <t>44378757</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>"Mohamed Alnaqbi"</t>
+          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2468,24 +2468,24 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>3577</t>
+          <t>2500</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>44597</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>54588689</t>
+          <t>48738257</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>㊥墨衍枫迹☜</t>
+          <t>死亡洲际跳蛋</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2495,24 +2495,24 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2897</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>56985</t>
+          <t>25287</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>28855852</t>
+          <t>44708798</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>tiger</t>
+          <t>"㊥ mythgod"</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2522,24 +2522,24 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2575</t>
+          <t>3914</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>26467</t>
+          <t>28142</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>18082891</t>
+          <t>25479797</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>"Mohamed Alnaqbi"</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2549,24 +2549,24 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>3632</t>
+          <t>3806</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>27314</t>
+          <t>46369</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>55499394</t>
+          <t>54588689</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Player-55499394</t>
+          <t>㊥墨衍枫迹☜</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2576,24 +2576,24 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>3606</t>
+          <t>2910</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>44989</t>
+          <t>47535</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>56700848</t>
+          <t>28855852</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>工口漫画老师</t>
+          <t>tiger</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2603,24 +2603,24 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2883</t>
+          <t>2867</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>47628</t>
+          <t>19024</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>9718882</t>
+          <t>18082891</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>小霸王2021</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2630,24 +2630,24 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2796</t>
+          <t>4056</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>58811</t>
+          <t>26085</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>47430231</t>
+          <t>55499394</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Kentantrino</t>
+          <t>Player-55499394</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2657,24 +2657,24 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2549</t>
+          <t>3884</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>59478</t>
+          <t>46009</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>11645391</t>
+          <t>56700848</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>"omar omar"</t>
+          <t>工口漫画老师</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2684,24 +2684,24 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2541</t>
+          <t>2926</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>60594</t>
+          <t>49931</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>52792063</t>
+          <t>9718882</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>"Tramaine Dowlen"</t>
+          <t>小霸王2021</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2711,14 +2711,14 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2527</t>
+          <t>2784</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>62110</t>
+          <t>58294</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2738,24 +2738,24 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2512</t>
+          <t>2579</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>64013</t>
+          <t>60799</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>5367482</t>
+          <t>47430231</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Ігор</t>
+          <t>Kentantrino</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2765,24 +2765,24 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2497</t>
+          <t>2542</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>65611</t>
+          <t>60970</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>15436348</t>
+          <t>11645391</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Lucas</t>
+          <t>"omar omar"</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2792,24 +2792,24 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2484</t>
+          <t>2540</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>89862</t>
+          <t>62325</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>54941706</t>
+          <t>52792063</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>AlexMenjivar20</t>
+          <t>"Tramaine Dowlen"</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2819,24 +2819,24 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>1550</t>
+          <t>2523</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>95765</t>
+          <t>65647</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>57219176</t>
+          <t>15436348</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>青莲道人</t>
+          <t>Lucas</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2846,24 +2846,24 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>1499</t>
+          <t>2493</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>113106</t>
+          <t>90476</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>49000199</t>
+          <t>54941706</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>SlipperyForester5672</t>
+          <t>AlexMenjivar20</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2873,24 +2873,24 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>1182</t>
+          <t>1576</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>99353</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>38994054</t>
+          <t>57219176</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>chengnan</t>
+          <t>青莲道人</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2900,24 +2900,24 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1495</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>116812</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>55810157</t>
+          <t>49000199</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Beard</t>
+          <t>SlipperyForester5672</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2927,7 +2927,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1181</t>
         </is>
       </c>
     </row>
@@ -2939,12 +2939,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>57556179</t>
+          <t>38994054</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>特战新生代英雄</t>
+          <t>chengnan</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2966,12 +2966,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>1222440</t>
+          <t>55810157</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>"Sneaky Ninja Panda"</t>
+          <t>Beard</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2993,12 +2993,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>58340439</t>
+          <t>57556179</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>70qilin</t>
+          <t>特战新生代英雄</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3020,12 +3020,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>20372140</t>
+          <t>1222440</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>人山即是仙</t>
+          <t>"Sneaky Ninja Panda"</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3047,12 +3047,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>58615925</t>
+          <t>58340439</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>齐天的大圣</t>
+          <t>70qilin</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3074,12 +3074,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>58641574</t>
+          <t>20372140</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Player-58641574鱼</t>
+          <t>人山即是仙</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3101,12 +3101,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>58743790</t>
+          <t>58615925</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Ma</t>
+          <t>齐天的大圣</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3123,71 +3123,71 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>53074</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>41849539</t>
+          <t>58641574</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>三号馆馆主</t>
+          <t>Player-58641574鱼</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>2647</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>42587</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>56241637</t>
+          <t>58743790</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Player-14day</t>
+          <t>Ma</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>2978</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>54476</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>47622456</t>
+          <t>41849539</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>伊恩</t>
+          <t>三号馆馆主</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3197,24 +3197,24 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2655</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>56234</t>
+          <t>45149</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>55210350</t>
+          <t>56241637</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>一个过客而已</t>
+          <t>Player-14day</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3224,7 +3224,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>2586</t>
+          <t>2962</t>
         </is>
       </c>
     </row>
@@ -3236,12 +3236,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>49553719</t>
+          <t>47622456</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>"Oreo Captain Sir"</t>
+          <t>伊恩</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3258,17 +3258,17 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>85798</t>
+          <t>52394</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>59082827</t>
+          <t>55210350</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Player-59082827</t>
+          <t>一个过客而已</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3278,24 +3278,24 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>1659</t>
+          <t>2710</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>93622</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>59106471</t>
+          <t>49553719</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>anime</t>
+          <t>"Oreo Captain Sir"</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3305,24 +3305,24 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>1500</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>101761</t>
+          <t>81434</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>41231396</t>
+          <t>58671339</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>ollsthebro</t>
+          <t>"quang pro"</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3332,24 +3332,24 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>1399</t>
+          <t>2000</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>87542</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>58572199</t>
+          <t>59082827</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>你干嘛～哎呦～</t>
+          <t>Player-59082827</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3359,24 +3359,24 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1658</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>91446</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>58766144</t>
+          <t>59106471</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>EquablePrecedence38</t>
+          <t>anime</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3386,24 +3386,24 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1560</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>104390</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>29355299</t>
+          <t>41231396</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Player-29355299</t>
+          <t>ollsthebro</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3413,24 +3413,24 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1399</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>146614</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>58910668</t>
+          <t>55745105</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>BrittleAuthor33</t>
+          <t>eldeniz</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3440,7 +3440,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000</t>
         </is>
       </c>
     </row>
@@ -3452,12 +3452,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>55745105</t>
+          <t>58572199</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>eldeniz</t>
+          <t>你干嘛～哎呦～</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3479,12 +3479,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>58174442</t>
+          <t>58766144</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Player-58174442</t>
+          <t>EquablePrecedence38</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3506,12 +3506,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>58671339</t>
+          <t>29355299</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>"quang pro"</t>
+          <t>Player-29355299</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3533,12 +3533,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>59081265</t>
+          <t>58910668</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>爬楼梯</t>
+          <t>BrittleAuthor33</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3560,17 +3560,17 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>10636651</t>
+          <t>58174442</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>"Ismail Aflou"</t>
+          <t>Player-58174442</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -3587,17 +3587,17 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>12648101</t>
+          <t>59081265</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>"player 198827"</t>
+          <t>爬楼梯</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -3614,12 +3614,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>9195340</t>
+          <t>10636651</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Namllllllik</t>
+          <t>"Ismail Aflou"</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3641,12 +3641,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>41848598</t>
+          <t>12648101</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>国家一级保护沙雕</t>
+          <t>"player 198827"</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3668,12 +3668,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>15755724</t>
+          <t>9195340</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>"Last Good"</t>
+          <t>Namllllllik</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3695,12 +3695,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>8850180</t>
+          <t>41848598</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>30624300</t>
+          <t>国家一级保护沙雕</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3722,12 +3722,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>28624723</t>
+          <t>15755724</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>"Woody Shade"</t>
+          <t>"Last Good"</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3749,12 +3749,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>6010122</t>
+          <t>8850180</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>"Edward Peng"</t>
+          <t>30624300</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3776,20 +3776,74 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
+          <t>28624723</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>"Woody Shade"</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>999999</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>6010122</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>"Edward Peng"</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>999999</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
           <t>9913517</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
+      <c r="C129" t="inlineStr">
         <is>
           <t>"Kenny Chan"</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
+      <c r="D129" t="inlineStr">
         <is>
           <t>Chinese</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
+      <c r="E129" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/Season_Trophies/87.xlsx
+++ b/Season_Trophies/87.xlsx
@@ -396,17 +396,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>58586</t>
+          <t>1465</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>42542275</t>
+          <t>1951758</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>"同 风 雨"</t>
+          <t>我來找你了</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -416,24 +416,24 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2574</t>
+          <t>4906</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>687</t>
+          <t>780</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>20199374</t>
+          <t>6940556</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>RuanFan</t>
+          <t>"Cry ab it林黛玉ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -443,24 +443,24 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5007</t>
+          <t>5006</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>793</t>
+          <t>886</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6940556</t>
+          <t>20199374</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>"Cry ab it林黛玉ᶻᵍˣ"</t>
+          <t>RuanFan</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -470,14 +470,14 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4987</t>
+          <t>4990</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>334</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -497,14 +497,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5150</t>
+          <t>5124</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1553</t>
+          <t>1721</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -531,17 +531,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1775</t>
+          <t>4175</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1951758</t>
+          <t>27468237</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>我來找你了</t>
+          <t>佛系复仇者秀川</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -551,24 +551,24 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4858</t>
+          <t>4689</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4054</t>
+          <t>7908</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>27468237</t>
+          <t>43800641</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>佛系复仇者秀川</t>
+          <t>㊥蛋蛋大</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -578,24 +578,24 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4677</t>
+          <t>4493</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>7311</t>
+          <t>10205</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>43800641</t>
+          <t>14424176</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>㊥蛋蛋大</t>
+          <t>天才少年老纪</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -605,24 +605,24 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4496</t>
+          <t>4387</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>9578</t>
+          <t>11360</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>14424176</t>
+          <t>26588375</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>天才少年老纪</t>
+          <t>何苦僧ai</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -632,24 +632,24 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4387</t>
+          <t>4339</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>10655</t>
+          <t>17221</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>26588375</t>
+          <t>4229136</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>何苦僧ai</t>
+          <t>"totoro wu"</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -659,24 +659,24 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4338</t>
+          <t>4145</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>15707</t>
+          <t>32947</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>4229136</t>
+          <t>21665473</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>"totoro wu"</t>
+          <t>"Dog Gamedesiger"</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -686,24 +686,24 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4152</t>
+          <t>3659</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>31686</t>
+          <t>3741</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>21665473</t>
+          <t>29211638</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>"Dog Gamedesiger"</t>
+          <t>"㊥ PhononDisperse"</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -713,24 +713,24 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3659</t>
+          <t>4716</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3633</t>
+          <t>4595</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>29211638</t>
+          <t>25376635</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>"㊥ PhononDisperse"</t>
+          <t>"sanchez ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -740,24 +740,24 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4703</t>
+          <t>4663</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4175</t>
+          <t>25428</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>25376635</t>
+          <t>12333251</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>"sanchez ᶻᵍˣ"</t>
+          <t>"㊌ Mingxuan"</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -767,24 +767,24 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4670</t>
+          <t>3972</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>24388</t>
+          <t>31426</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>12333251</t>
+          <t>37069173</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>"㊌ Mingxuan"</t>
+          <t>詹toniii</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -794,14 +794,14 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3949</t>
+          <t>3728</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>31677</t>
+          <t>32940</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -828,17 +828,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>31982</t>
+          <t>41729</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>37069173</t>
+          <t>55634661</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>詹toniii</t>
+          <t>Opalus</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -848,24 +848,24 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3646</t>
+          <t>3175</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>42630</t>
+          <t>48753</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>55634661</t>
+          <t>20737010</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Opalus</t>
+          <t>混着玩...</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -875,24 +875,24 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3086</t>
+          <t>2843</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>48192</t>
+          <t>51303</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>20737010</t>
+          <t>59095922</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>混着玩...</t>
+          <t>xxxx7</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -902,24 +902,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2843</t>
+          <t>2758</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>50542</t>
+          <t>59158</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>59095922</t>
+          <t>42542275</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>xxxx7</t>
+          <t>"同 风 雨"</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -929,14 +929,14 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2764</t>
+          <t>2572</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>59436</t>
+          <t>59892</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -963,7 +963,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>61154</t>
+          <t>61527</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -990,7 +990,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>62912</t>
+          <t>63276</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1017,7 +1017,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>69578</t>
+          <t>69678</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1037,14 +1037,14 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2279</t>
+          <t>2292</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>86360</t>
+          <t>86890</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1064,14 +1064,14 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1717</t>
+          <t>1716</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>88083</t>
+          <t>86985</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1638</t>
+          <t>1710</t>
         </is>
       </c>
     </row>
@@ -1152,7 +1152,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>19803</t>
+          <t>21423</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1179,7 +1179,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>8447</t>
+          <t>8680</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>4439</t>
+          <t>4455</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>13587</t>
+          <t>15227</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1226,14 +1226,14 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>4220</t>
+          <t>4202</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>14134</t>
+          <t>15402</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1253,14 +1253,14 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4202</t>
+          <t>4198</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>25892</t>
+          <t>26559</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1280,14 +1280,14 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>3892</t>
+          <t>3931</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>5976</t>
+          <t>6786</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1307,14 +1307,14 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4561</t>
+          <t>4543</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>9511</t>
+          <t>10975</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1334,24 +1334,24 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4390</t>
+          <t>4354</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>14606</t>
+          <t>12690</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>8057001</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t>㊥兵者诡道也</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1361,24 +1361,24 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>4187</t>
+          <t>4286</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>15070</t>
+          <t>15894</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>4756174</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>純希です</t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1388,24 +1388,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4172</t>
+          <t>4184</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>17482</t>
+          <t>16222</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>8057001</t>
+          <t>4756174</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>㊥兵者诡道也</t>
+          <t>純希です</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1415,14 +1415,14 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>4098</t>
+          <t>4175</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>19397</t>
+          <t>20327</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1442,14 +1442,14 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4045</t>
+          <t>4061</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>36177</t>
+          <t>37057</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1476,7 +1476,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1496,14 +1496,14 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>5335</t>
+          <t>5382</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>5055</t>
+          <t>5439</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1530,7 +1530,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>7378</t>
+          <t>8348</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1550,24 +1550,24 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>4493</t>
+          <t>4471</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>10135</t>
+          <t>11248</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>55317038</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>necman12345</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1577,14 +1577,14 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>4362</t>
+          <t>4343</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>11491</t>
+          <t>11312</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1604,24 +1604,24 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>4300</t>
+          <t>4340</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>13648</t>
+          <t>12392</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1631,24 +1631,24 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>4218</t>
+          <t>4297</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>14151</t>
+          <t>13978</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>11582001</t>
+          <t>38995116</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>iMinatoX4</t>
+          <t>"Ramesh Pavai Nam"</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1658,24 +1658,24 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>4202</t>
+          <t>4241</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>15111</t>
+          <t>15262</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>24733875</t>
+          <t>11582001</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>龍少</t>
+          <t>iMinatoX4</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1685,24 +1685,24 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>4171</t>
+          <t>4202</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>15739</t>
+          <t>15233</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1712,24 +1712,24 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>4151</t>
+          <t>4202</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>16861</t>
+          <t>16367</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>55317038</t>
+          <t>24733875</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>necman12345</t>
+          <t>龍少</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1739,24 +1739,24 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>4117</t>
+          <t>4171</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>20423</t>
+          <t>18411</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>54778421</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Emma</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1766,24 +1766,24 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>4016</t>
+          <t>4112</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>22502</t>
+          <t>22380</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>31401481</t>
+          <t>54778421</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Player-31401481</t>
+          <t>Emma</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1793,24 +1793,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>3991</t>
+          <t>4010</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>23068</t>
+          <t>23499</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>38995116</t>
+          <t>47459684</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>"Ramesh Pavai Nam"</t>
+          <t>㊥阿闹切克闹</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1820,24 +1820,24 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>3985</t>
+          <t>3995</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>24891</t>
+          <t>24252</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>31401481</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>Player-31401481</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1847,24 +1847,24 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>3929</t>
+          <t>3991</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>25205</t>
+          <t>26191</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>6809364</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>"Scorp IP"</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1874,24 +1874,24 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>3917</t>
+          <t>3944</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>26020</t>
+          <t>26469</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Globalking1001</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1901,24 +1901,24 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>3886</t>
+          <t>3934</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>27296</t>
+          <t>26908</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>58839983</t>
+          <t>6809364</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>每逢佳节胖六斤</t>
+          <t>"Scorp IP"</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1928,24 +1928,24 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>3837</t>
+          <t>3916</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>28899</t>
+          <t>27208</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>47459684</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>㊥阿闹切克闹</t>
+          <t>Globalking1001</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1955,24 +1955,24 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>3773</t>
+          <t>3906</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>29071</t>
+          <t>28374</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>58408326</t>
+          <t>58839983</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>"Killer Bee"</t>
+          <t>每逢佳节胖六斤</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1982,24 +1982,24 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>3766</t>
+          <t>3858</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>30296</t>
+          <t>29752</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>50837459</t>
+          <t>58408326</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>NINE日</t>
+          <t>"Killer Bee"</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2009,24 +2009,24 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>3719</t>
+          <t>3801</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>30585</t>
+          <t>31062</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>1304123</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>Cccccccccccc</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2036,24 +2036,24 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>3706</t>
+          <t>3744</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>32284</t>
+          <t>32075</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2063,24 +2063,24 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>3632</t>
+          <t>3698</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>35851</t>
+          <t>31877</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1304123</t>
+          <t>50837459</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Cccccccccccc</t>
+          <t>NINE日</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2090,14 +2090,14 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>3467</t>
+          <t>3707</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>34905</t>
+          <t>32746</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2117,24 +2117,24 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>3511</t>
+          <t>3668</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>36350</t>
+          <t>34452</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>58203298</t>
+          <t>57813281</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>权旨qua</t>
+          <t>XAUEN</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2144,24 +2144,24 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>3443</t>
+          <t>3587</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>37313</t>
+          <t>34467</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>57813281</t>
+          <t>58203298</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>XAUEN</t>
+          <t>权旨qua</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2171,14 +2171,14 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>3391</t>
+          <t>3586</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>37192</t>
+          <t>38076</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2198,14 +2198,14 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>3398</t>
+          <t>3396</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>38787</t>
+          <t>39067</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2225,14 +2225,14 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>3311</t>
+          <t>3337</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>41998</t>
+          <t>42595</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2259,7 +2259,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>45989</t>
+          <t>46659</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2279,14 +2279,14 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2927</t>
+          <t>2922</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>47441</t>
+          <t>48021</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2313,7 +2313,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>49186</t>
+          <t>49837</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2333,14 +2333,14 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2808</t>
+          <t>2806</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>56760</t>
+          <t>52301</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2360,14 +2360,14 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2607</t>
+          <t>2729</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>61715</t>
+          <t>62075</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2394,7 +2394,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>12228</t>
+          <t>13114</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2421,7 +2421,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>56185</t>
+          <t>55901</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2441,14 +2441,14 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2619</t>
+          <t>2635</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>64353</t>
+          <t>64661</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2502,17 +2502,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>25287</t>
+          <t>20064</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>44708798</t>
+          <t>25479797</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>"㊥ mythgod"</t>
+          <t>"Mohamed Alnaqbi"</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2522,24 +2522,24 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>3914</t>
+          <t>4068</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>28142</t>
+          <t>27049</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>25479797</t>
+          <t>44708798</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>"Mohamed Alnaqbi"</t>
+          <t>"㊥ mythgod"</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2549,14 +2549,14 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>3806</t>
+          <t>3912</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>46369</t>
+          <t>46940</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2583,7 +2583,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>47535</t>
+          <t>48159</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2603,14 +2603,14 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2867</t>
+          <t>2865</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>19024</t>
+          <t>20699</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2630,14 +2630,14 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>4056</t>
+          <t>4052</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>26085</t>
+          <t>28073</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2657,14 +2657,14 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>3884</t>
+          <t>3870</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>46009</t>
+          <t>46162</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2684,14 +2684,14 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2926</t>
+          <t>2942</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>49931</t>
+          <t>50546</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2711,14 +2711,14 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2784</t>
+          <t>2783</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>58294</t>
+          <t>58740</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2745,7 +2745,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>60799</t>
+          <t>59205</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2765,14 +2765,14 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2542</t>
+          <t>2571</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>60970</t>
+          <t>61351</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2799,7 +2799,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>62325</t>
+          <t>62885</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2819,14 +2819,14 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2523</t>
+          <t>2521</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>65647</t>
+          <t>65923</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -2853,7 +2853,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>90476</t>
+          <t>91212</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -2873,14 +2873,14 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>1576</t>
+          <t>1575</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>99353</t>
+          <t>100205</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2900,14 +2900,14 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>1495</t>
+          <t>1494</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>116812</t>
+          <t>117798</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3177,7 +3177,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>54476</t>
+          <t>54189</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3197,14 +3197,14 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>2655</t>
+          <t>2675</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>45149</t>
+          <t>40324</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -3224,7 +3224,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>2962</t>
+          <t>3262</t>
         </is>
       </c>
     </row>
@@ -3258,7 +3258,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>52394</t>
+          <t>52919</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3312,7 +3312,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>81434</t>
+          <t>81837</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -3339,7 +3339,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>87542</t>
+          <t>88091</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -3366,7 +3366,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>91446</t>
+          <t>92165</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -3386,14 +3386,14 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>1560</t>
+          <t>1559</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>104390</t>
+          <t>105142</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -3420,7 +3420,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>146614</t>
+          <t>148423</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">

--- a/Season_Trophies/87.xlsx
+++ b/Season_Trophies/87.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E129"/>
+  <dimension ref="A1:E130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -396,7 +396,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1465</t>
+          <t>1344</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -416,24 +416,24 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4906</t>
+          <t>5213</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>780</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6940556</t>
+          <t>20199374</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>"Cry ab it林黛玉ᶻᵍˣ"</t>
+          <t>RuanFan</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -443,24 +443,24 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5006</t>
+          <t>5463</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>886</t>
+          <t>4625</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>20199374</t>
+          <t>6940556</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>RuanFan</t>
+          <t>"Cry ab it林黛玉ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -470,14 +470,14 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4990</t>
+          <t>4901</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>510</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -497,14 +497,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5124</t>
+          <t>5379</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1721</t>
+          <t>1510</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -524,14 +524,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4882</t>
+          <t>5186</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4175</t>
+          <t>2783</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -551,24 +551,24 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4689</t>
+          <t>5043</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>7908</t>
+          <t>6541</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>43800641</t>
+          <t>26588375</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>㊥蛋蛋大</t>
+          <t>何苦僧ai</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -578,14 +578,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4493</t>
+          <t>4782</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>10205</t>
+          <t>9230</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -605,24 +605,24 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4387</t>
+          <t>4634</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>11360</t>
+          <t>11334</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>26588375</t>
+          <t>43800641</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>何苦僧ai</t>
+          <t>㊥蛋蛋大</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -632,14 +632,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4339</t>
+          <t>4527</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>17221</t>
+          <t>12457</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -659,14 +659,14 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4145</t>
+          <t>4479</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>32947</t>
+          <t>18065</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -686,14 +686,14 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3659</t>
+          <t>4267</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3741</t>
+          <t>2609</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -713,14 +713,14 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4716</t>
+          <t>5060</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4595</t>
+          <t>2669</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -740,14 +740,14 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4663</t>
+          <t>5054</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>25428</t>
+          <t>23616</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -767,14 +767,14 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3972</t>
+          <t>4096</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>31426</t>
+          <t>23905</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -794,14 +794,14 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3728</t>
+          <t>4089</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>32940</t>
+          <t>25489</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -821,14 +821,14 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3659</t>
+          <t>4043</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>41729</t>
+          <t>40223</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -848,24 +848,24 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3175</t>
+          <t>3388</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>48753</t>
+          <t>46540</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>20737010</t>
+          <t>7587898</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>混着玩...</t>
+          <t>藍精靈ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -875,14 +875,14 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2843</t>
+          <t>2998</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>51303</t>
+          <t>49359</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -902,24 +902,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2758</t>
+          <t>2874</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>59158</t>
+          <t>50221</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>42542275</t>
+          <t>20737010</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>"同 风 雨"</t>
+          <t>混着玩...</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -929,24 +929,24 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2572</t>
+          <t>2843</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>59892</t>
+          <t>59600</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>42542275</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>春田花花幼稚园</t>
+          <t>"同 风 雨"</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -956,24 +956,24 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2561</t>
+          <t>2586</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>61527</t>
+          <t>61246</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>7587898</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>藍精靈ᶻᵍˣ</t>
+          <t>春田花花幼稚园</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -983,14 +983,14 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2537</t>
+          <t>2557</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>63276</t>
+          <t>64178</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1017,7 +1017,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>69678</t>
+          <t>70461</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2292</t>
+          <t>2301</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>86890</t>
+          <t>87832</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>59100545</t>
+          <t>59083984</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>"black dragon"</t>
+          <t>战神哥606</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1064,24 +1064,24 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1716</t>
+          <t>1737</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>86985</t>
+          <t>88005</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>59083984</t>
+          <t>59100545</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>战神哥606</t>
+          <t>"black dragon"</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1710</t>
+          <t>1728</t>
         </is>
       </c>
     </row>
@@ -1152,7 +1152,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>21423</t>
+          <t>15704</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1172,14 +1172,14 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>4033</t>
+          <t>4345</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>8680</t>
+          <t>8120</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>4455</t>
+          <t>4693</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>15227</t>
+          <t>16786</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1226,14 +1226,14 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>4202</t>
+          <t>4308</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>15402</t>
+          <t>20252</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1253,14 +1253,14 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4198</t>
+          <t>4196</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>26559</t>
+          <t>29110</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1280,24 +1280,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>3931</t>
+          <t>3983</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>6786</t>
+          <t>11051</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>49710892</t>
+          <t>53060417</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>MMMMMMM</t>
+          <t>㊥老纳信耶稣</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1307,24 +1307,24 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4543</t>
+          <t>4541</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>10975</t>
+          <t>12275</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>53060417</t>
+          <t>49710892</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>㊥老纳信耶稣</t>
+          <t>MMMMMMM</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1334,24 +1334,24 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4354</t>
+          <t>4487</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>12690</t>
+          <t>13948</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>8057001</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>㊥兵者诡道也</t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1361,24 +1361,24 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>4286</t>
+          <t>4414</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>15894</t>
+          <t>16500</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>54698813</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t>閃亮唐老鴨</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1388,24 +1388,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4184</t>
+          <t>4317</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>16222</t>
+          <t>17872</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>4756174</t>
+          <t>8057001</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>純希です</t>
+          <t>㊥兵者诡道也</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1415,24 +1415,24 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>4175</t>
+          <t>4273</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>20327</t>
+          <t>21939</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>54698813</t>
+          <t>4756174</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>閃亮唐老鴨</t>
+          <t>純希です</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1442,14 +1442,14 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4061</t>
+          <t>4146</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>37057</t>
+          <t>37103</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>3451</t>
+          <t>3585</t>
         </is>
       </c>
     </row>
@@ -1496,14 +1496,14 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>5382</t>
+          <t>5658</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>5439</t>
+          <t>5336</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1523,14 +1523,14 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>4614</t>
+          <t>4856</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>8348</t>
+          <t>7206</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1550,24 +1550,24 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>4471</t>
+          <t>4741</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>11248</t>
+          <t>10018</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>55317038</t>
+          <t>7852598</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>necman12345</t>
+          <t>seiji</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1577,24 +1577,24 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>4343</t>
+          <t>4593</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>11312</t>
+          <t>10923</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>7852598</t>
+          <t>11582001</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>seiji</t>
+          <t>iMinatoX4</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1604,14 +1604,14 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>4340</t>
+          <t>4548</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>12392</t>
+          <t>12877</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1631,24 +1631,24 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>4297</t>
+          <t>4459</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>13978</t>
+          <t>13874</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>38995116</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>"Ramesh Pavai Nam"</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1658,24 +1658,24 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>4241</t>
+          <t>4417</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>15262</t>
+          <t>18253</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>11582001</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>iMinatoX4</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1685,24 +1685,24 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>4202</t>
+          <t>4261</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>15233</t>
+          <t>18329</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>55317038</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>necman12345</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1712,24 +1712,24 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>4202</t>
+          <t>4258</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>16367</t>
+          <t>19444</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>24733875</t>
+          <t>38995116</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>龍少</t>
+          <t>"Ramesh Pavai Nam"</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1739,24 +1739,24 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>4171</t>
+          <t>4221</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>18411</t>
+          <t>20135</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>54778421</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>Emma</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1766,24 +1766,24 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>4112</t>
+          <t>4199</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>22380</t>
+          <t>20539</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>54778421</t>
+          <t>24733875</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Emma</t>
+          <t>龍少</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1793,24 +1793,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>4010</t>
+          <t>4188</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>23499</t>
+          <t>20794</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>47459684</t>
+          <t>6809364</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>㊥阿闹切克闹</t>
+          <t>"Scorp IP"</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1820,14 +1820,14 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>3995</t>
+          <t>4180</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>24252</t>
+          <t>24752</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1847,24 +1847,24 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>3991</t>
+          <t>4065</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>26191</t>
+          <t>26428</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>Globalking1001</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1874,24 +1874,24 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>3944</t>
+          <t>4014</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>26469</t>
+          <t>28268</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>47459684</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>㊥阿闹切克闹</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1901,24 +1901,24 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>3934</t>
+          <t>3991</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>26908</t>
+          <t>26864</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>6809364</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>"Scorp IP"</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1928,24 +1928,24 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>3916</t>
+          <t>4003</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>27208</t>
+          <t>28931</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>58408326</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Globalking1001</t>
+          <t>"Killer Bee"</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1955,14 +1955,14 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>3906</t>
+          <t>3985</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>28374</t>
+          <t>29823</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1982,24 +1982,24 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>3858</t>
+          <t>3966</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>29752</t>
+          <t>30405</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>58408326</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>"Killer Bee"</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2009,24 +2009,24 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>3801</t>
+          <t>3942</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>31062</t>
+          <t>35031</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1304123</t>
+          <t>50837459</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Cccccccccccc</t>
+          <t>NINE日</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2036,14 +2036,14 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>3744</t>
+          <t>3703</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>32075</t>
+          <t>35066</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2063,24 +2063,24 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>3698</t>
+          <t>3701</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>31877</t>
+          <t>35246</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>50837459</t>
+          <t>3649043</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>NINE日</t>
+          <t>Dj6106</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2090,24 +2090,24 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>3707</t>
+          <t>3692</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>32746</t>
+          <t>34909</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>3649043</t>
+          <t>1304123</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Dj6106</t>
+          <t>Cccccccccccc</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2117,24 +2117,24 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>3668</t>
+          <t>3710</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>34452</t>
+          <t>37364</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>57813281</t>
+          <t>58203298</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>XAUEN</t>
+          <t>权旨qua</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2144,24 +2144,24 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>3587</t>
+          <t>3569</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>34467</t>
+          <t>37525</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>58203298</t>
+          <t>57813281</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>权旨qua</t>
+          <t>XAUEN</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2171,24 +2171,24 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>3586</t>
+          <t>3558</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>38076</t>
+          <t>38190</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>38561634</t>
+          <t>56500325</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>"Ambrose PT"</t>
+          <t>haruharuyukizg9735</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2198,24 +2198,24 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>3396</t>
+          <t>3517</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>39067</t>
+          <t>40061</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>56500325</t>
+          <t>38561634</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>haruharuyukizg9735</t>
+          <t>"Ambrose PT"</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2225,24 +2225,24 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>3337</t>
+          <t>3397</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>42595</t>
+          <t>42115</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>52997727</t>
+          <t>55860890</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>larios</t>
+          <t>㊥Ethan</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2252,24 +2252,24 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>3122</t>
+          <t>3262</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>46659</t>
+          <t>42552</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>48634530</t>
+          <t>52997727</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>leezhenrui</t>
+          <t>larios</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2279,14 +2279,14 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2922</t>
+          <t>3233</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>48021</t>
+          <t>42987</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2306,24 +2306,24 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2870</t>
+          <t>3205</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>49837</t>
+          <t>44837</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>55860890</t>
+          <t>38893233</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>㊥Ethan</t>
+          <t>"快乐 二哈"</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2333,24 +2333,24 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2806</t>
+          <t>3089</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>52301</t>
+          <t>46135</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>38893233</t>
+          <t>48634530</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>"快乐 二哈"</t>
+          <t>leezhenrui</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2360,24 +2360,24 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2729</t>
+          <t>3018</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>62075</t>
+          <t>51476</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1550355</t>
+          <t>59080634</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>"皓茵 世界"</t>
+          <t>Chlove</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2387,51 +2387,51 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2531</t>
+          <t>2798</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>13114</t>
+          <t>63204</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>31134300</t>
+          <t>1550355</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>McMaX</t>
+          <t>"皓茵 世界"</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>4270</t>
+          <t>2529</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>55901</t>
+          <t>12170</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>43281368</t>
+          <t>31134300</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>xhs2763</t>
+          <t>McMaX</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2441,24 +2441,24 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2635</t>
+          <t>4491</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>64661</t>
+          <t>56166</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>44378757</t>
+          <t>43281368</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
+          <t>xhs2763</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2468,24 +2468,24 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2658</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>65558</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>48738257</t>
+          <t>44378757</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>死亡洲际跳蛋</t>
+          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2495,24 +2495,24 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2500</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>20064</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>25479797</t>
+          <t>48738257</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>"Mohamed Alnaqbi"</t>
+          <t>死亡洲际跳蛋</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2522,24 +2522,24 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>4068</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>27049</t>
+          <t>24996</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>44708798</t>
+          <t>25479797</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>"㊥ mythgod"</t>
+          <t>"Mohamed Alnaqbi"</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2549,24 +2549,24 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>3912</t>
+          <t>4058</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>46940</t>
+          <t>30102</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>54588689</t>
+          <t>44708798</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>㊥墨衍枫迹☜</t>
+          <t>"㊥ mythgod"</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2576,24 +2576,24 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2910</t>
+          <t>3955</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>48159</t>
+          <t>47536</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>28855852</t>
+          <t>54588689</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>tiger</t>
+          <t>㊥墨衍枫迹☜</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2603,24 +2603,24 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2865</t>
+          <t>2950</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>20699</t>
+          <t>48981</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>18082891</t>
+          <t>28855852</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>tiger</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2630,24 +2630,24 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>4052</t>
+          <t>2889</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>28073</t>
+          <t>22684</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>55499394</t>
+          <t>18082891</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Player-55499394</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2657,24 +2657,24 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>3870</t>
+          <t>4124</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>46162</t>
+          <t>31438</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>56700848</t>
+          <t>55499394</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>工口漫画老师</t>
+          <t>Player-55499394</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2684,24 +2684,24 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2942</t>
+          <t>3893</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>50546</t>
+          <t>47767</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>9718882</t>
+          <t>56700848</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>小霸王2021</t>
+          <t>工口漫画老师</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2711,24 +2711,24 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2783</t>
+          <t>2940</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>58740</t>
+          <t>50806</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>3391765</t>
+          <t>52792063</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>马er</t>
+          <t>"Tramaine Dowlen"</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2738,24 +2738,24 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2579</t>
+          <t>2822</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>59205</t>
+          <t>52250</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>47430231</t>
+          <t>9718882</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Kentantrino</t>
+          <t>小霸王2021</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2765,24 +2765,24 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2571</t>
+          <t>2772</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>61351</t>
+          <t>58140</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>11645391</t>
+          <t>47430231</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>"omar omar"</t>
+          <t>Kentantrino</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2792,24 +2792,24 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2540</t>
+          <t>2615</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>62885</t>
+          <t>58703</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>52792063</t>
+          <t>3391765</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>"Tramaine Dowlen"</t>
+          <t>马er</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2819,24 +2819,24 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2521</t>
+          <t>2603</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>65923</t>
+          <t>62420</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>15436348</t>
+          <t>11645391</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Lucas</t>
+          <t>"omar omar"</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2846,24 +2846,24 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2493</t>
+          <t>2540</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>91212</t>
+          <t>67184</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>54941706</t>
+          <t>15436348</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>AlexMenjivar20</t>
+          <t>Lucas</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2873,24 +2873,24 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>1575</t>
+          <t>2487</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>100205</t>
+          <t>93090</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>57219176</t>
+          <t>54941706</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>青莲道人</t>
+          <t>AlexMenjivar20</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2900,24 +2900,24 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>1494</t>
+          <t>1574</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>117798</t>
+          <t>102681</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>49000199</t>
+          <t>57219176</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>SlipperyForester5672</t>
+          <t>青莲道人</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2927,24 +2927,24 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>1181</t>
+          <t>1489</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>121158</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>38994054</t>
+          <t>49000199</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>chengnan</t>
+          <t>SlipperyForester5672</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2954,7 +2954,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1180</t>
         </is>
       </c>
     </row>
@@ -2966,12 +2966,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>55810157</t>
+          <t>38994054</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Beard</t>
+          <t>chengnan</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2993,12 +2993,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>57556179</t>
+          <t>55810157</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>特战新生代英雄</t>
+          <t>Beard</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3020,12 +3020,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>1222440</t>
+          <t>57556179</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>"Sneaky Ninja Panda"</t>
+          <t>特战新生代英雄</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3047,12 +3047,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>58340439</t>
+          <t>1222440</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>70qilin</t>
+          <t>"Sneaky Ninja Panda"</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3074,12 +3074,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>20372140</t>
+          <t>58340439</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>人山即是仙</t>
+          <t>70qilin</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3101,12 +3101,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>58615925</t>
+          <t>20372140</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>齐天的大圣</t>
+          <t>人山即是仙</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3128,12 +3128,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>58641574</t>
+          <t>58615925</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Player-58641574鱼</t>
+          <t>齐天的大圣</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3155,12 +3155,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>58743790</t>
+          <t>58641574</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Ma</t>
+          <t>Player-58641574鱼</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3177,44 +3177,44 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>54189</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>41849539</t>
+          <t>58743790</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>三号馆馆主</t>
+          <t>Ma</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>2675</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>40324</t>
+          <t>54671</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>56241637</t>
+          <t>41849539</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Player-14day</t>
+          <t>三号馆馆主</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3224,24 +3224,24 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>3262</t>
+          <t>2699</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>42534</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>47622456</t>
+          <t>56241637</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>伊恩</t>
+          <t>Player-14day</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3251,24 +3251,24 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3234</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>52919</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>55210350</t>
+          <t>47622456</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>一个过客而已</t>
+          <t>伊恩</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3278,24 +3278,24 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>2710</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>54514</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>49553719</t>
+          <t>55210350</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>"Oreo Captain Sir"</t>
+          <t>一个过客而已</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3305,24 +3305,24 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2703</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>81837</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>58671339</t>
+          <t>49553719</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>"quang pro"</t>
+          <t>"Oreo Captain Sir"</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3332,24 +3332,24 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>88091</t>
+          <t>83051</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>59082827</t>
+          <t>58671339</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Player-59082827</t>
+          <t>"quang pro"</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3359,24 +3359,24 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>1658</t>
+          <t>2000</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>92165</t>
+          <t>89603</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>59106471</t>
+          <t>59082827</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>anime</t>
+          <t>Player-59082827</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3386,24 +3386,24 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>1559</t>
+          <t>1657</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>105142</t>
+          <t>94253</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>41231396</t>
+          <t>59106471</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>ollsthebro</t>
+          <t>anime</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3413,24 +3413,24 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>1399</t>
+          <t>1556</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>148423</t>
+          <t>107245</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>55745105</t>
+          <t>41231396</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>eldeniz</t>
+          <t>ollsthebro</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3440,24 +3440,24 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>1399</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>155583</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>58572199</t>
+          <t>55745105</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>你干嘛～哎呦～</t>
+          <t>eldeniz</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3467,7 +3467,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000</t>
         </is>
       </c>
     </row>
@@ -3479,12 +3479,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>58766144</t>
+          <t>58572199</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>EquablePrecedence38</t>
+          <t>你干嘛～哎呦～</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3506,12 +3506,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>29355299</t>
+          <t>58766144</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Player-29355299</t>
+          <t>EquablePrecedence38</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3533,12 +3533,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>58910668</t>
+          <t>29355299</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>BrittleAuthor33</t>
+          <t>Player-29355299</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3560,12 +3560,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>58174442</t>
+          <t>58910668</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Player-58174442</t>
+          <t>BrittleAuthor33</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3587,12 +3587,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>59081265</t>
+          <t>58174442</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>爬楼梯</t>
+          <t>Player-58174442</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3614,17 +3614,17 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>10636651</t>
+          <t>59081265</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>"Ismail Aflou"</t>
+          <t>爬楼梯</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -3641,12 +3641,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>12648101</t>
+          <t>10636651</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>"player 198827"</t>
+          <t>"Ismail Aflou"</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3663,17 +3663,17 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>65852</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>9195340</t>
+          <t>41848598</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Namllllllik</t>
+          <t>国家一级保护沙雕</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3683,7 +3683,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2499</t>
         </is>
       </c>
     </row>
@@ -3695,12 +3695,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>41848598</t>
+          <t>12648101</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>国家一级保护沙雕</t>
+          <t>"player 198827"</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3722,12 +3722,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>15755724</t>
+          <t>9195340</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>"Last Good"</t>
+          <t>Namllllllik</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3749,12 +3749,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>8850180</t>
+          <t>15755724</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>30624300</t>
+          <t>"Last Good"</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3776,12 +3776,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>28624723</t>
+          <t>8850180</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>"Woody Shade"</t>
+          <t>30624300</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3803,12 +3803,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>6010122</t>
+          <t>28624723</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>"Edward Peng"</t>
+          <t>"Woody Shade"</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3830,20 +3830,47 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
+          <t>6010122</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>"Edward Peng"</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>999999</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
           <t>9913517</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
+      <c r="C130" t="inlineStr">
         <is>
           <t>"Kenny Chan"</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
+      <c r="D130" t="inlineStr">
         <is>
           <t>Chinese</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr">
+      <c r="E130" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/Season_Trophies/87.xlsx
+++ b/Season_Trophies/87.xlsx
@@ -396,7 +396,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1344</t>
+          <t>1366</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -416,14 +416,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5213</t>
+          <t>5224</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>383</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -443,14 +443,14 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5463</t>
+          <t>5430</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4625</t>
+          <t>4928</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -477,7 +477,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>586</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -497,14 +497,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5379</t>
+          <t>5371</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1510</t>
+          <t>1701</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -524,14 +524,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5186</t>
+          <t>5179</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2783</t>
+          <t>2961</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -558,7 +558,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6541</t>
+          <t>6954</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -585,17 +585,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>9230</t>
+          <t>7764</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>14424176</t>
+          <t>43800641</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>天才少年老纪</t>
+          <t>㊥蛋蛋大</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -605,24 +605,24 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4634</t>
+          <t>4734</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>11334</t>
+          <t>7579</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>43800641</t>
+          <t>14424176</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>㊥蛋蛋大</t>
+          <t>天才少年老纪</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -632,14 +632,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4527</t>
+          <t>4745</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>12457</t>
+          <t>13186</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -666,7 +666,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>18065</t>
+          <t>19191</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -693,7 +693,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2609</t>
+          <t>940</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -713,14 +713,14 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>5060</t>
+          <t>5296</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2669</t>
+          <t>2840</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -747,17 +747,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>23616</t>
+          <t>24323</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>12333251</t>
+          <t>37069173</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>"㊌ Mingxuan"</t>
+          <t>詹toniii</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -767,24 +767,24 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4096</t>
+          <t>4115</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>23905</t>
+          <t>23946</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>37069173</t>
+          <t>12333251</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>詹toniii</t>
+          <t>"㊌ Mingxuan"</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -794,14 +794,14 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4089</t>
+          <t>4126</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>25489</t>
+          <t>26888</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -828,7 +828,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>40223</t>
+          <t>39883</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -848,14 +848,14 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3388</t>
+          <t>3452</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>46540</t>
+          <t>47029</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -882,7 +882,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>49359</t>
+          <t>50015</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -902,14 +902,14 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2874</t>
+          <t>2868</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>50221</t>
+          <t>50704</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -936,7 +936,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>59600</t>
+          <t>59981</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -956,14 +956,14 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2586</t>
+          <t>2585</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>61246</t>
+          <t>61594</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -990,7 +990,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>64178</t>
+          <t>64530</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1017,7 +1017,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>70461</t>
+          <t>70801</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1037,14 +1037,14 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2301</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>87832</t>
+          <t>86094</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1064,14 +1064,14 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1737</t>
+          <t>1895</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>88005</t>
+          <t>88479</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1152,7 +1152,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>15704</t>
+          <t>16702</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1179,7 +1179,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>8120</t>
+          <t>8485</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1199,24 +1199,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>4693</t>
+          <t>4698</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>16786</t>
+          <t>14865</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>53520939</t>
+          <t>38809086</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>㊥虎哥tiger</t>
+          <t>Kouenᶻᵍˣ</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1226,24 +1226,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>4308</t>
+          <t>4411</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>20252</t>
+          <t>18879</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>38809086</t>
+          <t>53520939</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Kouenᶻᵍˣ</t>
+          <t>㊥虎哥tiger</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1253,14 +1253,14 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4196</t>
+          <t>4276</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>29110</t>
+          <t>29997</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1280,14 +1280,14 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>3983</t>
+          <t>3988</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>11051</t>
+          <t>12021</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1307,14 +1307,14 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4541</t>
+          <t>4524</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>12275</t>
+          <t>12741</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1334,14 +1334,14 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4487</t>
+          <t>4496</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>13948</t>
+          <t>14926</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1361,14 +1361,14 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>4414</t>
+          <t>4409</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>16500</t>
+          <t>17122</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1388,14 +1388,14 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4317</t>
+          <t>4332</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>17872</t>
+          <t>18459</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1415,14 +1415,14 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>4273</t>
+          <t>4290</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>21939</t>
+          <t>23562</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1442,14 +1442,14 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4146</t>
+          <t>4136</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>37103</t>
+          <t>37832</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1476,7 +1476,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1496,14 +1496,14 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>5658</t>
+          <t>5603</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>5336</t>
+          <t>5682</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1530,7 +1530,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>7206</t>
+          <t>7929</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1550,24 +1550,24 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>4741</t>
+          <t>4726</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>10018</t>
+          <t>9776</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>7852598</t>
+          <t>11582001</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>seiji</t>
+          <t>iMinatoX4</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1577,24 +1577,24 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>4593</t>
+          <t>4633</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>10923</t>
+          <t>10579</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>11582001</t>
+          <t>7852598</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>iMinatoX4</t>
+          <t>seiji</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1604,24 +1604,24 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>4548</t>
+          <t>4593</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>12877</t>
+          <t>11222</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>55317038</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>necman12345</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1631,24 +1631,24 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>4459</t>
+          <t>4562</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>13874</t>
+          <t>13609</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1658,24 +1658,24 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>4417</t>
+          <t>4462</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>18253</t>
+          <t>16157</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1685,24 +1685,24 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>4261</t>
+          <t>4364</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>18329</t>
+          <t>19575</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>55317038</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>necman12345</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1712,14 +1712,14 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>4258</t>
+          <t>4255</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>19444</t>
+          <t>19800</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1739,14 +1739,14 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>4221</t>
+          <t>4249</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>20135</t>
+          <t>21117</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1766,14 +1766,14 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>4199</t>
+          <t>4207</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>20539</t>
+          <t>21802</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1800,7 +1800,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>20794</t>
+          <t>22074</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1827,7 +1827,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>24752</t>
+          <t>26767</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1847,24 +1847,24 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>4065</t>
+          <t>4046</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>26428</t>
+          <t>27435</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>3649043</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Globalking1001</t>
+          <t>Dj6106</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1874,14 +1874,14 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>4014</t>
+          <t>4027</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>28268</t>
+          <t>27827</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1901,24 +1901,24 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>3991</t>
+          <t>4016</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>26864</t>
+          <t>27955</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1928,24 +1928,24 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>4003</t>
+          <t>4012</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>28931</t>
+          <t>28032</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>58408326</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>"Killer Bee"</t>
+          <t>Globalking1001</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1955,24 +1955,24 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>3985</t>
+          <t>4010</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>29823</t>
+          <t>28863</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>58839983</t>
+          <t>1304123</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>每逢佳节胖六斤</t>
+          <t>Cccccccccccc</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1982,24 +1982,24 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>3966</t>
+          <t>3996</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>30405</t>
+          <t>29086</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2009,24 +2009,24 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>3942</t>
+          <t>3994</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>35031</t>
+          <t>29263</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>50837459</t>
+          <t>58408326</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>NINE日</t>
+          <t>"Killer Bee"</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2036,24 +2036,24 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>3703</t>
+          <t>3993</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>35066</t>
+          <t>30137</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>58839983</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>每逢佳节胖六斤</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2063,24 +2063,24 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>3701</t>
+          <t>3986</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>35246</t>
+          <t>35759</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>3649043</t>
+          <t>58203298</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Dj6106</t>
+          <t>权旨qua</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2090,24 +2090,24 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>3692</t>
+          <t>3708</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>34909</t>
+          <t>35888</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1304123</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Cccccccccccc</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2117,24 +2117,24 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>3710</t>
+          <t>3701</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>37364</t>
+          <t>36044</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>58203298</t>
+          <t>50837459</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>权旨qua</t>
+          <t>NINE日</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2144,24 +2144,24 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>3569</t>
+          <t>3692</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>37525</t>
+          <t>36256</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>57813281</t>
+          <t>55860890</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>XAUEN</t>
+          <t>㊥Ethan</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2171,14 +2171,14 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>3558</t>
+          <t>3680</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>38190</t>
+          <t>37252</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2198,24 +2198,24 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>3517</t>
+          <t>3620</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>40061</t>
+          <t>38178</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>38561634</t>
+          <t>57813281</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>"Ambrose PT"</t>
+          <t>XAUEN</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2225,24 +2225,24 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>3397</t>
+          <t>3563</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>42115</t>
+          <t>40706</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>55860890</t>
+          <t>38561634</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>㊥Ethan</t>
+          <t>"Ambrose PT"</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2252,14 +2252,14 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>3262</t>
+          <t>3396</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>42552</t>
+          <t>43081</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2279,14 +2279,14 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>3233</t>
+          <t>3232</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>42987</t>
+          <t>43503</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2306,14 +2306,14 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>3205</t>
+          <t>3204</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>44837</t>
+          <t>45365</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2340,7 +2340,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>46135</t>
+          <t>45868</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2360,14 +2360,14 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>3018</t>
+          <t>3059</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>51476</t>
+          <t>50048</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2387,14 +2387,14 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2798</t>
+          <t>2867</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>63204</t>
+          <t>63560</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2421,7 +2421,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>12170</t>
+          <t>12885</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2448,7 +2448,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>56166</t>
+          <t>55403</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2468,14 +2468,14 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2658</t>
+          <t>2689</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>65558</t>
+          <t>65848</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2529,7 +2529,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>24996</t>
+          <t>26460</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2549,14 +2549,14 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>4058</t>
+          <t>4056</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>30102</t>
+          <t>31043</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2576,14 +2576,14 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>3955</t>
+          <t>3966</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>47536</t>
+          <t>48027</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2610,7 +2610,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>48981</t>
+          <t>49490</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2637,7 +2637,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>22684</t>
+          <t>20675</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2657,14 +2657,14 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>4124</t>
+          <t>4221</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>31438</t>
+          <t>25306</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2684,14 +2684,14 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>3893</t>
+          <t>4087</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>47767</t>
+          <t>47562</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2711,14 +2711,14 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2940</t>
+          <t>2972</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>50806</t>
+          <t>51369</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2738,14 +2738,14 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2822</t>
+          <t>2819</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>52250</t>
+          <t>52709</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2772,17 +2772,17 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>58140</t>
+          <t>58307</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>47430231</t>
+          <t>3391765</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Kentantrino</t>
+          <t>马er</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2792,24 +2792,24 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2615</t>
+          <t>2619</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>58703</t>
+          <t>58600</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>3391765</t>
+          <t>47430231</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>马er</t>
+          <t>Kentantrino</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2819,14 +2819,14 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2603</t>
+          <t>2613</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>62420</t>
+          <t>62781</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -2853,7 +2853,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>67184</t>
+          <t>67506</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -2873,14 +2873,14 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2487</t>
+          <t>2486</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>93090</t>
+          <t>93763</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2907,7 +2907,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>102681</t>
+          <t>103516</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2927,14 +2927,14 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>1489</t>
+          <t>1487</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>121158</t>
+          <t>122339</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3204,7 +3204,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>54671</t>
+          <t>52466</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -3224,14 +3224,14 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>2699</t>
+          <t>2781</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>42534</t>
+          <t>43105</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -3251,7 +3251,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>3234</t>
+          <t>3230</t>
         </is>
       </c>
     </row>
@@ -3285,7 +3285,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>54514</t>
+          <t>54981</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -3305,7 +3305,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>2703</t>
+          <t>2702</t>
         </is>
       </c>
     </row>
@@ -3339,7 +3339,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>83051</t>
+          <t>83445</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -3366,7 +3366,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>89603</t>
+          <t>90119</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -3393,7 +3393,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>94253</t>
+          <t>94962</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -3420,7 +3420,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>107245</t>
+          <t>108038</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -3447,7 +3447,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>155583</t>
+          <t>158095</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -3663,7 +3663,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>65852</t>
+          <t>66308</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -3683,7 +3683,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>2499</t>
+          <t>2498</t>
         </is>
       </c>
     </row>

--- a/Season_Trophies/87.xlsx
+++ b/Season_Trophies/87.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E130"/>
+  <dimension ref="A1:E127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -396,17 +396,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1366</t>
+          <t>59130</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1951758</t>
+          <t>42542275</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>我來找你了</t>
+          <t>"同 风 雨"</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -416,14 +416,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5224</t>
+          <t>2663</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>624</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -443,14 +443,14 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5430</t>
+          <t>5973</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4928</t>
+          <t>4215</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -470,24 +470,24 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4901</t>
+          <t>5457</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>10390</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>8741713</t>
+          <t>4229136</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">㊥大咖玩家ky </t>
+          <t>"totoro wu"</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -497,14 +497,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5371</t>
+          <t>5018</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1701</t>
+          <t>1650</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -524,24 +524,24 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5179</t>
+          <t>5759</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2961</t>
+          <t>5721</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>27468237</t>
+          <t>43800641</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>佛系复仇者秀川</t>
+          <t>㊥蛋蛋大</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -551,24 +551,24 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5043</t>
+          <t>5322</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6954</t>
+          <t>8468</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>26588375</t>
+          <t>14424176</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>何苦僧ai</t>
+          <t>天才少年老纪</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -578,24 +578,24 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4782</t>
+          <t>5132</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>7764</t>
+          <t>23314</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>43800641</t>
+          <t>21665473</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>㊥蛋蛋大</t>
+          <t>"Dog Gamedesiger"</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -605,24 +605,24 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4734</t>
+          <t>4429</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>7579</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>14424176</t>
+          <t>27484940</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>天才少年老纪</t>
+          <t>66666zgx</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -632,24 +632,24 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4745</t>
+          <t>6022</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>13186</t>
+          <t>1106</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4229136</t>
+          <t>27468237</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>"totoro wu"</t>
+          <t>佛系复仇者秀川</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -659,24 +659,24 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4479</t>
+          <t>5857</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>19191</t>
+          <t>2269</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>21665473</t>
+          <t>25376635</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>"Dog Gamedesiger"</t>
+          <t>"sanchez ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -686,24 +686,24 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4267</t>
+          <t>5671</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>940</t>
+          <t>5094</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>29211638</t>
+          <t>21345373</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>"㊥ PhononDisperse"</t>
+          <t>林北不講武德</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -713,24 +713,24 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>5296</t>
+          <t>5381</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2840</t>
+          <t>20544</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>25376635</t>
+          <t>37069173</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>"sanchez ᶻᵍˣ"</t>
+          <t>詹toniii</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -740,24 +740,24 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5054</t>
+          <t>4533</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>24323</t>
+          <t>24776</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>37069173</t>
+          <t>45967307</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>詹toniii</t>
+          <t>Ricky</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -767,14 +767,14 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4115</t>
+          <t>4372</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>23946</t>
+          <t>26166</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -794,24 +794,24 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4126</t>
+          <t>4324</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>26888</t>
+          <t>40653</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>45967307</t>
+          <t>55634661</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Ricky</t>
+          <t>Opalus</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -821,24 +821,24 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4043</t>
+          <t>3709</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>39883</t>
+          <t>45015</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>55634661</t>
+          <t>7587898</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Opalus</t>
+          <t>藍精靈ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -848,24 +848,24 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3452</t>
+          <t>3349</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>47029</t>
+          <t>48987</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>7587898</t>
+          <t>20737010</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>藍精靈ᶻᵍˣ</t>
+          <t>混着玩...</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -875,14 +875,14 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2998</t>
+          <t>3066</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>50015</t>
+          <t>54089</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -902,24 +902,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2868</t>
+          <t>2825</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>50704</t>
+          <t>62596</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>20737010</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>混着玩...</t>
+          <t>春田花花幼稚园</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -929,24 +929,24 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2843</t>
+          <t>2583</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>59981</t>
+          <t>65668</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>42542275</t>
+          <t>6510348</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>"同 风 雨"</t>
+          <t>Bonpoisson</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -956,24 +956,24 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2585</t>
+          <t>2530</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>61594</t>
+          <t>73123</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>59093405</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>春田花花幼稚园</t>
+          <t>永恒不朽6</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -983,24 +983,24 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2557</t>
+          <t>2307</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>64530</t>
+          <t>91696</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>6510348</t>
+          <t>59100545</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Bonpoisson</t>
+          <t>"black dragon"</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1010,24 +1010,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2516</t>
+          <t>1734</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>70801</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>59093405</t>
+          <t>23687250</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>永恒不朽6</t>
+          <t>"jetlijp ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2300</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>86094</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>59083984</t>
+          <t>47928278</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>战神哥606</t>
+          <t>"落日幻影 哈哈哈"</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1064,105 +1064,105 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1895</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>88479</t>
+          <t>14422</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>59100545</t>
+          <t>37861953</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>"black dragon"</t>
+          <t>"Durex ๑• . •๑"</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1728</t>
+          <t>4796</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>7750</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>23687250</t>
+          <t>31217211</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>"jetlijp ᶻᵍˣ"</t>
+          <t>解憂雜貨鋪㊥</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5177</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>13053</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>47928278</t>
+          <t>53520939</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>"落日幻影 哈哈哈"</t>
+          <t>㊥虎哥tiger</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4869</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>16702</t>
+          <t>18318</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>37861953</t>
+          <t>38809086</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>"Durex ๑• . •๑"</t>
+          <t>Kouenᶻᵍˣ</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1172,24 +1172,24 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>4345</t>
+          <t>4622</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>8485</t>
+          <t>28751</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>31217211</t>
+          <t>47146736</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>解憂雜貨鋪㊥</t>
+          <t>"HK 品瑜"</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1199,24 +1199,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>4698</t>
+          <t>4238</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>14865</t>
+          <t>10060</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>38809086</t>
+          <t>49710892</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Kouenᶻᵍˣ</t>
+          <t>MMMMMMM</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1226,24 +1226,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>4411</t>
+          <t>5037</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>18879</t>
+          <t>12002</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>53520939</t>
+          <t>53060417</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>㊥虎哥tiger</t>
+          <t>㊥老纳信耶稣</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4276</t>
+          <t>4929</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>29997</t>
+          <t>14237</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>47146736</t>
+          <t>8057001</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>"HK 品瑜"</t>
+          <t>㊥兵者诡道也</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1280,24 +1280,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>3988</t>
+          <t>4805</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>12021</t>
+          <t>17305</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>53060417</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>㊥老纳信耶稣</t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1307,24 +1307,24 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4524</t>
+          <t>4665</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>12741</t>
+          <t>18546</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>49710892</t>
+          <t>54698813</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>MMMMMMM</t>
+          <t>閃亮唐老鴨</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1334,24 +1334,24 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4496</t>
+          <t>4612</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>14926</t>
+          <t>18804</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>4756174</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t>純希です</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1361,24 +1361,24 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>4409</t>
+          <t>4601</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>17122</t>
+          <t>31990</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>54698813</t>
+          <t>55769051</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>閃亮唐老鴨</t>
+          <t>㊥叮叮当.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1388,24 +1388,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4332</t>
+          <t>4129</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>18459</t>
+          <t>5340</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>8057001</t>
+          <t>4493731</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>㊥兵者诡道也</t>
+          <t>Player-1527362</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1415,24 +1415,24 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>4290</t>
+          <t>5357</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>23562</t>
+          <t>8316</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>4756174</t>
+          <t>47131129</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>純希です</t>
+          <t>NAM</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1442,24 +1442,24 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4136</t>
+          <t>5141</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>37832</t>
+          <t>8526</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>55769051</t>
+          <t>7852598</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>㊥叮叮当.</t>
+          <t>seiji</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1469,24 +1469,24 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>3585</t>
+          <t>5127</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>12928</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>27484940</t>
+          <t>11582001</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>66666zgx</t>
+          <t>iMinatoX4</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1496,24 +1496,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>5603</t>
+          <t>4877</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>5682</t>
+          <t>14698</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>4493731</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Player-1527362</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1523,24 +1523,24 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>4856</t>
+          <t>4782</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>7929</t>
+          <t>15060</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>47131129</t>
+          <t>55317038</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>necman12345</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1550,24 +1550,24 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>4726</t>
+          <t>4763</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>9776</t>
+          <t>15512</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>11582001</t>
+          <t>6809364</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>iMinatoX4</t>
+          <t>"Scorp IP"</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1577,24 +1577,24 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>4633</t>
+          <t>4742</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>10579</t>
+          <t>18554</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>7852598</t>
+          <t>38995116</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>seiji</t>
+          <t>"Ramesh Pavai Nam"</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1604,24 +1604,24 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>4593</t>
+          <t>4612</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>11222</t>
+          <t>19854</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>55317038</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>necman12345</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1631,24 +1631,24 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>4562</t>
+          <t>4559</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>13609</t>
+          <t>20296</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1658,24 +1658,24 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>4462</t>
+          <t>4542</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>16157</t>
+          <t>21424</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>54778421</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>Emma</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1685,24 +1685,24 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>4364</t>
+          <t>4502</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>19575</t>
+          <t>27856</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>47459684</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>㊥阿闹切克闹</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1712,24 +1712,24 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>4255</t>
+          <t>4266</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>19800</t>
+          <t>29085</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>38995116</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>"Ramesh Pavai Nam"</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1739,24 +1739,24 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>4249</t>
+          <t>4226</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>21117</t>
+          <t>30235</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>54778421</t>
+          <t>24733875</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Emma</t>
+          <t>龍少</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1766,24 +1766,24 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>4207</t>
+          <t>4189</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>21802</t>
+          <t>30294</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>24733875</t>
+          <t>31401481</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>龍少</t>
+          <t>Player-31401481</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1793,24 +1793,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>4188</t>
+          <t>4187</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>22074</t>
+          <t>30463</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>6809364</t>
+          <t>3649043</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>"Scorp IP"</t>
+          <t>Dj6106</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1820,24 +1820,24 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>4180</t>
+          <t>4181</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>26767</t>
+          <t>32147</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>31401481</t>
+          <t>58839983</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Player-31401481</t>
+          <t>每逢佳节胖六斤</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1847,24 +1847,24 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>4046</t>
+          <t>4123</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>27435</t>
+          <t>32209</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>3649043</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Dj6106</t>
+          <t>Globalking1001</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1874,24 +1874,24 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>4027</t>
+          <t>4121</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>27827</t>
+          <t>32453</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>47459684</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>㊥阿闹切克闹</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1901,24 +1901,24 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>4016</t>
+          <t>4112</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>27955</t>
+          <t>33787</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>58408326</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>"Killer Bee"</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1928,24 +1928,24 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>4012</t>
+          <t>4066</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>28032</t>
+          <t>35520</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Globalking1001</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1955,24 +1955,24 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>4010</t>
+          <t>4006</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>28863</t>
+          <t>35753</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1304123</t>
+          <t>58203298</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Cccccccccccc</t>
+          <t>权旨qua</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1982,24 +1982,24 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>3996</t>
+          <t>3998</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>29086</t>
+          <t>36985</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>1304123</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>Cccccccccccc</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2009,24 +2009,24 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>3994</t>
+          <t>3987</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>29263</t>
+          <t>37510</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>58408326</t>
+          <t>50837459</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>"Killer Bee"</t>
+          <t>NINE日</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2036,24 +2036,24 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>3993</t>
+          <t>3967</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>30137</t>
+          <t>37691</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>58839983</t>
+          <t>57813281</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>每逢佳节胖六斤</t>
+          <t>XAUEN</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2063,24 +2063,24 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>3986</t>
+          <t>3954</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>35759</t>
+          <t>38784</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>58203298</t>
+          <t>55860890</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>权旨qua</t>
+          <t>㊥Ethan</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2090,24 +2090,24 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>3708</t>
+          <t>3869</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>35888</t>
+          <t>40063</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>56500325</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>haruharuyukizg9735</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2117,24 +2117,24 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>3701</t>
+          <t>3760</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>36044</t>
+          <t>43645</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>50837459</t>
+          <t>38561634</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>NINE日</t>
+          <t>"Ambrose PT"</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2144,24 +2144,24 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>3692</t>
+          <t>3460</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>36256</t>
+          <t>44602</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>55860890</t>
+          <t>52997727</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>㊥Ethan</t>
+          <t>larios</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2171,24 +2171,24 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>3680</t>
+          <t>3384</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>37252</t>
+          <t>46512</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>56500325</t>
+          <t>32316256</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>haruharuyukizg9735</t>
+          <t>"秋の風 .."</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2198,24 +2198,24 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>3620</t>
+          <t>3235</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>38178</t>
+          <t>47604</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>57813281</t>
+          <t>48634530</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>XAUEN</t>
+          <t>leezhenrui</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2225,24 +2225,24 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>3563</t>
+          <t>3156</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>40706</t>
+          <t>47953</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>38561634</t>
+          <t>59080634</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>"Ambrose PT"</t>
+          <t>Chlove</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2252,24 +2252,24 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>3396</t>
+          <t>3132</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>43081</t>
+          <t>48711</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>52997727</t>
+          <t>38893233</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>larios</t>
+          <t>"快乐 二哈"</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2279,24 +2279,24 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>3232</t>
+          <t>3083</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>43503</t>
+          <t>60588</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>32316256</t>
+          <t>1550355</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>"秋の風 .."</t>
+          <t>"皓茵 世界"</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2306,132 +2306,132 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>3204</t>
+          <t>2627</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>45365</t>
+          <t>14590</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>38893233</t>
+          <t>31134300</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>"快乐 二哈"</t>
+          <t>McMaX</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>3089</t>
+          <t>4788</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>45868</t>
+          <t>57490</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>48634530</t>
+          <t>43281368</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>leezhenrui</t>
+          <t>xhs2763</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>3059</t>
+          <t>2711</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>50048</t>
+          <t>66659</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>59080634</t>
+          <t>44378757</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Chlove</t>
+          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2867</t>
+          <t>2516</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>63560</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1550355</t>
+          <t>48738257</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>"皓茵 世界"</t>
+          <t>死亡洲际跳蛋</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2529</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>12885</t>
+          <t>21956</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>31134300</t>
+          <t>25479797</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>McMaX</t>
+          <t>"Mohamed Alnaqbi"</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2441,24 +2441,24 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>4491</t>
+          <t>4484</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>55403</t>
+          <t>27181</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>43281368</t>
+          <t>44708798</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>xhs2763</t>
+          <t>"㊥ mythgod"</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2468,24 +2468,24 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2689</t>
+          <t>4288</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>65848</t>
+          <t>47248</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>44378757</t>
+          <t>54588689</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
+          <t>㊥墨衍枫迹☜</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2495,24 +2495,24 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>3182</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>52672</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>48738257</t>
+          <t>28855852</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>死亡洲际跳蛋</t>
+          <t>tiger</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2522,24 +2522,24 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2883</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>26460</t>
+          <t>21878</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>25479797</t>
+          <t>18082891</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>"Mohamed Alnaqbi"</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2549,24 +2549,24 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>4056</t>
+          <t>4487</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>31043</t>
+          <t>28255</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>44708798</t>
+          <t>55499394</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>"㊥ mythgod"</t>
+          <t>Player-55499394</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2576,24 +2576,24 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>3966</t>
+          <t>4253</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>48027</t>
+          <t>49539</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>54588689</t>
+          <t>56700848</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>㊥墨衍枫迹☜</t>
+          <t>工口漫画老师</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2603,24 +2603,24 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2950</t>
+          <t>3031</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>49490</t>
+          <t>50134</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>28855852</t>
+          <t>47430231</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>tiger</t>
+          <t>Kentantrino</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2630,24 +2630,24 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2889</t>
+          <t>3000</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>20675</t>
+          <t>50687</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>18082891</t>
+          <t>11645391</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>"omar omar"</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2657,24 +2657,24 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>4221</t>
+          <t>2972</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>25306</t>
+          <t>54639</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>55499394</t>
+          <t>52792063</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Player-55499394</t>
+          <t>"Tramaine Dowlen"</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2684,24 +2684,24 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>4087</t>
+          <t>2805</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>47562</t>
+          <t>55662</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>56700848</t>
+          <t>9718882</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>工口漫画老师</t>
+          <t>小霸王2021</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2711,24 +2711,24 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2972</t>
+          <t>2769</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>51369</t>
+          <t>57246</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>52792063</t>
+          <t>3391765</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>"Tramaine Dowlen"</t>
+          <t>马er</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2738,24 +2738,24 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2819</t>
+          <t>2718</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>52709</t>
+          <t>69934</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>9718882</t>
+          <t>15436348</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>小霸王2021</t>
+          <t>Lucas</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2765,24 +2765,24 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2772</t>
+          <t>2475</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>58307</t>
+          <t>98467</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>3391765</t>
+          <t>54941706</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>马er</t>
+          <t>AlexMenjivar20</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2792,24 +2792,24 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2619</t>
+          <t>1573</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>58600</t>
+          <t>108910</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>47430231</t>
+          <t>57219176</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Kentantrino</t>
+          <t>青莲道人</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2819,24 +2819,24 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2613</t>
+          <t>1475</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>62781</t>
+          <t>127480</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>11645391</t>
+          <t>49000199</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>"omar omar"</t>
+          <t>SlipperyForester5672</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2846,24 +2846,24 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2540</t>
+          <t>1209</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>67506</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>15436348</t>
+          <t>38994054</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Lucas</t>
+          <t>chengnan</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2873,24 +2873,24 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2486</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>93763</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>54941706</t>
+          <t>55810157</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>AlexMenjivar20</t>
+          <t>Beard</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2900,24 +2900,24 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>1574</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>103516</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>57219176</t>
+          <t>57556179</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>青莲道人</t>
+          <t>特战新生代英雄</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2927,24 +2927,24 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>1487</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>122339</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>49000199</t>
+          <t>1222440</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>SlipperyForester5672</t>
+          <t>"Sneaky Ninja Panda"</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2954,7 +2954,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>1180</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2966,12 +2966,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>38994054</t>
+          <t>58340439</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>chengnan</t>
+          <t>70qilin</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2993,12 +2993,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>55810157</t>
+          <t>20372140</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Beard</t>
+          <t>人山即是仙</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3020,12 +3020,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>57556179</t>
+          <t>58615925</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>特战新生代英雄</t>
+          <t>齐天的大圣</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3047,12 +3047,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>1222440</t>
+          <t>58641574</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>"Sneaky Ninja Panda"</t>
+          <t>Player-58641574鱼</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3074,12 +3074,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>58340439</t>
+          <t>58743790</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>70qilin</t>
+          <t>Ma</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3096,54 +3096,54 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>53778</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>20372140</t>
+          <t>41849539</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>人山即是仙</t>
+          <t>三号馆馆主</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2837</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>43301</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>58615925</t>
+          <t>56241637</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>齐天的大圣</t>
+          <t>Player-14day</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3487</t>
         </is>
       </c>
     </row>
@@ -3155,17 +3155,17 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>58641574</t>
+          <t>47622456</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Player-58641574鱼</t>
+          <t>伊恩</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -3177,44 +3177,44 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>56098</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>58743790</t>
+          <t>55210350</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Ma</t>
+          <t>一个过客而已</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2755</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>52466</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>41849539</t>
+          <t>49553719</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>三号馆馆主</t>
+          <t>"Oreo Captain Sir"</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3224,24 +3224,24 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>2781</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>43105</t>
+          <t>83057</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>56241637</t>
+          <t>58379115</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Player-14day</t>
+          <t>Player-58379115</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3251,24 +3251,24 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>3230</t>
+          <t>2059</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>86331</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>47622456</t>
+          <t>58671339</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>伊恩</t>
+          <t>"quang pro"</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3278,24 +3278,24 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2000</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>54981</t>
+          <t>92091</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>55210350</t>
+          <t>59082827</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>一个过客而已</t>
+          <t>Player-59082827</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3305,24 +3305,24 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>2702</t>
+          <t>1719</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>96636</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>49553719</t>
+          <t>59106471</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>"Oreo Captain Sir"</t>
+          <t>anime</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3332,24 +3332,24 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1601</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>83445</t>
+          <t>113438</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>58671339</t>
+          <t>41231396</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>"quang pro"</t>
+          <t>ollsthebro</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3359,24 +3359,24 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>1399</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>90119</t>
+          <t>176768</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>59082827</t>
+          <t>55745105</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Player-59082827</t>
+          <t>eldeniz</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3386,24 +3386,24 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>1657</t>
+          <t>1000</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>94962</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>59106471</t>
+          <t>58572199</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>anime</t>
+          <t>你干嘛～哎呦～</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3413,24 +3413,24 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>1556</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>108038</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>41231396</t>
+          <t>58766144</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>ollsthebro</t>
+          <t>EquablePrecedence38</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3440,24 +3440,24 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>1399</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>158095</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>55745105</t>
+          <t>29355299</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>eldeniz</t>
+          <t>Player-29355299</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3467,7 +3467,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3479,12 +3479,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>58572199</t>
+          <t>58910668</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>你干嘛～哎呦～</t>
+          <t>BrittleAuthor33</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3506,12 +3506,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>58766144</t>
+          <t>58174442</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>EquablePrecedence38</t>
+          <t>Player-58174442</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3533,12 +3533,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>29355299</t>
+          <t>59081265</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Player-29355299</t>
+          <t>爬楼梯</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3555,27 +3555,27 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>57449</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>58910668</t>
+          <t>41848598</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>BrittleAuthor33</t>
+          <t>国家一级保护沙雕</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2712</t>
         </is>
       </c>
     </row>
@@ -3587,17 +3587,17 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>58174442</t>
+          <t>12648101</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Player-58174442</t>
+          <t>"player 198827"</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -3614,17 +3614,17 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>59081265</t>
+          <t>9195340</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>爬楼梯</t>
+          <t>Namllllllik</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -3641,12 +3641,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>10636651</t>
+          <t>15755724</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>"Ismail Aflou"</t>
+          <t>"Last Good"</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3663,17 +3663,17 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>66308</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>41848598</t>
+          <t>8850180</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>国家一级保护沙雕</t>
+          <t>30624300</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3683,7 +3683,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>2498</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3695,12 +3695,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>12648101</t>
+          <t>28624723</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>"player 198827"</t>
+          <t>"Woody Shade"</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3722,12 +3722,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>9195340</t>
+          <t>6010122</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Namllllllik</t>
+          <t>"Edward Peng"</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3749,12 +3749,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>15755724</t>
+          <t>9913517</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>"Last Good"</t>
+          <t>"Kenny Chan"</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3776,12 +3776,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>8850180</t>
+          <t>10636651</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>30624300</t>
+          <t>"Ismail Aflou"</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3790,87 +3790,6 @@
         </is>
       </c>
       <c r="E127" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>28624723</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>"Woody Shade"</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>6010122</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>"Edward Peng"</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>9913517</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>"Kenny Chan"</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/Season_Trophies/87.xlsx
+++ b/Season_Trophies/87.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E127"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -396,7 +396,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>59130</t>
+          <t>59769</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -416,24 +416,24 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2663</t>
+          <t>2661</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>624</t>
+          <t>9514</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>20199374</t>
+          <t>4229136</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>RuanFan</t>
+          <t>"totoro wu"</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -443,24 +443,24 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5973</t>
+          <t>5170</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4215</t>
+          <t>2080</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6940556</t>
+          <t>46422609</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>"Cry ab it林黛玉ᶻᵍˣ"</t>
+          <t>㊥林天大大神</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -470,24 +470,24 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5457</t>
+          <t>5796</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>10390</t>
+          <t>6943</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4229136</t>
+          <t>43800641</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>"totoro wu"</t>
+          <t>㊥蛋蛋大</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -497,24 +497,24 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5018</t>
+          <t>5335</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1650</t>
+          <t>25023</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>46422609</t>
+          <t>21665473</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>㊥林天大大神</t>
+          <t>"Dog Gamedesiger"</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -524,24 +524,24 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5759</t>
+          <t>4429</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>5721</t>
+          <t>1499</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>43800641</t>
+          <t>27468237</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>㊥蛋蛋大</t>
+          <t>佛系复仇者秀川</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -551,24 +551,24 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5322</t>
+          <t>5884</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>8468</t>
+          <t>2913</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>14424176</t>
+          <t>21345373</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>天才少年老纪</t>
+          <t>林北不講武德</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -578,24 +578,24 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5132</t>
+          <t>5695</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>23314</t>
+          <t>20968</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>21665473</t>
+          <t>12333251</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>"Dog Gamedesiger"</t>
+          <t>"㊌ Mingxuan"</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -605,24 +605,24 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4429</t>
+          <t>4586</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>23541</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>27484940</t>
+          <t>37069173</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>66666zgx</t>
+          <t>詹toniii</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -632,24 +632,24 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>6022</t>
+          <t>4487</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1106</t>
+          <t>26562</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>27468237</t>
+          <t>45967307</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>佛系复仇者秀川</t>
+          <t>Ricky</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -659,24 +659,24 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5857</t>
+          <t>4372</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2269</t>
+          <t>40018</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>25376635</t>
+          <t>55634661</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>"sanchez ᶻᵍˣ"</t>
+          <t>Opalus</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -686,24 +686,24 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>5671</t>
+          <t>3847</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>5094</t>
+          <t>45095</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>21345373</t>
+          <t>20737010</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>林北不講武德</t>
+          <t>混着玩...</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -713,24 +713,24 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>5381</t>
+          <t>3402</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20544</t>
+          <t>45709</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>37069173</t>
+          <t>7587898</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>詹toniii</t>
+          <t>藍精靈ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -740,24 +740,24 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4533</t>
+          <t>3349</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>24776</t>
+          <t>54842</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>45967307</t>
+          <t>59095922</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Ricky</t>
+          <t>xxxx7</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -767,24 +767,24 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4372</t>
+          <t>2819</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>26166</t>
+          <t>61786</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>12333251</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>"㊌ Mingxuan"</t>
+          <t>春田花花幼稚园</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -794,24 +794,24 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4324</t>
+          <t>2611</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>40653</t>
+          <t>66219</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>55634661</t>
+          <t>6510348</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Opalus</t>
+          <t>Bonpoisson</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -821,24 +821,24 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3709</t>
+          <t>2529</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>45015</t>
+          <t>73712</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>7587898</t>
+          <t>59093405</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>藍精靈ᶻᵍˣ</t>
+          <t>永恒不朽6</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -848,24 +848,24 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3349</t>
+          <t>2306</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>48987</t>
+          <t>91832</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>20737010</t>
+          <t>59100545</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>混着玩...</t>
+          <t>"black dragon"</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -875,24 +875,24 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3066</t>
+          <t>1760</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>54089</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>59095922</t>
+          <t>23687250</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>xxxx7</t>
+          <t>"jetlijp ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -902,24 +902,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2825</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>62596</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>47928278</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>春田花花幼稚园</t>
+          <t>"落日幻影 哈哈哈"</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -929,159 +929,159 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2583</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>65668</t>
+          <t>11716</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>6510348</t>
+          <t>37861953</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Bonpoisson</t>
+          <t>"Durex ๑• . •๑"</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2530</t>
+          <t>5037</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>73123</t>
+          <t>15243</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>59093405</t>
+          <t>53520939</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>永恒不朽6</t>
+          <t>㊥虎哥tiger</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2307</t>
+          <t>4846</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>91696</t>
+          <t>17540</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>59100545</t>
+          <t>38809086</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>"black dragon"</t>
+          <t>Kouenᶻᵍˣ</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1734</t>
+          <t>4736</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>21887</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>23687250</t>
+          <t>47146736</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>"jetlijp ᶻᵍˣ"</t>
+          <t>"HK 品瑜"</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4549</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>12284</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>47928278</t>
+          <t>49710892</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>"落日幻影 哈哈哈"</t>
+          <t>MMMMMMM</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5003</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>14422</t>
+          <t>14681</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>37861953</t>
+          <t>53060417</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>"Durex ๑• . •๑"</t>
+          <t>㊥老纳信耶稣</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1091,24 +1091,24 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4796</t>
+          <t>4874</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>7750</t>
+          <t>15255</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>31217211</t>
+          <t>8057001</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>解憂雜貨鋪㊥</t>
+          <t>㊥兵者诡道也</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1118,24 +1118,24 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>5177</t>
+          <t>4845</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>13053</t>
+          <t>15775</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>53520939</t>
+          <t>54698813</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>㊥虎哥tiger</t>
+          <t>閃亮唐老鴨</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1145,24 +1145,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>4869</t>
+          <t>4820</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>18318</t>
+          <t>16105</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>38809086</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Kouenᶻᵍˣ</t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1172,24 +1172,24 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>4622</t>
+          <t>4805</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>28751</t>
+          <t>16294</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>47146736</t>
+          <t>4756174</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>"HK 品瑜"</t>
+          <t>純希です</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1199,24 +1199,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>4238</t>
+          <t>4796</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>10060</t>
+          <t>26240</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>49710892</t>
+          <t>55769051</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>MMMMMMM</t>
+          <t>㊥叮叮当.</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1226,24 +1226,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>5037</t>
+          <t>4383</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>12002</t>
+          <t>3365</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>53060417</t>
+          <t>4493731</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>㊥老纳信耶稣</t>
+          <t>Player-1527362</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4929</t>
+          <t>5645</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>14237</t>
+          <t>7871</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>8057001</t>
+          <t>7852598</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>㊥兵者诡道也</t>
+          <t>seiji</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1280,24 +1280,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4805</t>
+          <t>5275</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>17305</t>
+          <t>9847</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>47131129</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t>NAM</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1307,24 +1307,24 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4665</t>
+          <t>5149</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>18546</t>
+          <t>10506</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>54698813</t>
+          <t>11582001</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>閃亮唐老鴨</t>
+          <t>iMinatoX4</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1334,24 +1334,24 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4612</t>
+          <t>5109</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>18804</t>
+          <t>16682</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>4756174</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>純希です</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1361,24 +1361,24 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>4601</t>
+          <t>4776</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>31990</t>
+          <t>17362</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>55769051</t>
+          <t>6809364</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>㊥叮叮当.</t>
+          <t>"Scorp IP"</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1388,24 +1388,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4129</t>
+          <t>4744</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>5340</t>
+          <t>18753</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>4493731</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Player-1527362</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1415,24 +1415,24 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>5357</t>
+          <t>4681</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>8316</t>
+          <t>18569</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>47131129</t>
+          <t>55317038</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>necman12345</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1442,24 +1442,24 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>5141</t>
+          <t>4689</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>8526</t>
+          <t>19997</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>7852598</t>
+          <t>54778421</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>seiji</t>
+          <t>Emma</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1469,24 +1469,24 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>5127</t>
+          <t>4627</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>12928</t>
+          <t>21894</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>11582001</t>
+          <t>38995116</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>iMinatoX4</t>
+          <t>"Ramesh Pavai Nam"</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1496,24 +1496,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>4877</t>
+          <t>4549</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>14698</t>
+          <t>22149</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1523,24 +1523,24 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>4782</t>
+          <t>4539</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>15060</t>
+          <t>26824</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>55317038</t>
+          <t>31401481</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>necman12345</t>
+          <t>Player-31401481</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1550,24 +1550,24 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>4763</t>
+          <t>4361</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>15512</t>
+          <t>26279</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>6809364</t>
+          <t>47459684</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>"Scorp IP"</t>
+          <t>㊥阿闹切克闹</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1577,24 +1577,24 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>4742</t>
+          <t>4382</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>18554</t>
+          <t>28682</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>38995116</t>
+          <t>3649043</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>"Ramesh Pavai Nam"</t>
+          <t>Dj6106</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1604,24 +1604,24 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>4612</t>
+          <t>4295</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>19854</t>
+          <t>30356</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>55860890</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>㊥Ethan</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1631,24 +1631,24 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>4559</t>
+          <t>4235</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>20296</t>
+          <t>31267</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1658,24 +1658,24 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>4542</t>
+          <t>4202</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>21424</t>
+          <t>31666</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>54778421</t>
+          <t>24733875</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Emma</t>
+          <t>龍少</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1685,24 +1685,24 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>4502</t>
+          <t>4189</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>27856</t>
+          <t>32439</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>47459684</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>㊥阿闹切克闹</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1712,24 +1712,24 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>4266</t>
+          <t>4162</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>29085</t>
+          <t>34098</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>58839983</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>每逢佳节胖六斤</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1739,24 +1739,24 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>4226</t>
+          <t>4102</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>30235</t>
+          <t>34454</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>24733875</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>龍少</t>
+          <t>Globalking1001</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1766,24 +1766,24 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>4189</t>
+          <t>4089</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>30294</t>
+          <t>34667</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>31401481</t>
+          <t>50837459</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Player-31401481</t>
+          <t>NINE日</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1793,24 +1793,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>4187</t>
+          <t>4082</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>30463</t>
+          <t>34854</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>3649043</t>
+          <t>57813281</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Dj6106</t>
+          <t>XAUEN</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1820,24 +1820,24 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>4181</t>
+          <t>4075</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>32147</t>
+          <t>35561</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>58839983</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>每逢佳节胖六斤</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1847,24 +1847,24 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>4123</t>
+          <t>4049</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>32209</t>
+          <t>36383</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>58408326</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Globalking1001</t>
+          <t>"Killer Bee"</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1874,24 +1874,24 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>4121</t>
+          <t>4019</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>32453</t>
+          <t>37691</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>58203298</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>权旨qua</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1901,24 +1901,24 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>4112</t>
+          <t>3992</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>33787</t>
+          <t>38520</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>58408326</t>
+          <t>1304123</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>"Killer Bee"</t>
+          <t>Cccccccccccc</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1928,24 +1928,24 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>4066</t>
+          <t>3975</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>35520</t>
+          <t>39379</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>56500325</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>haruharuyukizg9735</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1955,24 +1955,24 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>4006</t>
+          <t>3902</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>35753</t>
+          <t>44515</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>58203298</t>
+          <t>38561634</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>权旨qua</t>
+          <t>"Ambrose PT"</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1982,24 +1982,24 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>3998</t>
+          <t>3455</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>36985</t>
+          <t>45338</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1304123</t>
+          <t>52997727</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Cccccccccccc</t>
+          <t>larios</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2009,24 +2009,24 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>3987</t>
+          <t>3381</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>37510</t>
+          <t>47250</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>50837459</t>
+          <t>32316256</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>NINE日</t>
+          <t>"秋の風 .."</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2036,24 +2036,24 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>3967</t>
+          <t>3232</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>37691</t>
+          <t>47469</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>57813281</t>
+          <t>48634530</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>XAUEN</t>
+          <t>leezhenrui</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2063,24 +2063,24 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>3954</t>
+          <t>3217</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>38784</t>
+          <t>48680</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>55860890</t>
+          <t>38893233</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>㊥Ethan</t>
+          <t>"快乐 二哈"</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2090,24 +2090,24 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>3869</t>
+          <t>3129</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>40063</t>
+          <t>48792</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>56500325</t>
+          <t>59080634</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>haruharuyukizg9735</t>
+          <t>Chlove</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2117,24 +2117,24 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>3760</t>
+          <t>3122</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>43645</t>
+          <t>61117</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>38561634</t>
+          <t>1550355</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>"Ambrose PT"</t>
+          <t>"皓茵 世界"</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2144,186 +2144,186 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>3460</t>
+          <t>2627</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>44602</t>
+          <t>12520</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>52997727</t>
+          <t>31134300</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>larios</t>
+          <t>McMaX</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>3384</t>
+          <t>4990</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>46512</t>
+          <t>58138</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>32316256</t>
+          <t>43281368</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>"秋の風 .."</t>
+          <t>xhs2763</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>3235</t>
+          <t>2708</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>47604</t>
+          <t>67151</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>48634530</t>
+          <t>44378757</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>leezhenrui</t>
+          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>3156</t>
+          <t>2516</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>47953</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>59080634</t>
+          <t>48738257</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Chlove</t>
+          <t>死亡洲际跳蛋</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>3132</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>48711</t>
+          <t>23759</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>38893233</t>
+          <t>25479797</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>"快乐 二哈"</t>
+          <t>"Mohamed Alnaqbi"</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>3083</t>
+          <t>4479</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>60588</t>
+          <t>28534</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1550355</t>
+          <t>44708798</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>"皓茵 世界"</t>
+          <t>"㊥ mythgod"</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2627</t>
+          <t>4301</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>14590</t>
+          <t>47619</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>31134300</t>
+          <t>54588689</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>McMaX</t>
+          <t>㊥墨衍枫迹☜</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2333,24 +2333,24 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>4788</t>
+          <t>3204</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>57490</t>
+          <t>52629</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>43281368</t>
+          <t>28855852</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>xhs2763</t>
+          <t>tiger</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2360,24 +2360,24 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2711</t>
+          <t>2911</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>66659</t>
+          <t>24084</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>44378757</t>
+          <t>18082891</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2387,24 +2387,24 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2516</t>
+          <t>4466</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>32413</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>48738257</t>
+          <t>55499394</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>死亡洲际跳蛋</t>
+          <t>Player-55499394</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2414,24 +2414,24 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4163</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>21956</t>
+          <t>50237</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>25479797</t>
+          <t>56700848</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>"Mohamed Alnaqbi"</t>
+          <t>工口漫画老师</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2441,24 +2441,24 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>4484</t>
+          <t>3029</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>27181</t>
+          <t>50722</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>44708798</t>
+          <t>11645391</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>"㊥ mythgod"</t>
+          <t>"omar omar"</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2468,24 +2468,24 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>4288</t>
+          <t>3002</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>47248</t>
+          <t>50893</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>54588689</t>
+          <t>47430231</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>㊥墨衍枫迹☜</t>
+          <t>Kentantrino</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2495,24 +2495,24 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>3182</t>
+          <t>2993</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>52672</t>
+          <t>55354</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>28855852</t>
+          <t>52792063</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>tiger</t>
+          <t>"Tramaine Dowlen"</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2522,24 +2522,24 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2883</t>
+          <t>2800</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>21878</t>
+          <t>56374</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>18082891</t>
+          <t>9718882</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>小霸王2021</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2549,24 +2549,24 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>4487</t>
+          <t>2765</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>28255</t>
+          <t>56805</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>55499394</t>
+          <t>3391765</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Player-55499394</t>
+          <t>马er</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2576,24 +2576,24 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>4253</t>
+          <t>2751</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>49539</t>
+          <t>70573</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>56700848</t>
+          <t>15436348</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>工口漫画老师</t>
+          <t>Lucas</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2603,24 +2603,24 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>3031</t>
+          <t>2469</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>50134</t>
+          <t>99467</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>47430231</t>
+          <t>54941706</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Kentantrino</t>
+          <t>AlexMenjivar20</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2630,24 +2630,24 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>1573</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>50687</t>
+          <t>109964</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>11645391</t>
+          <t>57219176</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>"omar omar"</t>
+          <t>青莲道人</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2657,24 +2657,24 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2972</t>
+          <t>1474</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>54639</t>
+          <t>129199</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>52792063</t>
+          <t>49000199</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>"Tramaine Dowlen"</t>
+          <t>SlipperyForester5672</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2684,24 +2684,24 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2805</t>
+          <t>1209</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>55662</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>9718882</t>
+          <t>38994054</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>小霸王2021</t>
+          <t>chengnan</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2711,24 +2711,24 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2769</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>57246</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>3391765</t>
+          <t>55810157</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>马er</t>
+          <t>Beard</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2738,24 +2738,24 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2718</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>69934</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>15436348</t>
+          <t>57556179</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Lucas</t>
+          <t>特战新生代英雄</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2765,24 +2765,24 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2475</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>98467</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>54941706</t>
+          <t>1222440</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>AlexMenjivar20</t>
+          <t>"Sneaky Ninja Panda"</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2792,24 +2792,24 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>1573</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>108910</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>57219176</t>
+          <t>58340439</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>青莲道人</t>
+          <t>70qilin</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2819,24 +2819,24 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>1475</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>127480</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>49000199</t>
+          <t>20372140</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>SlipperyForester5672</t>
+          <t>人山即是仙</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2846,7 +2846,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>1209</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2858,12 +2858,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>38994054</t>
+          <t>58615925</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>chengnan</t>
+          <t>齐天的大圣</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2885,12 +2885,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>55810157</t>
+          <t>58641574</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Beard</t>
+          <t>Player-58641574鱼</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2912,12 +2912,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>57556179</t>
+          <t>58743790</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>特战新生代英雄</t>
+          <t>Ma</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2934,54 +2934,54 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>53711</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>1222440</t>
+          <t>41849539</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>"Sneaky Ninja Panda"</t>
+          <t>三号馆馆主</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2865</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>44193</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>58340439</t>
+          <t>56241637</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>70qilin</t>
+          <t>Jialong</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3480</t>
         </is>
       </c>
     </row>
@@ -2993,17 +2993,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>20372140</t>
+          <t>47622456</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>人山即是仙</t>
+          <t>伊恩</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -3015,27 +3015,27 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>56380</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>58615925</t>
+          <t>55210350</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>齐天的大圣</t>
+          <t>一个过客而已</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2765</t>
         </is>
       </c>
     </row>
@@ -3047,17 +3047,17 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>58641574</t>
+          <t>49553719</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Player-58641574鱼</t>
+          <t>"Oreo Captain Sir"</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -3069,44 +3069,44 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>83779</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>58743790</t>
+          <t>58379115</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Ma</t>
+          <t>Player-58379115</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2059</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>53778</t>
+          <t>86949</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>41849539</t>
+          <t>58671339</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>三号馆馆主</t>
+          <t>"quang pro"</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3116,24 +3116,24 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>2837</t>
+          <t>2000</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>43301</t>
+          <t>92443</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>56241637</t>
+          <t>59082827</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Player-14day</t>
+          <t>Player-59082827</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3143,24 +3143,24 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>3487</t>
+          <t>1735</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>97713</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>47622456</t>
+          <t>59106471</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>伊恩</t>
+          <t>anime</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3170,24 +3170,24 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1600</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>56098</t>
+          <t>114685</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>55210350</t>
+          <t>41231396</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>一个过客而已</t>
+          <t>ollsthebro</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3197,24 +3197,24 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>2755</t>
+          <t>1399</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>180671</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>49553719</t>
+          <t>55745105</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>"Oreo Captain Sir"</t>
+          <t>eldeniz</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3224,24 +3224,24 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>83057</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>58379115</t>
+          <t>58572199</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Player-58379115</t>
+          <t>你干嘛～哎呦～</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3251,24 +3251,24 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>2059</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>86331</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>58671339</t>
+          <t>58766144</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>"quang pro"</t>
+          <t>EquablePrecedence38</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3278,24 +3278,24 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>92091</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>59082827</t>
+          <t>29355299</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Player-59082827</t>
+          <t>Player-29355299</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3305,24 +3305,24 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>1719</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>96636</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>59106471</t>
+          <t>58910668</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>anime</t>
+          <t>BrittleAuthor33</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3332,24 +3332,24 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>1601</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>113438</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>41231396</t>
+          <t>58174442</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>ollsthebro</t>
+          <t>Player-58174442</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3359,24 +3359,24 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>1399</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>176768</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>55745105</t>
+          <t>59081265</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>eldeniz</t>
+          <t>爬楼梯</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3386,34 +3386,34 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>56593</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>58572199</t>
+          <t>41848598</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>你干嘛～哎呦～</t>
+          <t>国家一级保护沙雕</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2758</t>
         </is>
       </c>
     </row>
@@ -3425,17 +3425,17 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>58766144</t>
+          <t>12648101</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>EquablePrecedence38</t>
+          <t>"player 198827"</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -3452,17 +3452,17 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>29355299</t>
+          <t>9195340</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Player-29355299</t>
+          <t>Namllllllik</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -3479,17 +3479,17 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>58910668</t>
+          <t>15755724</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>BrittleAuthor33</t>
+          <t>"Last Good"</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -3506,17 +3506,17 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>58174442</t>
+          <t>8850180</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Player-58174442</t>
+          <t>30624300</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -3533,17 +3533,17 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>59081265</t>
+          <t>28624723</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>爬楼梯</t>
+          <t>"Woody Shade"</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -3555,17 +3555,17 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>57449</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>41848598</t>
+          <t>6010122</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>国家一级保护沙雕</t>
+          <t>"Edward Peng"</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3575,7 +3575,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>2712</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3587,12 +3587,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>12648101</t>
+          <t>9913517</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>"player 198827"</t>
+          <t>"Kenny Chan"</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3614,12 +3614,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>9195340</t>
+          <t>10636651</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Namllllllik</t>
+          <t>"Ismail Aflou"</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3628,168 +3628,6 @@
         </is>
       </c>
       <c r="E121" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>15755724</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>"Last Good"</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>8850180</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>30624300</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>28624723</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>"Woody Shade"</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>6010122</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>"Edward Peng"</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>9913517</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>"Kenny Chan"</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>10636651</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>"Ismail Aflou"</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/Season_Trophies/87.xlsx
+++ b/Season_Trophies/87.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E121"/>
+  <dimension ref="A1:E115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -396,7 +396,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>59769</t>
+          <t>58998</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -416,14 +416,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2661</t>
+          <t>2690</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>9514</t>
+          <t>7994</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -443,24 +443,24 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5170</t>
+          <t>5357</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2080</t>
+          <t>4192</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>46422609</t>
+          <t>21345373</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>㊥林天大大神</t>
+          <t>林北不講武德</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -470,24 +470,24 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5796</t>
+          <t>5695</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>6943</t>
+          <t>20108</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>43800641</t>
+          <t>37069173</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>㊥蛋蛋大</t>
+          <t>詹toniii</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -497,24 +497,24 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5335</t>
+          <t>4672</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>25023</t>
+          <t>21233</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>21665473</t>
+          <t>12333251</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>"Dog Gamedesiger"</t>
+          <t>"㊌ Mingxuan"</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -524,24 +524,24 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4429</t>
+          <t>4623</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1499</t>
+          <t>27460</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>27468237</t>
+          <t>45967307</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>佛系复仇者秀川</t>
+          <t>Ricky</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -551,24 +551,24 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5884</t>
+          <t>4372</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2913</t>
+          <t>40341</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>21345373</t>
+          <t>55634661</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>林北不講武德</t>
+          <t>Opalus</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -578,24 +578,24 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5695</t>
+          <t>3862</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20968</t>
+          <t>45505</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>12333251</t>
+          <t>20737010</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>"㊌ Mingxuan"</t>
+          <t>混着玩...</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -605,24 +605,24 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4586</t>
+          <t>3402</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>23541</t>
+          <t>46090</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>37069173</t>
+          <t>7587898</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>詹toniii</t>
+          <t>藍精靈ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -632,24 +632,24 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4487</t>
+          <t>3349</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>26562</t>
+          <t>54837</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>45967307</t>
+          <t>59095922</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Ricky</t>
+          <t>xxxx7</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -659,24 +659,24 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4372</t>
+          <t>2831</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>40018</t>
+          <t>66468</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>55634661</t>
+          <t>6510348</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Opalus</t>
+          <t>Bonpoisson</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -686,24 +686,24 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3847</t>
+          <t>2529</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>45095</t>
+          <t>68448</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>20737010</t>
+          <t>47928278</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>混着玩...</t>
+          <t>"落日幻影 哈哈哈"</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -713,24 +713,24 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3402</t>
+          <t>2500</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>45709</t>
+          <t>73987</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>7587898</t>
+          <t>59093405</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>藍精靈ᶻᵍˣ</t>
+          <t>永恒不朽6</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -740,24 +740,24 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3349</t>
+          <t>2306</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>54842</t>
+          <t>92131</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>59095922</t>
+          <t>59100545</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>xxxx7</t>
+          <t>"black dragon"</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -767,24 +767,24 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2819</t>
+          <t>1760</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>61786</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>23687250</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>春田花花幼稚园</t>
+          <t>"jetlijp ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -794,159 +794,159 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2611</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>66219</t>
+          <t>13420</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>6510348</t>
+          <t>37861953</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Bonpoisson</t>
+          <t>"Durex ๑• . •๑"</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2529</t>
+          <t>5004</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>73712</t>
+          <t>14819</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>59093405</t>
+          <t>53520939</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>永恒不朽6</t>
+          <t>㊥虎哥tiger</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2306</t>
+          <t>4922</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>91832</t>
+          <t>18758</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>59100545</t>
+          <t>38809086</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>"black dragon"</t>
+          <t>Kouenᶻᵍˣ</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1760</t>
+          <t>4732</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>23056</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>23687250</t>
+          <t>47146736</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>"jetlijp ᶻᵍˣ"</t>
+          <t>"HK 品瑜"</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4543</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>10972</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>47928278</t>
+          <t>53060417</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>"落日幻影 哈哈哈"</t>
+          <t>㊥老纳信耶稣</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5157</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>11716</t>
+          <t>12266</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>37861953</t>
+          <t>49710892</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>"Durex ๑• . •๑"</t>
+          <t>MMMMMMM</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -956,24 +956,24 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>5037</t>
+          <t>5077</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>15243</t>
+          <t>17117</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>53520939</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>㊥虎哥tiger</t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -983,24 +983,24 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4846</t>
+          <t>4809</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>17540</t>
+          <t>17284</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>38809086</t>
+          <t>54698813</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Kouenᶻᵍˣ</t>
+          <t>閃亮唐老鴨</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1010,24 +1010,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4736</t>
+          <t>4801</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>21887</t>
+          <t>17350</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>47146736</t>
+          <t>8057001</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>"HK 品瑜"</t>
+          <t>㊥兵者诡道也</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>4549</t>
+          <t>4798</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>12284</t>
+          <t>17969</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>49710892</t>
+          <t>4756174</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>MMMMMMM</t>
+          <t>純希です</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1064,24 +1064,24 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>5003</t>
+          <t>4769</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>14681</t>
+          <t>27147</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>53060417</t>
+          <t>55769051</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>㊥老纳信耶稣</t>
+          <t>㊥叮叮当.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1091,24 +1091,24 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4874</t>
+          <t>4383</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>15255</t>
+          <t>4948</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>8057001</t>
+          <t>4493731</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>㊥兵者诡道也</t>
+          <t>Player-1527362</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1118,24 +1118,24 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>4845</t>
+          <t>5615</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>15775</t>
+          <t>8306</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>54698813</t>
+          <t>7852598</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>閃亮唐老鴨</t>
+          <t>seiji</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1145,24 +1145,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>4820</t>
+          <t>5334</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>16105</t>
+          <t>9151</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>47131129</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t>NAM</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1172,24 +1172,24 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>4805</t>
+          <t>5279</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>16294</t>
+          <t>11086</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>4756174</t>
+          <t>11582001</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>純希です</t>
+          <t>iMinatoX4</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1199,24 +1199,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>4796</t>
+          <t>5150</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>26240</t>
+          <t>13648</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>55769051</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>㊥叮叮当.</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1226,24 +1226,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>4383</t>
+          <t>4990</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>3365</t>
+          <t>18226</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>4493731</t>
+          <t>38995116</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Player-1527362</t>
+          <t>"Ramesh Pavai Nam"</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>5645</t>
+          <t>4756</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>7871</t>
+          <t>18589</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>7852598</t>
+          <t>6809364</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>seiji</t>
+          <t>"Scorp IP"</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1280,24 +1280,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>5275</t>
+          <t>4739</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>9847</t>
+          <t>19187</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>47131129</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1307,24 +1307,24 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>5149</t>
+          <t>4713</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>10506</t>
+          <t>20158</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>11582001</t>
+          <t>55317038</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>iMinatoX4</t>
+          <t>necman12345</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1334,24 +1334,24 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>5109</t>
+          <t>4669</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>16682</t>
+          <t>20583</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1361,24 +1361,24 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>4776</t>
+          <t>4650</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>17362</t>
+          <t>21724</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>6809364</t>
+          <t>54778421</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>"Scorp IP"</t>
+          <t>Emma</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1388,24 +1388,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4744</t>
+          <t>4600</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>18753</t>
+          <t>26391</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>31401481</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>Player-31401481</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1415,24 +1415,24 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>4681</t>
+          <t>4413</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>18569</t>
+          <t>27545</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>55317038</t>
+          <t>47459684</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>necman12345</t>
+          <t>㊥阿闹切克闹</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1442,24 +1442,24 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4689</t>
+          <t>4369</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>19997</t>
+          <t>29915</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>54778421</t>
+          <t>3649043</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Emma</t>
+          <t>Dj6106</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1469,24 +1469,24 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>4627</t>
+          <t>4281</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>21894</t>
+          <t>30469</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>38995116</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>"Ramesh Pavai Nam"</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1496,24 +1496,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>4549</t>
+          <t>4261</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>22149</t>
+          <t>31758</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>55860890</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>㊥Ethan</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1523,24 +1523,24 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>4539</t>
+          <t>4213</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>26824</t>
+          <t>32449</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>31401481</t>
+          <t>24733875</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Player-31401481</t>
+          <t>龍少</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1550,24 +1550,24 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>4361</t>
+          <t>4189</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>26279</t>
+          <t>32881</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>47459684</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>㊥阿闹切克闹</t>
+          <t>Globalking1001</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1577,24 +1577,24 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>4382</t>
+          <t>4172</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>28682</t>
+          <t>33107</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>3649043</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Dj6106</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1604,24 +1604,24 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>4295</t>
+          <t>4164</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>30356</t>
+          <t>31924</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>55860890</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>㊥Ethan</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1631,24 +1631,24 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>4235</t>
+          <t>4208</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>31267</t>
+          <t>35480</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>58839983</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>每逢佳节胖六斤</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1658,24 +1658,24 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>4202</t>
+          <t>4077</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>31666</t>
+          <t>36546</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>24733875</t>
+          <t>50837459</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>龍少</t>
+          <t>NINE日</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1685,24 +1685,24 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>4189</t>
+          <t>4035</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>32439</t>
+          <t>36718</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>58408326</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>"Killer Bee"</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1712,24 +1712,24 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>4162</t>
+          <t>4029</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>34098</t>
+          <t>37163</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>58839983</t>
+          <t>57813281</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>每逢佳节胖六斤</t>
+          <t>XAUEN</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1739,24 +1739,24 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>4102</t>
+          <t>4013</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>34454</t>
+          <t>38445</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>1304123</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Globalking1001</t>
+          <t>Cccccccccccc</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1766,24 +1766,24 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>4089</t>
+          <t>3991</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>34667</t>
+          <t>38471</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>50837459</t>
+          <t>58203298</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>NINE日</t>
+          <t>权旨qua</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1793,24 +1793,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>4082</t>
+          <t>3990</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>34854</t>
+          <t>39809</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>57813281</t>
+          <t>56500325</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>XAUEN</t>
+          <t>haruharuyukizg9735</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1820,24 +1820,24 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>4075</t>
+          <t>3910</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>35561</t>
+          <t>44921</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>38561634</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>"Ambrose PT"</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1847,24 +1847,24 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>4049</t>
+          <t>3453</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>36383</t>
+          <t>45275</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>58408326</t>
+          <t>52997727</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>"Killer Bee"</t>
+          <t>larios</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1874,24 +1874,24 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>4019</t>
+          <t>3422</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>37691</t>
+          <t>47398</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>58203298</t>
+          <t>48634530</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>权旨qua</t>
+          <t>leezhenrui</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1901,24 +1901,24 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>3992</t>
+          <t>3249</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>38520</t>
+          <t>47608</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1304123</t>
+          <t>32316256</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Cccccccccccc</t>
+          <t>"秋の風 .."</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1928,24 +1928,24 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>3975</t>
+          <t>3231</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>39379</t>
+          <t>48693</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>56500325</t>
+          <t>59080634</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>haruharuyukizg9735</t>
+          <t>Chlove</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1955,24 +1955,24 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>3902</t>
+          <t>3150</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>44515</t>
+          <t>49048</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>38561634</t>
+          <t>38893233</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>"Ambrose PT"</t>
+          <t>"快乐 二哈"</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1982,24 +1982,24 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>3455</t>
+          <t>3128</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>45338</t>
+          <t>61378</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>52997727</t>
+          <t>1550355</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>larios</t>
+          <t>"皓茵 世界"</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2009,159 +2009,159 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>3381</t>
+          <t>2627</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>47250</t>
+          <t>13909</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>32316256</t>
+          <t>31134300</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>"秋の風 .."</t>
+          <t>McMaX</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>3232</t>
+          <t>4976</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>47469</t>
+          <t>58441</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>48634530</t>
+          <t>43281368</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>leezhenrui</t>
+          <t>xhs2763</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>3217</t>
+          <t>2707</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>48680</t>
+          <t>67368</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>38893233</t>
+          <t>44378757</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>"快乐 二哈"</t>
+          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>3129</t>
+          <t>2516</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>48792</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>59080634</t>
+          <t>48738257</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Chlove</t>
+          <t>死亡洲际跳蛋</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>3122</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>61117</t>
+          <t>24779</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1550355</t>
+          <t>25479797</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>"皓茵 世界"</t>
+          <t>"Mohamed Alnaqbi"</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2627</t>
+          <t>4477</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>12520</t>
+          <t>29076</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>31134300</t>
+          <t>44708798</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>McMaX</t>
+          <t>"㊥ mythgod"</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2171,24 +2171,24 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>4990</t>
+          <t>4311</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>58138</t>
+          <t>47967</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>43281368</t>
+          <t>54588689</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>xhs2763</t>
+          <t>㊥墨衍枫迹☜</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2198,24 +2198,24 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2708</t>
+          <t>3204</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>67151</t>
+          <t>52952</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>44378757</t>
+          <t>28855852</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
+          <t>tiger</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2225,24 +2225,24 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2516</t>
+          <t>2910</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>23214</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>48738257</t>
+          <t>18082891</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>死亡洲际跳蛋</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2252,24 +2252,24 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4537</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>23759</t>
+          <t>33997</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>25479797</t>
+          <t>55499394</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>"Mohamed Alnaqbi"</t>
+          <t>Player-55499394</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2279,24 +2279,24 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>4479</t>
+          <t>4132</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>28534</t>
+          <t>50335</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>44708798</t>
+          <t>56700848</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>"㊥ mythgod"</t>
+          <t>工口漫画老师</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2306,24 +2306,24 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>4301</t>
+          <t>3043</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>47619</t>
+          <t>50503</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>54588689</t>
+          <t>11645391</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>㊥墨衍枫迹☜</t>
+          <t>"omar omar"</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2333,24 +2333,24 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>3204</t>
+          <t>3032</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>52629</t>
+          <t>51264</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>28855852</t>
+          <t>47430231</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>tiger</t>
+          <t>Kentantrino</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2360,24 +2360,24 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2911</t>
+          <t>2991</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>24084</t>
+          <t>56703</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>18082891</t>
+          <t>9718882</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>小霸王2021</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2387,24 +2387,24 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>4466</t>
+          <t>2764</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>32413</t>
+          <t>57131</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>55499394</t>
+          <t>3391765</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Player-55499394</t>
+          <t>马er</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2414,24 +2414,24 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>4163</t>
+          <t>2750</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>50237</t>
+          <t>70950</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>56700848</t>
+          <t>15436348</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>工口漫画老师</t>
+          <t>Lucas</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2441,24 +2441,24 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>3029</t>
+          <t>2464</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>50722</t>
+          <t>99828</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>11645391</t>
+          <t>54941706</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>"omar omar"</t>
+          <t>AlexMenjivar20</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2468,24 +2468,24 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>3002</t>
+          <t>1573</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>50893</t>
+          <t>110419</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>47430231</t>
+          <t>57219176</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Kentantrino</t>
+          <t>青莲道人</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2495,24 +2495,24 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2993</t>
+          <t>1473</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>55354</t>
+          <t>129954</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>52792063</t>
+          <t>49000199</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>"Tramaine Dowlen"</t>
+          <t>SlipperyForester5672</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2522,24 +2522,24 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2800</t>
+          <t>1207</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>56374</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>9718882</t>
+          <t>38994054</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>小霸王2021</t>
+          <t>chengnan</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2549,24 +2549,24 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2765</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>56805</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>3391765</t>
+          <t>55810157</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>马er</t>
+          <t>Beard</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2576,24 +2576,24 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2751</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>70573</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>15436348</t>
+          <t>57556179</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Lucas</t>
+          <t>特战新生代英雄</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2603,24 +2603,24 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2469</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>99467</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>54941706</t>
+          <t>1222440</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>AlexMenjivar20</t>
+          <t>"Sneaky Ninja Panda"</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2630,24 +2630,24 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>1573</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>109964</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>57219176</t>
+          <t>58340439</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>青莲道人</t>
+          <t>70qilin</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2657,24 +2657,24 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>1474</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>129199</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>49000199</t>
+          <t>20372140</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>SlipperyForester5672</t>
+          <t>人山即是仙</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2684,7 +2684,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>1209</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2696,12 +2696,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>38994054</t>
+          <t>58615925</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>chengnan</t>
+          <t>齐天的大圣</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2723,12 +2723,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>55810157</t>
+          <t>58641574</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Beard</t>
+          <t>Player-58641574鱼</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2750,12 +2750,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>57556179</t>
+          <t>58743790</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>特战新生代英雄</t>
+          <t>Ma</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2772,54 +2772,54 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>53377</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>1222440</t>
+          <t>41849539</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>"Sneaky Ninja Panda"</t>
+          <t>三号馆馆主</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2893</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>44668</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>58340439</t>
+          <t>56241637</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>70qilin</t>
+          <t>Jialong</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3474</t>
         </is>
       </c>
     </row>
@@ -2831,17 +2831,17 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>20372140</t>
+          <t>47622456</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>人山即是仙</t>
+          <t>伊恩</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -2853,27 +2853,27 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>56771</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>58615925</t>
+          <t>55210350</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>齐天的大圣</t>
+          <t>一个过客而已</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2762</t>
         </is>
       </c>
     </row>
@@ -2885,17 +2885,17 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>58641574</t>
+          <t>49553719</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Player-58641574鱼</t>
+          <t>"Oreo Captain Sir"</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -2907,44 +2907,44 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>84088</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>58743790</t>
+          <t>58379115</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Ma</t>
+          <t>Player-58379115</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2059</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>53711</t>
+          <t>87234</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>41849539</t>
+          <t>58671339</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>三号馆馆主</t>
+          <t>"quang pro"</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2954,24 +2954,24 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>2865</t>
+          <t>2000</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>44193</t>
+          <t>92755</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>56241637</t>
+          <t>59082827</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Jialong</t>
+          <t>Player-59082827</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2981,24 +2981,24 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>3480</t>
+          <t>1735</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>98084</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>47622456</t>
+          <t>59106471</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>伊恩</t>
+          <t>anime</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3008,24 +3008,24 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1600</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>56380</t>
+          <t>115111</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>55210350</t>
+          <t>41231396</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>一个过客而已</t>
+          <t>ollsthebro</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3035,24 +3035,24 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>2765</t>
+          <t>1399</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>181942</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>49553719</t>
+          <t>55745105</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>"Oreo Captain Sir"</t>
+          <t>eldeniz</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3062,24 +3062,24 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>83779</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>58379115</t>
+          <t>58572199</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Player-58379115</t>
+          <t>你干嘛～哎呦～</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3089,24 +3089,24 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>2059</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>86949</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>58671339</t>
+          <t>58766144</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>"quang pro"</t>
+          <t>EquablePrecedence38</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3116,24 +3116,24 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>92443</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>59082827</t>
+          <t>29355299</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Player-59082827</t>
+          <t>Player-29355299</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3143,24 +3143,24 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>1735</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>97713</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>59106471</t>
+          <t>58910668</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>anime</t>
+          <t>BrittleAuthor33</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3170,24 +3170,24 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>1600</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>114685</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>41231396</t>
+          <t>58174442</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>ollsthebro</t>
+          <t>Player-58174442</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3197,24 +3197,24 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>1399</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>180671</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>55745105</t>
+          <t>59081265</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>eldeniz</t>
+          <t>爬楼梯</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3224,34 +3224,34 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>55266</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>58572199</t>
+          <t>41848598</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>你干嘛～哎呦～</t>
+          <t>国家一级保护沙雕</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2815</t>
         </is>
       </c>
     </row>
@@ -3263,17 +3263,17 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>58766144</t>
+          <t>12648101</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>EquablePrecedence38</t>
+          <t>"player 198827"</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -3290,17 +3290,17 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>29355299</t>
+          <t>9195340</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Player-29355299</t>
+          <t>Namllllllik</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -3317,17 +3317,17 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>58910668</t>
+          <t>15755724</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>BrittleAuthor33</t>
+          <t>"Last Good"</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -3344,17 +3344,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>58174442</t>
+          <t>8850180</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Player-58174442</t>
+          <t>30624300</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -3371,17 +3371,17 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>59081265</t>
+          <t>28624723</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>爬楼梯</t>
+          <t>"Woody Shade"</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -3393,17 +3393,17 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>56593</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>41848598</t>
+          <t>6010122</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>国家一级保护沙雕</t>
+          <t>"Edward Peng"</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3413,7 +3413,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>2758</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3425,12 +3425,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>12648101</t>
+          <t>9913517</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>"player 198827"</t>
+          <t>"Kenny Chan"</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3452,12 +3452,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>9195340</t>
+          <t>10636651</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Namllllllik</t>
+          <t>"Ismail Aflou"</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3466,168 +3466,6 @@
         </is>
       </c>
       <c r="E115" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>15755724</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>"Last Good"</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>8850180</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>30624300</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>28624723</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>"Woody Shade"</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>6010122</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>"Edward Peng"</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>9913517</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>"Kenny Chan"</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>10636651</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>"Ismail Aflou"</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/Season_Trophies/87.xlsx
+++ b/Season_Trophies/87.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E115"/>
+  <dimension ref="A1:E114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -396,7 +396,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>58998</t>
+          <t>59162</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -416,14 +416,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2690</t>
+          <t>2716</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>7994</t>
+          <t>8413</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -443,24 +443,24 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5357</t>
+          <t>5541</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4192</t>
+          <t>22100</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>21345373</t>
+          <t>37069173</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>林北不講武德</t>
+          <t>詹toniii</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -470,24 +470,24 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5695</t>
+          <t>4719</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20108</t>
+          <t>30439</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>37069173</t>
+          <t>45967307</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>詹toniii</t>
+          <t>Ricky</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -497,24 +497,24 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4672</t>
+          <t>4372</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>21233</t>
+          <t>40768</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>12333251</t>
+          <t>55634661</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>"㊌ Mingxuan"</t>
+          <t>Opalus</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -524,24 +524,24 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4623</t>
+          <t>3976</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>27460</t>
+          <t>46733</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>45967307</t>
+          <t>20737010</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Ricky</t>
+          <t>混着玩...</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -551,24 +551,24 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4372</t>
+          <t>3402</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>40341</t>
+          <t>47336</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>55634661</t>
+          <t>7587898</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Opalus</t>
+          <t>藍精靈ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -578,24 +578,24 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3862</t>
+          <t>3349</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>45505</t>
+          <t>56014</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>20737010</t>
+          <t>59095922</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>混着玩...</t>
+          <t>xxxx7</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -605,24 +605,24 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3402</t>
+          <t>2826</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>46090</t>
+          <t>67199</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>7587898</t>
+          <t>47928278</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>藍精靈ᶻᵍˣ</t>
+          <t>"落日幻影 哈哈哈"</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -632,24 +632,24 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3349</t>
+          <t>2531</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>54837</t>
+          <t>67304</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>59095922</t>
+          <t>6510348</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>xxxx7</t>
+          <t>Bonpoisson</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -659,24 +659,24 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2831</t>
+          <t>2529</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>66468</t>
+          <t>75053</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>6510348</t>
+          <t>59093405</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Bonpoisson</t>
+          <t>永恒不朽6</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -686,24 +686,24 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2529</t>
+          <t>2306</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>68448</t>
+          <t>93484</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>47928278</t>
+          <t>59100545</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>"落日幻影 哈哈哈"</t>
+          <t>"black dragon"</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -713,24 +713,24 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>1759</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>73987</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>59093405</t>
+          <t>23687250</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>永恒不朽6</t>
+          <t>"jetlijp ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -740,78 +740,78 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2306</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>92131</t>
+          <t>13457</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>59100545</t>
+          <t>37861953</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>"black dragon"</t>
+          <t>"Durex ๑• . •๑"</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1760</t>
+          <t>5179</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>13825</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>23687250</t>
+          <t>53520939</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>"jetlijp ᶻᵍˣ"</t>
+          <t>㊥虎哥tiger</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5154</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>13420</t>
+          <t>17949</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>37861953</t>
+          <t>47146736</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>"Durex ๑• . •๑"</t>
+          <t>"HK 品瑜"</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -821,24 +821,24 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>5004</t>
+          <t>4922</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>14819</t>
+          <t>19919</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>53520939</t>
+          <t>38809086</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>㊥虎哥tiger</t>
+          <t>Kouenᶻᵍˣ</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -848,24 +848,24 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4922</t>
+          <t>4825</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>18758</t>
+          <t>10987</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>38809086</t>
+          <t>53060417</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Kouenᶻᵍˣ</t>
+          <t>㊥老纳信耶稣</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -875,24 +875,24 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4732</t>
+          <t>5350</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>23056</t>
+          <t>11691</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>47146736</t>
+          <t>49710892</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>"HK 品瑜"</t>
+          <t>MMMMMMM</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -902,24 +902,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4543</t>
+          <t>5301</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>10972</t>
+          <t>16364</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>53060417</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>㊥老纳信耶稣</t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -929,24 +929,24 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>5157</t>
+          <t>5004</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>12266</t>
+          <t>16589</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>49710892</t>
+          <t>8057001</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>MMMMMMM</t>
+          <t>㊥兵者诡道也</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -956,24 +956,24 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>5077</t>
+          <t>4993</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>17117</t>
+          <t>17869</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>54698813</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t>閃亮唐老鴨</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -983,24 +983,24 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4809</t>
+          <t>4927</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>17284</t>
+          <t>18291</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>54698813</t>
+          <t>4756174</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>閃亮唐老鴨</t>
+          <t>純希です</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1010,24 +1010,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4801</t>
+          <t>4906</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>17350</t>
+          <t>24724</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>8057001</t>
+          <t>55769051</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>㊥兵者诡道也</t>
+          <t>㊥叮叮当.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>4798</t>
+          <t>4600</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>17969</t>
+          <t>5523</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4756174</t>
+          <t>4493731</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>純希です</t>
+          <t>Player-1527362</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1064,24 +1064,24 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4769</t>
+          <t>5802</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>27147</t>
+          <t>7581</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>55769051</t>
+          <t>7852598</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>㊥叮叮当.</t>
+          <t>seiji</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1091,24 +1091,24 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4383</t>
+          <t>5606</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>4948</t>
+          <t>8879</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4493731</t>
+          <t>47131129</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Player-1527362</t>
+          <t>NAM</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1118,24 +1118,24 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>5615</t>
+          <t>5505</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>8306</t>
+          <t>11029</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>7852598</t>
+          <t>11582001</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>seiji</t>
+          <t>iMinatoX4</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1145,24 +1145,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>5334</t>
+          <t>5348</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>9151</t>
+          <t>15330</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>47131129</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1172,24 +1172,24 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>5279</t>
+          <t>5060</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>11086</t>
+          <t>18397</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>11582001</t>
+          <t>6809364</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>iMinatoX4</t>
+          <t>"Scorp IP"</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1199,24 +1199,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>5150</t>
+          <t>4901</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>13648</t>
+          <t>18474</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>12333251</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>"㊌ Mingxuan"</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1226,14 +1226,14 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>4990</t>
+          <t>4897</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>18226</t>
+          <t>19182</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4756</t>
+          <t>4860</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>18589</t>
+          <t>19221</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>6809364</t>
+          <t>55317038</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>"Scorp IP"</t>
+          <t>necman12345</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1280,24 +1280,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4739</t>
+          <t>4858</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>19187</t>
+          <t>20334</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1307,24 +1307,24 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4713</t>
+          <t>4805</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>20158</t>
+          <t>21261</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>55317038</t>
+          <t>54778421</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>necman12345</t>
+          <t>Emma</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1334,24 +1334,24 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4669</t>
+          <t>4761</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>20583</t>
+          <t>22893</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1361,24 +1361,24 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>4650</t>
+          <t>4681</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>21724</t>
+          <t>26045</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>54778421</t>
+          <t>31401481</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Emma</t>
+          <t>Player-31401481</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1388,24 +1388,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4600</t>
+          <t>4547</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>26391</t>
+          <t>27910</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>31401481</t>
+          <t>55860890</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Player-31401481</t>
+          <t>㊥Ethan</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1415,14 +1415,14 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>4413</t>
+          <t>4475</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>27545</t>
+          <t>30188</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1442,14 +1442,14 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4369</t>
+          <t>4383</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>29915</t>
+          <t>31454</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1469,14 +1469,14 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>4281</t>
+          <t>4331</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>30469</t>
+          <t>32185</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1496,24 +1496,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>4261</t>
+          <t>4300</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>31758</t>
+          <t>32074</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>55860890</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>㊥Ethan</t>
+          <t>Globalking1001</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1523,24 +1523,24 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>4213</t>
+          <t>4305</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>32449</t>
+          <t>33884</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>24733875</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>龍少</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1550,24 +1550,24 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>4189</t>
+          <t>4231</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>32881</t>
+          <t>34144</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Globalking1001</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1577,24 +1577,24 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>4172</t>
+          <t>4221</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>33107</t>
+          <t>34341</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>58839983</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>每逢佳节胖六斤</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1604,24 +1604,24 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>4164</t>
+          <t>4214</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>31924</t>
+          <t>34990</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>24733875</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>龍少</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1631,24 +1631,24 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>4208</t>
+          <t>4189</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>35480</t>
+          <t>37212</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>58839983</t>
+          <t>58408326</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>每逢佳节胖六斤</t>
+          <t>"Killer Bee"</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1658,24 +1658,24 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>4077</t>
+          <t>4099</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>36546</t>
+          <t>37792</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>50837459</t>
+          <t>1304123</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>NINE日</t>
+          <t>Cccccccccccc</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1685,24 +1685,24 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>4035</t>
+          <t>4076</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>36718</t>
+          <t>38420</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>58408326</t>
+          <t>57813281</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>"Killer Bee"</t>
+          <t>XAUEN</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1712,24 +1712,24 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>4029</t>
+          <t>4051</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>37163</t>
+          <t>38722</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>57813281</t>
+          <t>50837459</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>XAUEN</t>
+          <t>NINE日</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1739,24 +1739,24 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>4013</t>
+          <t>4037</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>38445</t>
+          <t>39555</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1304123</t>
+          <t>56500325</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Cccccccccccc</t>
+          <t>haruharuyukizg9735</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1766,14 +1766,14 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>3991</t>
+          <t>4002</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>38471</t>
+          <t>40453</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1793,24 +1793,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>3990</t>
+          <t>3988</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>39809</t>
+          <t>45134</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>56500325</t>
+          <t>38561634</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>haruharuyukizg9735</t>
+          <t>"Ambrose PT"</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1820,24 +1820,24 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>3910</t>
+          <t>3552</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>44921</t>
+          <t>45691</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>38561634</t>
+          <t>52997727</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>"Ambrose PT"</t>
+          <t>larios</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1847,24 +1847,24 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>3453</t>
+          <t>3501</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>45275</t>
+          <t>47877</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>52997727</t>
+          <t>48634530</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>larios</t>
+          <t>leezhenrui</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1874,24 +1874,24 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>3422</t>
+          <t>3303</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>47398</t>
+          <t>48006</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>48634530</t>
+          <t>32316256</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>leezhenrui</t>
+          <t>"秋の風 .."</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1901,24 +1901,24 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>3249</t>
+          <t>3291</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>47608</t>
+          <t>48794</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>32316256</t>
+          <t>38893233</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>"秋の風 .."</t>
+          <t>"快乐 二哈"</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1928,14 +1928,14 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>3231</t>
+          <t>3230</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>48693</t>
+          <t>48800</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1955,24 +1955,24 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>3150</t>
+          <t>3229</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>49048</t>
+          <t>62307</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>38893233</t>
+          <t>1550355</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>"快乐 二哈"</t>
+          <t>"皓茵 世界"</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1982,51 +1982,51 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>3128</t>
+          <t>2627</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>61378</t>
+          <t>14635</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1550355</t>
+          <t>31134300</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>"皓茵 世界"</t>
+          <t>McMaX</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2627</t>
+          <t>5103</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>13909</t>
+          <t>59040</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>31134300</t>
+          <t>43281368</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>McMaX</t>
+          <t>xhs2763</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2036,24 +2036,24 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>4976</t>
+          <t>2720</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>58441</t>
+          <t>68199</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>43281368</t>
+          <t>44378757</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>xhs2763</t>
+          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2063,24 +2063,24 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2707</t>
+          <t>2516</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>67368</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>44378757</t>
+          <t>48738257</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
+          <t>死亡洲际跳蛋</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2090,24 +2090,24 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2516</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>26678</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>48738257</t>
+          <t>25479797</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>死亡洲际跳蛋</t>
+          <t>"Mohamed Alnaqbi"</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2117,24 +2117,24 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4523</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>24779</t>
+          <t>30306</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>25479797</t>
+          <t>44708798</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>"Mohamed Alnaqbi"</t>
+          <t>"㊥ mythgod"</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2144,24 +2144,24 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>4477</t>
+          <t>4378</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>29076</t>
+          <t>48826</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>44708798</t>
+          <t>54588689</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>"㊥ mythgod"</t>
+          <t>㊥墨衍枫迹☜</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2171,24 +2171,24 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>4311</t>
+          <t>3227</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>47967</t>
+          <t>53706</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>54588689</t>
+          <t>28855852</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>㊥墨衍枫迹☜</t>
+          <t>tiger</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2198,24 +2198,24 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>3204</t>
+          <t>2922</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>52952</t>
+          <t>23003</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>28855852</t>
+          <t>18082891</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>tiger</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2225,24 +2225,24 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2910</t>
+          <t>4677</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>23214</t>
+          <t>35126</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>18082891</t>
+          <t>55499394</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Player-55499394</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2252,24 +2252,24 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>4537</t>
+          <t>4183</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>33997</t>
+          <t>49861</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>55499394</t>
+          <t>56700848</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Player-55499394</t>
+          <t>工口漫画老师</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2279,24 +2279,24 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>4132</t>
+          <t>3149</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>50335</t>
+          <t>51575</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>56700848</t>
+          <t>11645391</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>工口漫画老师</t>
+          <t>"omar omar"</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2306,24 +2306,24 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>3043</t>
+          <t>3032</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>50503</t>
+          <t>51873</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>11645391</t>
+          <t>47430231</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>"omar omar"</t>
+          <t>Kentantrino</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2333,24 +2333,24 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>3032</t>
+          <t>3016</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>51264</t>
+          <t>55963</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>47430231</t>
+          <t>3391765</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Kentantrino</t>
+          <t>马er</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2360,14 +2360,14 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2991</t>
+          <t>2829</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>56703</t>
+          <t>57991</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2387,24 +2387,24 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2764</t>
+          <t>2754</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>57131</t>
+          <t>71967</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>3391765</t>
+          <t>15436348</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>马er</t>
+          <t>Lucas</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2414,24 +2414,24 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2453</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>70950</t>
+          <t>99737</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>15436348</t>
+          <t>54941706</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Lucas</t>
+          <t>AlexMenjivar20</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2441,24 +2441,24 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2464</t>
+          <t>1601</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>99828</t>
+          <t>112434</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>54941706</t>
+          <t>57219176</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>AlexMenjivar20</t>
+          <t>青莲道人</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2468,24 +2468,24 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>1573</t>
+          <t>1469</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>110419</t>
+          <t>132817</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>57219176</t>
+          <t>49000199</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>青莲道人</t>
+          <t>SlipperyForester5672</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2495,24 +2495,24 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>1473</t>
+          <t>1205</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>129954</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>49000199</t>
+          <t>38994054</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>SlipperyForester5672</t>
+          <t>chengnan</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2522,7 +2522,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>1207</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2534,12 +2534,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>38994054</t>
+          <t>55810157</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>chengnan</t>
+          <t>Beard</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2561,12 +2561,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>55810157</t>
+          <t>57556179</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Beard</t>
+          <t>特战新生代英雄</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2588,12 +2588,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>57556179</t>
+          <t>1222440</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>特战新生代英雄</t>
+          <t>"Sneaky Ninja Panda"</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2615,12 +2615,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>1222440</t>
+          <t>58340439</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>"Sneaky Ninja Panda"</t>
+          <t>70qilin</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2642,12 +2642,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>58340439</t>
+          <t>20372140</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>70qilin</t>
+          <t>人山即是仙</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2669,12 +2669,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>20372140</t>
+          <t>58615925</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>人山即是仙</t>
+          <t>齐天的大圣</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2696,12 +2696,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>58615925</t>
+          <t>58641574</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>齐天的大圣</t>
+          <t>Player-58641574鱼</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2723,12 +2723,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>58641574</t>
+          <t>58743790</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Player-58641574鱼</t>
+          <t>Ma</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2745,44 +2745,44 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>53094</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>58743790</t>
+          <t>41849539</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Ma</t>
+          <t>三号馆馆主</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2952</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>53377</t>
+          <t>42618</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>41849539</t>
+          <t>56241637</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>三号馆馆主</t>
+          <t>Player-14day</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2792,24 +2792,24 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2893</t>
+          <t>3792</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>44668</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>56241637</t>
+          <t>47622456</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Jialong</t>
+          <t>伊恩</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2819,24 +2819,24 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>3474</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>54095</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>47622456</t>
+          <t>55210350</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>伊恩</t>
+          <t>一个过客而已</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2846,24 +2846,24 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2906</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>56771</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>55210350</t>
+          <t>49553719</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>一个过客而已</t>
+          <t>"Oreo Captain Sir"</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2873,24 +2873,24 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2762</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>88392</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>49553719</t>
+          <t>58671339</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>"Oreo Captain Sir"</t>
+          <t>"quang pro"</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2900,24 +2900,24 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2000</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>84088</t>
+          <t>93700</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>58379115</t>
+          <t>59082827</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Player-58379115</t>
+          <t>Player-59082827</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2927,24 +2927,24 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2059</t>
+          <t>1751</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>87234</t>
+          <t>99837</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>58671339</t>
+          <t>59106471</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>"quang pro"</t>
+          <t>anime</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2954,24 +2954,24 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>1599</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>92755</t>
+          <t>117091</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>59082827</t>
+          <t>41231396</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Player-59082827</t>
+          <t>ollsthebro</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2981,24 +2981,24 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>1735</t>
+          <t>1399</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>98084</t>
+          <t>132177</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>59106471</t>
+          <t>59112086</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>anime</t>
+          <t>sigma</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3008,24 +3008,24 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>1600</t>
+          <t>1213</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>115111</t>
+          <t>188284</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>41231396</t>
+          <t>55745105</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>ollsthebro</t>
+          <t>eldeniz</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3035,24 +3035,24 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>1399</t>
+          <t>1000</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>181942</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>55745105</t>
+          <t>58572199</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>eldeniz</t>
+          <t>你干嘛～哎呦～</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3062,7 +3062,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3074,12 +3074,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>58572199</t>
+          <t>58766144</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>你干嘛～哎呦～</t>
+          <t>EquablePrecedence38</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3101,12 +3101,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>58766144</t>
+          <t>29355299</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>EquablePrecedence38</t>
+          <t>Player-29355299</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3128,12 +3128,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>29355299</t>
+          <t>58910668</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Player-29355299</t>
+          <t>BrittleAuthor33</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3155,12 +3155,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>58910668</t>
+          <t>58174442</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>BrittleAuthor33</t>
+          <t>Player-58174442</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3182,12 +3182,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>58174442</t>
+          <t>59081265</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Player-58174442</t>
+          <t>爬楼梯</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3204,44 +3204,44 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>53641</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>59081265</t>
+          <t>41848598</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>爬楼梯</t>
+          <t>国家一级保护沙雕</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2925</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>55266</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>41848598</t>
+          <t>12648101</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>国家一级保护沙雕</t>
+          <t>"player 198827"</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3251,7 +3251,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>2815</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3263,12 +3263,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>12648101</t>
+          <t>9195340</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>"player 198827"</t>
+          <t>Namllllllik</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3290,12 +3290,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>9195340</t>
+          <t>15755724</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Namllllllik</t>
+          <t>"Last Good"</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3317,12 +3317,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>15755724</t>
+          <t>8850180</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>"Last Good"</t>
+          <t>30624300</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3344,12 +3344,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>8850180</t>
+          <t>28624723</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>30624300</t>
+          <t>"Woody Shade"</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3371,12 +3371,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>28624723</t>
+          <t>6010122</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>"Woody Shade"</t>
+          <t>"Edward Peng"</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3398,12 +3398,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>6010122</t>
+          <t>9913517</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>"Edward Peng"</t>
+          <t>"Kenny Chan"</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3425,12 +3425,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>9913517</t>
+          <t>10636651</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>"Kenny Chan"</t>
+          <t>"Ismail Aflou"</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3439,33 +3439,6 @@
         </is>
       </c>
       <c r="E114" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>10636651</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>"Ismail Aflou"</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/Season_Trophies/87.xlsx
+++ b/Season_Trophies/87.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E114"/>
+  <dimension ref="A1:E112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -396,7 +396,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>59162</t>
+          <t>60257</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -416,14 +416,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2716</t>
+          <t>2711</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>8413</t>
+          <t>9451</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -443,14 +443,14 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5541</t>
+          <t>5663</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>22100</t>
+          <t>23931</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -470,14 +470,14 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4719</t>
+          <t>4762</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>30439</t>
+          <t>28031</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -497,14 +497,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4372</t>
+          <t>4577</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>40768</t>
+          <t>37081</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -524,14 +524,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3976</t>
+          <t>4191</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>46733</t>
+          <t>44419</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -551,14 +551,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3402</t>
+          <t>3736</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>47336</t>
+          <t>48416</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -585,7 +585,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>56014</t>
+          <t>57131</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -605,14 +605,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2826</t>
+          <t>2820</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>67199</t>
+          <t>66152</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -632,14 +632,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2531</t>
+          <t>2563</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>67304</t>
+          <t>66355</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -659,14 +659,14 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2529</t>
+          <t>2559</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>75053</t>
+          <t>76163</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -686,14 +686,14 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2306</t>
+          <t>2304</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>93484</t>
+          <t>94799</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1759</t>
+          <t>1758</t>
         </is>
       </c>
     </row>
@@ -747,7 +747,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>13457</t>
+          <t>13278</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -767,24 +767,24 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5179</t>
+          <t>5365</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>13825</t>
+          <t>8645</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>53520939</t>
+          <t>47131129</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>㊥虎哥tiger</t>
+          <t>NAM</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -794,24 +794,24 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5154</t>
+          <t>5728</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>17949</t>
+          <t>9915</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>47146736</t>
+          <t>49710892</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>"HK 品瑜"</t>
+          <t>MMMMMMM</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -821,24 +821,24 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4922</t>
+          <t>5627</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>19919</t>
+          <t>10344</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>38809086</t>
+          <t>53060417</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Kouenᶻᵍˣ</t>
+          <t>㊥老纳信耶稣</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -848,24 +848,24 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4825</t>
+          <t>5592</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>10987</t>
+          <t>12173</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>53060417</t>
+          <t>53520939</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>㊥老纳信耶稣</t>
+          <t>㊥虎哥tiger</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -875,24 +875,24 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5350</t>
+          <t>5449</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>11691</t>
+          <t>14130</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>49710892</t>
+          <t>47146736</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>MMMMMMM</t>
+          <t>"HK 品瑜"</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -902,24 +902,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5301</t>
+          <t>5303</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>16364</t>
+          <t>17421</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>38809086</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t>Kouenᶻᵍˣ</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -929,24 +929,24 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>5004</t>
+          <t>5099</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>16589</t>
+          <t>17473</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>8057001</t>
+          <t>12333251</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>㊥兵者诡道也</t>
+          <t>"㊌ Mingxuan"</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -956,24 +956,24 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4993</t>
+          <t>5097</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>17869</t>
+          <t>18202</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>54698813</t>
+          <t>4756174</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>閃亮唐老鴨</t>
+          <t>純希です</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -983,24 +983,24 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4927</t>
+          <t>5056</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>18291</t>
+          <t>15683</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4756174</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>純希です</t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1010,24 +1010,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4906</t>
+          <t>5202</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>24724</t>
+          <t>16962</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>55769051</t>
+          <t>8057001</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>㊥叮叮当.</t>
+          <t>㊥兵者诡道也</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>4600</t>
+          <t>5125</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5523</t>
+          <t>18077</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4493731</t>
+          <t>54698813</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Player-1527362</t>
+          <t>閃亮唐老鴨</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1064,24 +1064,24 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>5802</t>
+          <t>5063</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>7581</t>
+          <t>21474</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>7852598</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>seiji</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1091,24 +1091,24 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>5606</t>
+          <t>4887</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>8879</t>
+          <t>22657</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>47131129</t>
+          <t>55769051</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>㊥叮叮当.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1118,24 +1118,24 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>5505</t>
+          <t>4824</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>11029</t>
+          <t>24495</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>11582001</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>iMinatoX4</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1145,24 +1145,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>5348</t>
+          <t>4734</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>15330</t>
+          <t>26709</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>55860890</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>㊥Ethan</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1172,24 +1172,24 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>5060</t>
+          <t>4634</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>18397</t>
+          <t>28965</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>6809364</t>
+          <t>3649043</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>"Scorp IP"</t>
+          <t>Dj6106</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1199,24 +1199,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>4901</t>
+          <t>4539</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>18474</t>
+          <t>33469</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>12333251</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>"㊌ Mingxuan"</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1226,24 +1226,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>4897</t>
+          <t>4344</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>19182</t>
+          <t>34298</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>38995116</t>
+          <t>58839983</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>"Ramesh Pavai Nam"</t>
+          <t>每逢佳节胖六斤</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4860</t>
+          <t>4309</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>19221</t>
+          <t>34273</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>55317038</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>necman12345</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1280,24 +1280,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4858</t>
+          <t>4310</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>20334</t>
+          <t>37044</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>58408326</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>"Killer Bee"</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1307,24 +1307,24 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4805</t>
+          <t>4192</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>21261</t>
+          <t>40770</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>54778421</t>
+          <t>1304123</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Emma</t>
+          <t>Cccccccccccc</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1334,24 +1334,24 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4761</t>
+          <t>4025</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>22893</t>
+          <t>7182</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>4493731</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>Player-1527362</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1361,24 +1361,24 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>4681</t>
+          <t>5864</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>26045</t>
+          <t>8473</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>31401481</t>
+          <t>7852598</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Player-31401481</t>
+          <t>seiji</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1388,24 +1388,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4547</t>
+          <t>5743</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>27910</t>
+          <t>11555</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>55860890</t>
+          <t>11582001</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>㊥Ethan</t>
+          <t>iMinatoX4</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1415,24 +1415,24 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>4475</t>
+          <t>5497</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>30188</t>
+          <t>15107</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>47459684</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>㊥阿闹切克闹</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1442,24 +1442,24 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4383</t>
+          <t>5236</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>31454</t>
+          <t>18211</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>3649043</t>
+          <t>55317038</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Dj6106</t>
+          <t>necman12345</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1469,24 +1469,24 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>4331</t>
+          <t>5055</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>32185</t>
+          <t>18500</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>38995116</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>"Ramesh Pavai Nam"</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1496,24 +1496,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>4300</t>
+          <t>5040</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>32074</t>
+          <t>18604</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>6809364</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Globalking1001</t>
+          <t>"Scorp IP"</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1523,24 +1523,24 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>4305</t>
+          <t>5034</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>33884</t>
+          <t>21177</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>54778421</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>Emma</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1550,24 +1550,24 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>4231</t>
+          <t>4903</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>34144</t>
+          <t>26428</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>31401481</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>Player-31401481</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1577,24 +1577,24 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>4221</t>
+          <t>4647</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>34341</t>
+          <t>28434</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>58839983</t>
+          <t>47459684</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>每逢佳节胖六斤</t>
+          <t>㊥阿闹切克闹</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1604,24 +1604,24 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>4214</t>
+          <t>4560</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>34990</t>
+          <t>31540</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>24733875</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>龍少</t>
+          <t>Globalking1001</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1631,24 +1631,24 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>4189</t>
+          <t>4431</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>37212</t>
+          <t>32325</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>58408326</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>"Killer Bee"</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1658,24 +1658,24 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>4099</t>
+          <t>4397</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>37792</t>
+          <t>37155</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1304123</t>
+          <t>24733875</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Cccccccccccc</t>
+          <t>龍少</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1685,24 +1685,24 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>4076</t>
+          <t>4189</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>38420</t>
+          <t>39306</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>57813281</t>
+          <t>58203298</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>XAUEN</t>
+          <t>权旨qua</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1712,24 +1712,24 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>4051</t>
+          <t>4094</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>38722</t>
+          <t>39347</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>50837459</t>
+          <t>57813281</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>NINE日</t>
+          <t>XAUEN</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1739,24 +1739,24 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>4037</t>
+          <t>4092</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>39555</t>
+          <t>39378</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>56500325</t>
+          <t>50837459</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>haruharuyukizg9735</t>
+          <t>NINE日</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1766,24 +1766,24 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>4002</t>
+          <t>4091</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>40453</t>
+          <t>40009</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>58203298</t>
+          <t>56500325</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>权旨qua</t>
+          <t>haruharuyukizg9735</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1793,24 +1793,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>3988</t>
+          <t>4062</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>45134</t>
+          <t>46075</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>38561634</t>
+          <t>52997727</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>"Ambrose PT"</t>
+          <t>larios</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1820,24 +1820,24 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>3552</t>
+          <t>3574</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>45691</t>
+          <t>48748</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>52997727</t>
+          <t>32316256</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>larios</t>
+          <t>"秋の風 .."</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1847,24 +1847,24 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>3501</t>
+          <t>3322</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>47877</t>
+          <t>49808</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>48634530</t>
+          <t>38893233</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>leezhenrui</t>
+          <t>"快乐 二哈"</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1874,24 +1874,24 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>3303</t>
+          <t>3228</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>48006</t>
+          <t>61967</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>32316256</t>
+          <t>1550355</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>"秋の風 .."</t>
+          <t>"皓茵 世界"</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1901,105 +1901,105 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>3291</t>
+          <t>2659</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>48794</t>
+          <t>14968</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>38893233</t>
+          <t>31134300</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>"快乐 二哈"</t>
+          <t>McMaX</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>3230</t>
+          <t>5244</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>48800</t>
+          <t>59128</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>59080634</t>
+          <t>43281368</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Chlove</t>
+          <t>xhs2763</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>3229</t>
+          <t>2748</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>62307</t>
+          <t>67477</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1550355</t>
+          <t>44378757</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>"皓茵 世界"</t>
+          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2627</t>
+          <t>2540</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>14635</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>31134300</t>
+          <t>48738257</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>McMaX</t>
+          <t>死亡洲际跳蛋</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2009,24 +2009,24 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>5103</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>59040</t>
+          <t>25209</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>43281368</t>
+          <t>44708798</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>xhs2763</t>
+          <t>"㊥ mythgod"</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2036,24 +2036,24 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2720</t>
+          <t>4700</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>68199</t>
+          <t>29398</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>44378757</t>
+          <t>25479797</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
+          <t>"Mohamed Alnaqbi"</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2063,24 +2063,24 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2516</t>
+          <t>4521</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>48609</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>48738257</t>
+          <t>54588689</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>死亡洲际跳蛋</t>
+          <t>㊥墨衍枫迹☜</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2090,24 +2090,24 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3334</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>26678</t>
+          <t>54804</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>25479797</t>
+          <t>28855852</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>"Mohamed Alnaqbi"</t>
+          <t>tiger</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2117,24 +2117,24 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>4523</t>
+          <t>2916</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>30306</t>
+          <t>23444</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>44708798</t>
+          <t>18082891</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>"㊥ mythgod"</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2144,24 +2144,24 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>4378</t>
+          <t>4786</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>48826</t>
+          <t>33454</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>54588689</t>
+          <t>55499394</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>㊥墨衍枫迹☜</t>
+          <t>Player-55499394</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2171,24 +2171,24 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>3227</t>
+          <t>4345</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>53706</t>
+          <t>49639</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>28855852</t>
+          <t>47430231</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>tiger</t>
+          <t>Kentantrino</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2198,24 +2198,24 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2922</t>
+          <t>3239</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>23003</t>
+          <t>50864</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>18082891</t>
+          <t>56700848</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>工口漫画老师</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2225,24 +2225,24 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>4677</t>
+          <t>3147</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>35126</t>
+          <t>52625</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>55499394</t>
+          <t>11645391</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Player-55499394</t>
+          <t>"omar omar"</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2252,24 +2252,24 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>4183</t>
+          <t>3032</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>49861</t>
+          <t>56114</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>56700848</t>
+          <t>3391765</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>工口漫画老师</t>
+          <t>马er</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2279,24 +2279,24 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>3149</t>
+          <t>2861</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>51575</t>
+          <t>59054</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>11645391</t>
+          <t>9718882</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>"omar omar"</t>
+          <t>小霸王2021</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2306,24 +2306,24 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>3032</t>
+          <t>2750</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>51873</t>
+          <t>72806</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>47430231</t>
+          <t>15436348</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Kentantrino</t>
+          <t>Lucas</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2333,24 +2333,24 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>3016</t>
+          <t>2450</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>55963</t>
+          <t>101546</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>3391765</t>
+          <t>54941706</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>马er</t>
+          <t>AlexMenjivar20</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2360,24 +2360,24 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2829</t>
+          <t>1599</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>57991</t>
+          <t>114233</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>9718882</t>
+          <t>57219176</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>小霸王2021</t>
+          <t>青莲道人</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2387,24 +2387,24 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2754</t>
+          <t>1468</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>71967</t>
+          <t>135941</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>15436348</t>
+          <t>49000199</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Lucas</t>
+          <t>SlipperyForester5672</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2414,24 +2414,24 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2453</t>
+          <t>1202</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>99737</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>54941706</t>
+          <t>38994054</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>AlexMenjivar20</t>
+          <t>chengnan</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2441,24 +2441,24 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>1601</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>112434</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>57219176</t>
+          <t>55810157</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>青莲道人</t>
+          <t>Beard</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2468,24 +2468,24 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>1469</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>132817</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>49000199</t>
+          <t>57556179</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>SlipperyForester5672</t>
+          <t>特战新生代英雄</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2495,7 +2495,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>1205</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2507,12 +2507,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>38994054</t>
+          <t>1222440</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>chengnan</t>
+          <t>"Sneaky Ninja Panda"</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2534,12 +2534,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>55810157</t>
+          <t>58340439</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Beard</t>
+          <t>70qilin</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2561,12 +2561,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>57556179</t>
+          <t>20372140</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>特战新生代英雄</t>
+          <t>人山即是仙</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2588,12 +2588,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>1222440</t>
+          <t>58615925</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>"Sneaky Ninja Panda"</t>
+          <t>齐天的大圣</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2615,12 +2615,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>58340439</t>
+          <t>58641574</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>70qilin</t>
+          <t>Player-58641574鱼</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2642,12 +2642,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>20372140</t>
+          <t>58743790</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>人山即是仙</t>
+          <t>Ma</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2664,54 +2664,54 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>53041</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>58615925</t>
+          <t>41849539</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>齐天的大圣</t>
+          <t>三号馆馆主</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3009</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>44064</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>58641574</t>
+          <t>56241637</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Player-58641574鱼</t>
+          <t>Player-14day</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3771</t>
         </is>
       </c>
     </row>
@@ -2723,17 +2723,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>58743790</t>
+          <t>47622456</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Ma</t>
+          <t>伊恩</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -2745,17 +2745,17 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>53094</t>
+          <t>55146</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>41849539</t>
+          <t>55210350</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>三号馆馆主</t>
+          <t>一个过客而已</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2765,24 +2765,24 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2952</t>
+          <t>2901</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>42618</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>56241637</t>
+          <t>49553719</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Player-14day</t>
+          <t>"Oreo Captain Sir"</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2792,24 +2792,24 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>3792</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>88270</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>47622456</t>
+          <t>58671339</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>伊恩</t>
+          <t>"quang pro"</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2819,24 +2819,24 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2022</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>54095</t>
+          <t>93915</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>55210350</t>
+          <t>59082827</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>一个过客而已</t>
+          <t>Player-59082827</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2846,24 +2846,24 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2906</t>
+          <t>1794</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>101580</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>49553719</t>
+          <t>59106471</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>"Oreo Captain Sir"</t>
+          <t>anime</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2873,24 +2873,24 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1598</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>88392</t>
+          <t>119170</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>58671339</t>
+          <t>41231396</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>"quang pro"</t>
+          <t>ollsthebro</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2900,24 +2900,24 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>1398</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>93700</t>
+          <t>133541</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>59082827</t>
+          <t>59112086</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Player-59082827</t>
+          <t>sigma</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2927,24 +2927,24 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>1751</t>
+          <t>1229</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>99837</t>
+          <t>194789</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>59106471</t>
+          <t>55745105</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>anime</t>
+          <t>eldeniz</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2954,24 +2954,24 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>1599</t>
+          <t>1000</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>117091</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>41231396</t>
+          <t>58572199</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>ollsthebro</t>
+          <t>你干嘛～哎呦～</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2981,24 +2981,24 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>1399</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>132177</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>59112086</t>
+          <t>58766144</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>sigma</t>
+          <t>EquablePrecedence38</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3008,24 +3008,24 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>1213</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>188284</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>55745105</t>
+          <t>29355299</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>eldeniz</t>
+          <t>Player-29355299</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3035,7 +3035,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3047,12 +3047,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>58572199</t>
+          <t>58910668</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>你干嘛～哎呦～</t>
+          <t>BrittleAuthor33</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3074,12 +3074,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>58766144</t>
+          <t>58174442</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>EquablePrecedence38</t>
+          <t>Player-58174442</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3101,12 +3101,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>29355299</t>
+          <t>59081265</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Player-29355299</t>
+          <t>爬楼梯</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3123,27 +3123,27 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>51442</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>58910668</t>
+          <t>41848598</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>BrittleAuthor33</t>
+          <t>国家一级保护沙雕</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3105</t>
         </is>
       </c>
     </row>
@@ -3155,17 +3155,17 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>58174442</t>
+          <t>12648101</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Player-58174442</t>
+          <t>"player 198827"</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -3182,17 +3182,17 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>59081265</t>
+          <t>9195340</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>爬楼梯</t>
+          <t>Namllllllik</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -3204,17 +3204,17 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>53641</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>41848598</t>
+          <t>15755724</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>国家一级保护沙雕</t>
+          <t>"Last Good"</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3224,7 +3224,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>2925</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3236,12 +3236,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>12648101</t>
+          <t>8850180</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>"player 198827"</t>
+          <t>30624300</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3263,12 +3263,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>9195340</t>
+          <t>28624723</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Namllllllik</t>
+          <t>"Woody Shade"</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3290,12 +3290,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>15755724</t>
+          <t>6010122</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>"Last Good"</t>
+          <t>"Edward Peng"</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3317,12 +3317,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>8850180</t>
+          <t>9913517</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>30624300</t>
+          <t>"Kenny Chan"</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3344,12 +3344,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>28624723</t>
+          <t>10636651</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>"Woody Shade"</t>
+          <t>"Ismail Aflou"</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3366,17 +3366,17 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>39278</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>6010122</t>
+          <t>24787683</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>"Edward Peng"</t>
+          <t>陳畯泓</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3386,61 +3386,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>9913517</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>"Kenny Chan"</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>10636651</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>"Ismail Aflou"</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>0</t>
+          <t>4096</t>
         </is>
       </c>
     </row>

--- a/Season_Trophies/87.xlsx
+++ b/Season_Trophies/87.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E112"/>
+  <dimension ref="A1:E113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -396,7 +396,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>60257</t>
+          <t>61198</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -416,24 +416,24 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2711</t>
+          <t>2708</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>9451</t>
+          <t>24983</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4229136</t>
+          <t>37069173</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>"totoro wu"</t>
+          <t>詹toniii</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -443,24 +443,24 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5663</t>
+          <t>4825</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>23931</t>
+          <t>30401</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>37069173</t>
+          <t>45967307</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>詹toniii</t>
+          <t>Ricky</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -470,24 +470,24 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4762</t>
+          <t>4577</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>28031</t>
+          <t>34452</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>45967307</t>
+          <t>55634661</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Ricky</t>
+          <t>Opalus</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -497,24 +497,24 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4577</t>
+          <t>4396</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>37081</t>
+          <t>45564</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>55634661</t>
+          <t>20737010</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Opalus</t>
+          <t>混着玩...</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -524,24 +524,24 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4191</t>
+          <t>3736</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>44419</t>
+          <t>49318</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>20737010</t>
+          <t>7587898</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>混着玩...</t>
+          <t>藍精靈ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -551,24 +551,24 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3736</t>
+          <t>3349</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>48416</t>
+          <t>58091</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7587898</t>
+          <t>59095922</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>藍精靈ᶻᵍˣ</t>
+          <t>xxxx7</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -578,24 +578,24 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3349</t>
+          <t>2817</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>57131</t>
+          <t>66986</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>59095922</t>
+          <t>47928278</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>xxxx7</t>
+          <t>"落日幻影 哈哈哈"</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -605,24 +605,24 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2820</t>
+          <t>2563</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>66152</t>
+          <t>67193</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>47928278</t>
+          <t>6510348</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>"落日幻影 哈哈哈"</t>
+          <t>Bonpoisson</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -632,24 +632,24 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2563</t>
+          <t>2559</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>66355</t>
+          <t>76680</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>6510348</t>
+          <t>59093405</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Bonpoisson</t>
+          <t>永恒不朽6</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -659,24 +659,24 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2559</t>
+          <t>2315</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>76163</t>
+          <t>95349</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>59093405</t>
+          <t>59100545</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>永恒不朽6</t>
+          <t>"black dragon"</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -686,24 +686,24 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2304</t>
+          <t>1784</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>94799</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>59100545</t>
+          <t>23687250</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>"black dragon"</t>
+          <t>"jetlijp ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -713,51 +713,51 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1758</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>13513</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>23687250</t>
+          <t>37861953</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>"jetlijp ᶻᵍˣ"</t>
+          <t>"Durex ๑• . •๑"</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5513</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>13278</t>
+          <t>8547</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>37861953</t>
+          <t>47131129</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>"Durex ๑• . •๑"</t>
+          <t>NAM</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -767,24 +767,24 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5365</t>
+          <t>5941</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>8645</t>
+          <t>10963</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>47131129</t>
+          <t>49710892</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>MMMMMMM</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -794,24 +794,24 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5728</t>
+          <t>5734</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>9915</t>
+          <t>11117</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>49710892</t>
+          <t>53060417</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>MMMMMMM</t>
+          <t>㊥老纳信耶稣</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -821,24 +821,24 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>5627</t>
+          <t>5721</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>10344</t>
+          <t>12583</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>53060417</t>
+          <t>47146736</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>㊥老纳信耶稣</t>
+          <t>"HK 品瑜"</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -848,14 +848,14 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>5592</t>
+          <t>5595</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>12173</t>
+          <t>14140</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -875,24 +875,24 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5449</t>
+          <t>5462</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>14130</t>
+          <t>15394</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>47146736</t>
+          <t>12333251</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>"HK 品瑜"</t>
+          <t>"㊌ Mingxuan"</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -902,24 +902,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5303</t>
+          <t>5372</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>17421</t>
+          <t>16914</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>38809086</t>
+          <t>57531381</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Kouenᶻᵍˣ</t>
+          <t>㊥蝦雞霸丸</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -929,24 +929,24 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>5099</t>
+          <t>5274</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>17473</t>
+          <t>17231</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>12333251</t>
+          <t>38809086</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>"㊌ Mingxuan"</t>
+          <t>Kouenᶻᵍˣ</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -956,14 +956,14 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>5097</t>
+          <t>5255</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>18202</t>
+          <t>20491</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -983,14 +983,14 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>5056</t>
+          <t>5067</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>15683</t>
+          <t>16439</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1010,14 +1010,14 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>5202</t>
+          <t>5303</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>16962</t>
+          <t>16735</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1037,14 +1037,14 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>5125</t>
+          <t>5285</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>18077</t>
+          <t>17693</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1064,14 +1064,14 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>5063</t>
+          <t>5228</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>21474</t>
+          <t>20806</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1091,14 +1091,14 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4887</t>
+          <t>5051</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>22657</t>
+          <t>22302</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1118,14 +1118,14 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>4824</t>
+          <t>4970</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>24495</t>
+          <t>26460</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1145,14 +1145,14 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>4734</t>
+          <t>4755</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>26709</t>
+          <t>27159</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1172,14 +1172,14 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>4634</t>
+          <t>4723</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>28965</t>
+          <t>30893</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1199,24 +1199,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>4539</t>
+          <t>4556</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>33469</t>
+          <t>32667</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1226,24 +1226,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>4344</t>
+          <t>4481</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>34298</t>
+          <t>33121</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>58839983</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>每逢佳节胖六斤</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4309</t>
+          <t>4459</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>34273</t>
+          <t>36562</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>58839983</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>每逢佳节胖六斤</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1280,14 +1280,14 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4310</t>
+          <t>4295</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>37044</t>
+          <t>38697</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1307,14 +1307,14 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4192</t>
+          <t>4194</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>40770</t>
+          <t>39606</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1334,14 +1334,14 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4025</t>
+          <t>4153</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>7182</t>
+          <t>6632</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1361,14 +1361,14 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>5864</t>
+          <t>6131</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>8473</t>
+          <t>8474</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1388,24 +1388,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>5743</t>
+          <t>5947</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>11555</t>
+          <t>10058</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>11582001</t>
+          <t>4229136</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>iMinatoX4</t>
+          <t>"totoro wu"</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1415,24 +1415,24 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>5497</t>
+          <t>5808</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>15107</t>
+          <t>11040</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>11582001</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>iMinatoX4</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1442,24 +1442,24 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>5236</t>
+          <t>5728</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>18211</t>
+          <t>12174</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>55317038</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>necman12345</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1469,24 +1469,24 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>5055</t>
+          <t>5629</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>18500</t>
+          <t>14637</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>38995116</t>
+          <t>6809364</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>"Ramesh Pavai Nam"</t>
+          <t>"Scorp IP"</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1496,24 +1496,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>5040</t>
+          <t>5424</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>18604</t>
+          <t>18375</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>6809364</t>
+          <t>55317038</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>"Scorp IP"</t>
+          <t>necman12345</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1523,24 +1523,24 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>5034</t>
+          <t>5190</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>21177</t>
+          <t>19300</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>54778421</t>
+          <t>38995116</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Emma</t>
+          <t>"Ramesh Pavai Nam"</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1550,24 +1550,24 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>4903</t>
+          <t>5136</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>26428</t>
+          <t>22275</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>31401481</t>
+          <t>54778421</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Player-31401481</t>
+          <t>Emma</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1577,24 +1577,24 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>4647</t>
+          <t>4972</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>28434</t>
+          <t>25975</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>47459684</t>
+          <t>31401481</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>㊥阿闹切克闹</t>
+          <t>Player-31401481</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1604,24 +1604,24 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>4560</t>
+          <t>4779</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>31540</t>
+          <t>31430</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>47459684</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Globalking1001</t>
+          <t>㊥阿闹切克闹</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1631,24 +1631,24 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>4431</t>
+          <t>4534</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>32325</t>
+          <t>33194</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>Globalking1001</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1658,24 +1658,24 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>4397</t>
+          <t>4456</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>37155</t>
+          <t>34381</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>24733875</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>龍少</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1685,24 +1685,24 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>4189</t>
+          <t>4399</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>39306</t>
+          <t>38825</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>58203298</t>
+          <t>24733875</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>权旨qua</t>
+          <t>龍少</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1712,24 +1712,24 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>4094</t>
+          <t>4189</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>39347</t>
+          <t>39368</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>57813281</t>
+          <t>56500325</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>XAUEN</t>
+          <t>haruharuyukizg9735</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1739,24 +1739,24 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>4092</t>
+          <t>4164</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>39378</t>
+          <t>39984</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>50837459</t>
+          <t>57813281</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>NINE日</t>
+          <t>XAUEN</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1766,24 +1766,24 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>4091</t>
+          <t>4134</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>40009</t>
+          <t>40111</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>56500325</t>
+          <t>58203298</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>haruharuyukizg9735</t>
+          <t>权旨qua</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1793,24 +1793,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>4062</t>
+          <t>4128</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>46075</t>
+          <t>41970</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>52997727</t>
+          <t>50837459</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>larios</t>
+          <t>NINE日</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1820,14 +1820,14 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>3574</t>
+          <t>4035</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>48748</t>
+          <t>43490</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1847,14 +1847,14 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>3322</t>
+          <t>3958</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>49808</t>
+          <t>44919</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1874,24 +1874,24 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>3228</t>
+          <t>3808</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>61967</t>
+          <t>46116</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1550355</t>
+          <t>52997727</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>"皓茵 世界"</t>
+          <t>larios</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1901,78 +1901,78 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2659</t>
+          <t>3676</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>14968</t>
+          <t>48288</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>31134300</t>
+          <t>48634530</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>McMaX</t>
+          <t>leezhenrui</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>5244</t>
+          <t>3445</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>59128</t>
+          <t>62852</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>43281368</t>
+          <t>1550355</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>xhs2763</t>
+          <t>"皓茵 世界"</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2748</t>
+          <t>2659</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>67477</t>
+          <t>14997</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>44378757</t>
+          <t>31134300</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
+          <t>McMaX</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1982,24 +1982,24 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2540</t>
+          <t>5399</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>60106</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>48738257</t>
+          <t>43281368</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>死亡洲际跳蛋</t>
+          <t>xhs2763</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2009,24 +2009,24 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2744</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>25209</t>
+          <t>68258</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>44708798</t>
+          <t>44378757</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>"㊥ mythgod"</t>
+          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2036,24 +2036,24 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>4700</t>
+          <t>2540</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>29398</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>25479797</t>
+          <t>48738257</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>"Mohamed Alnaqbi"</t>
+          <t>死亡洲际跳蛋</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2063,24 +2063,24 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>4521</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>48609</t>
+          <t>25369</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>54588689</t>
+          <t>44708798</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>㊥墨衍枫迹☜</t>
+          <t>"㊥ mythgod"</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2090,24 +2090,24 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>3334</t>
+          <t>4806</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>54804</t>
+          <t>26083</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>28855852</t>
+          <t>25479797</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>tiger</t>
+          <t>"Mohamed Alnaqbi"</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2117,24 +2117,24 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2916</t>
+          <t>4773</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>23444</t>
+          <t>49206</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>18082891</t>
+          <t>54588689</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>㊥墨衍枫迹☜</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2144,24 +2144,24 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>4786</t>
+          <t>3361</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>33454</t>
+          <t>55661</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>55499394</t>
+          <t>28855852</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Player-55499394</t>
+          <t>tiger</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2171,24 +2171,24 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>4345</t>
+          <t>2918</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>49639</t>
+          <t>22199</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>47430231</t>
+          <t>18082891</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Kentantrino</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2198,24 +2198,24 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>3239</t>
+          <t>4977</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>50864</t>
+          <t>30994</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>56700848</t>
+          <t>55499394</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>工口漫画老师</t>
+          <t>Player-55499394</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2225,24 +2225,24 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>3147</t>
+          <t>4551</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>52625</t>
+          <t>49636</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>11645391</t>
+          <t>47430231</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>"omar omar"</t>
+          <t>Kentantrino</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2252,24 +2252,24 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>3032</t>
+          <t>3323</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>56114</t>
+          <t>51496</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>3391765</t>
+          <t>11645391</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>马er</t>
+          <t>"omar omar"</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2279,24 +2279,24 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2861</t>
+          <t>3169</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>59054</t>
+          <t>51600</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>9718882</t>
+          <t>56700848</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>小霸王2021</t>
+          <t>工口漫画老师</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2306,24 +2306,24 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>3161</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>72806</t>
+          <t>56389</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>15436348</t>
+          <t>3391765</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Lucas</t>
+          <t>马er</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2333,24 +2333,24 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2450</t>
+          <t>2887</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>101546</t>
+          <t>60122</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>54941706</t>
+          <t>9718882</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>AlexMenjivar20</t>
+          <t>小霸王2021</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2360,24 +2360,24 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>1599</t>
+          <t>2743</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>114233</t>
+          <t>73722</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>57219176</t>
+          <t>15436348</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>青莲道人</t>
+          <t>Lucas</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2387,24 +2387,24 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>1468</t>
+          <t>2443</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>135941</t>
+          <t>102328</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>49000199</t>
+          <t>54941706</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>SlipperyForester5672</t>
+          <t>AlexMenjivar20</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2414,24 +2414,24 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>1202</t>
+          <t>1613</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>116171</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>38994054</t>
+          <t>57219176</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>chengnan</t>
+          <t>青莲道人</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2441,24 +2441,24 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1463</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>136264</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>55810157</t>
+          <t>49000199</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Beard</t>
+          <t>SlipperyForester5672</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2468,7 +2468,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1230</t>
         </is>
       </c>
     </row>
@@ -2480,12 +2480,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>57556179</t>
+          <t>38994054</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>特战新生代英雄</t>
+          <t>chengnan</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2507,12 +2507,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1222440</t>
+          <t>55810157</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>"Sneaky Ninja Panda"</t>
+          <t>Beard</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2534,12 +2534,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>58340439</t>
+          <t>57556179</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>70qilin</t>
+          <t>特战新生代英雄</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2561,12 +2561,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>20372140</t>
+          <t>1222440</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>人山即是仙</t>
+          <t>"Sneaky Ninja Panda"</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2588,12 +2588,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>58615925</t>
+          <t>58340439</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>齐天的大圣</t>
+          <t>70qilin</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2615,12 +2615,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>58641574</t>
+          <t>20372140</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Player-58641574鱼</t>
+          <t>人山即是仙</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2642,12 +2642,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>58743790</t>
+          <t>58615925</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Ma</t>
+          <t>齐天的大圣</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2664,71 +2664,71 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>53041</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>41849539</t>
+          <t>58641574</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>三号馆馆主</t>
+          <t>Player-58641574鱼</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>3009</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>44064</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>56241637</t>
+          <t>58743790</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Player-14day</t>
+          <t>Ma</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>3771</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>53429</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>47622456</t>
+          <t>41849539</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>伊恩</t>
+          <t>三号馆馆主</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2738,24 +2738,24 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3033</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>55146</t>
+          <t>41868</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>55210350</t>
+          <t>56241637</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>一个过客而已</t>
+          <t>Player-14day</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2765,7 +2765,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2901</t>
+          <t>4040</t>
         </is>
       </c>
     </row>
@@ -2777,12 +2777,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>49553719</t>
+          <t>47622456</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>"Oreo Captain Sir"</t>
+          <t>伊恩</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2799,17 +2799,17 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>88270</t>
+          <t>56093</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>58671339</t>
+          <t>55210350</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>"quang pro"</t>
+          <t>一个过客而已</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2819,24 +2819,24 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2899</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>93915</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>59082827</t>
+          <t>49553719</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Player-59082827</t>
+          <t>"Oreo Captain Sir"</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2846,24 +2846,24 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>1794</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>101580</t>
+          <t>89297</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>59106471</t>
+          <t>58671339</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>anime</t>
+          <t>"quang pro"</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2873,24 +2873,24 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>1598</t>
+          <t>2022</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>119170</t>
+          <t>89788</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>41231396</t>
+          <t>59082827</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>ollsthebro</t>
+          <t>Player-59082827</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2900,24 +2900,24 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>1398</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>133541</t>
+          <t>103180</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>59112086</t>
+          <t>59106471</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>sigma</t>
+          <t>anime</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2927,24 +2927,24 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>1229</t>
+          <t>1598</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>194789</t>
+          <t>121159</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>55745105</t>
+          <t>41231396</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>eldeniz</t>
+          <t>ollsthebro</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2954,24 +2954,24 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>1398</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>136333</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>58572199</t>
+          <t>59112086</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>你干嘛～哎呦～</t>
+          <t>sigma</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2981,24 +2981,24 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1229</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>201442</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>58766144</t>
+          <t>55745105</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>EquablePrecedence38</t>
+          <t>eldeniz</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3008,7 +3008,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000</t>
         </is>
       </c>
     </row>
@@ -3020,12 +3020,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>29355299</t>
+          <t>58572199</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Player-29355299</t>
+          <t>你干嘛～哎呦～</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3047,12 +3047,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>58910668</t>
+          <t>58766144</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>BrittleAuthor33</t>
+          <t>EquablePrecedence38</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3074,12 +3074,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>58174442</t>
+          <t>29355299</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Player-58174442</t>
+          <t>Player-29355299</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3101,12 +3101,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>59081265</t>
+          <t>58910668</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>爬楼梯</t>
+          <t>BrittleAuthor33</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3123,27 +3123,27 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>51442</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>41848598</t>
+          <t>58174442</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>国家一级保护沙雕</t>
+          <t>Player-58174442</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>3105</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3155,17 +3155,17 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>12648101</t>
+          <t>59081265</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>"player 198827"</t>
+          <t>爬楼梯</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -3177,17 +3177,17 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>51973</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>9195340</t>
+          <t>41848598</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Namllllllik</t>
+          <t>国家一级保护沙雕</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3197,7 +3197,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3135</t>
         </is>
       </c>
     </row>
@@ -3209,12 +3209,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>15755724</t>
+          <t>12648101</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>"Last Good"</t>
+          <t>"player 198827"</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3236,12 +3236,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>8850180</t>
+          <t>9195340</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>30624300</t>
+          <t>Namllllllik</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3263,12 +3263,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>28624723</t>
+          <t>15755724</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>"Woody Shade"</t>
+          <t>"Last Good"</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3290,12 +3290,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>6010122</t>
+          <t>8850180</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>"Edward Peng"</t>
+          <t>30624300</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3317,12 +3317,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>9913517</t>
+          <t>28624723</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>"Kenny Chan"</t>
+          <t>"Woody Shade"</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3344,12 +3344,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>10636651</t>
+          <t>6010122</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>"Ismail Aflou"</t>
+          <t>"Edward Peng"</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3366,17 +3366,17 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>39278</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>24787683</t>
+          <t>9913517</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>陳畯泓</t>
+          <t>"Kenny Chan"</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3386,7 +3386,34 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>4096</t>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>999999</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>10636651</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>"Ismail Aflou"</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>

--- a/Season_Trophies/87.xlsx
+++ b/Season_Trophies/87.xlsx
@@ -396,7 +396,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>61198</t>
+          <t>61044</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -416,14 +416,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2708</t>
+          <t>2731</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>24983</t>
+          <t>24642</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -443,24 +443,24 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4825</t>
+          <t>4925</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>30401</t>
+          <t>31644</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>45967307</t>
+          <t>55634661</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Ricky</t>
+          <t>Opalus</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -470,24 +470,24 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4577</t>
+          <t>4593</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>34452</t>
+          <t>31972</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>55634661</t>
+          <t>45967307</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Opalus</t>
+          <t>Ricky</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -497,24 +497,24 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4396</t>
+          <t>4577</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>45564</t>
+          <t>45610</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>20737010</t>
+          <t>47928278</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>混着玩...</t>
+          <t>"落日幻影 哈哈哈"</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -524,24 +524,24 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3736</t>
+          <t>3807</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>49318</t>
+          <t>46237</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>7587898</t>
+          <t>20737010</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>藍精靈ᶻᵍˣ</t>
+          <t>混着玩...</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -551,24 +551,24 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3349</t>
+          <t>3736</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>58091</t>
+          <t>49567</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>59095922</t>
+          <t>7587898</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>xxxx7</t>
+          <t>藍精靈ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -578,24 +578,24 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2817</t>
+          <t>3380</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>66986</t>
+          <t>58715</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>47928278</t>
+          <t>59095922</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>"落日幻影 哈哈哈"</t>
+          <t>xxxx7</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -605,14 +605,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2563</t>
+          <t>2814</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>67193</t>
+          <t>67720</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -639,7 +639,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>76680</t>
+          <t>76846</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -659,14 +659,14 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2315</t>
+          <t>2330</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>95349</t>
+          <t>95951</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -686,7 +686,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1784</t>
+          <t>1796</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>13513</t>
+          <t>13027</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -740,14 +740,14 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5513</t>
+          <t>5655</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>8547</t>
+          <t>9372</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -767,14 +767,14 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5941</t>
+          <t>5979</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>10963</t>
+          <t>11255</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -794,24 +794,24 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5734</t>
+          <t>5813</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>11117</t>
+          <t>11073</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>53060417</t>
+          <t>47146736</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>㊥老纳信耶稣</t>
+          <t>"HK 品瑜"</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -821,24 +821,24 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>5721</t>
+          <t>5829</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>12583</t>
+          <t>12921</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>47146736</t>
+          <t>53060417</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>"HK 品瑜"</t>
+          <t>㊥老纳信耶稣</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -848,14 +848,14 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>5595</t>
+          <t>5664</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>14140</t>
+          <t>15977</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -875,14 +875,14 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5462</t>
+          <t>5428</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>15394</t>
+          <t>17193</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -902,24 +902,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5372</t>
+          <t>5351</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>16914</t>
+          <t>18196</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>57531381</t>
+          <t>38809086</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>㊥蝦雞霸丸</t>
+          <t>Kouenᶻᵍˣ</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -929,24 +929,24 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>5274</t>
+          <t>5292</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>17231</t>
+          <t>19019</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>38809086</t>
+          <t>4756174</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Kouenᶻᵍˣ</t>
+          <t>純希です</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -956,24 +956,24 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>5255</t>
+          <t>5246</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20491</t>
+          <t>20406</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4756174</t>
+          <t>57531381</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>純希です</t>
+          <t>㊥蝦雞霸丸</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -983,24 +983,24 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>5067</t>
+          <t>5165</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>16439</t>
+          <t>15439</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>8057001</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t>㊥兵者诡道也</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1010,24 +1010,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>5303</t>
+          <t>5465</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>16735</t>
+          <t>15916</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>8057001</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>㊥兵者诡道也</t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1037,14 +1037,14 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>5285</t>
+          <t>5432</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>17693</t>
+          <t>16931</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1064,24 +1064,24 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>5228</t>
+          <t>5366</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>20806</t>
+          <t>21794</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>55769051</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>㊥叮叮当.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1091,24 +1091,24 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>5051</t>
+          <t>5080</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>22302</t>
+          <t>23235</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>55769051</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>㊥叮叮当.</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1118,24 +1118,24 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>4970</t>
+          <t>5001</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>26460</t>
+          <t>27619</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>55860890</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>㊥Ethan</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1145,24 +1145,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>4755</t>
+          <t>4772</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>27159</t>
+          <t>27773</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>55860890</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>㊥Ethan</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1172,24 +1172,24 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>4723</t>
+          <t>4765</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>30893</t>
+          <t>32531</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>3649043</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Dj6106</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1199,24 +1199,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>4556</t>
+          <t>4553</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>32667</t>
+          <t>32854</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>3649043</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>Dj6106</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1226,24 +1226,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>4481</t>
+          <t>4539</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>33121</t>
+          <t>35290</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>58839983</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>每逢佳节胖六斤</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4459</t>
+          <t>4423</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>36562</t>
+          <t>35293</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>58839983</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>每逢佳节胖六斤</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1280,14 +1280,14 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4295</t>
+          <t>4423</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>38697</t>
+          <t>40437</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1307,14 +1307,14 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4194</t>
+          <t>4165</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>39606</t>
+          <t>41764</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1334,14 +1334,14 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4153</t>
+          <t>4097</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>6632</t>
+          <t>6273</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1361,14 +1361,14 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>6131</t>
+          <t>6277</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>8474</t>
+          <t>9721</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1388,14 +1388,14 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>5947</t>
+          <t>5946</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>10058</t>
+          <t>10824</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1415,14 +1415,14 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>5808</t>
+          <t>5852</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>11040</t>
+          <t>12120</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1442,24 +1442,24 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>5728</t>
+          <t>5735</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>12174</t>
+          <t>15922</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>6809364</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>"Scorp IP"</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1469,24 +1469,24 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>5629</t>
+          <t>5431</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>14637</t>
+          <t>16127</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>6809364</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>"Scorp IP"</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1496,14 +1496,14 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>5424</t>
+          <t>5418</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>18375</t>
+          <t>17699</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1523,24 +1523,24 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>5190</t>
+          <t>5320</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>19300</t>
+          <t>20143</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>38995116</t>
+          <t>54778421</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>"Ramesh Pavai Nam"</t>
+          <t>Emma</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1550,24 +1550,24 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>5136</t>
+          <t>5180</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>22275</t>
+          <t>21554</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>54778421</t>
+          <t>38995116</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Emma</t>
+          <t>"Ramesh Pavai Nam"</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1577,14 +1577,14 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>4972</t>
+          <t>5093</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>25975</t>
+          <t>27565</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1604,14 +1604,14 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>4779</t>
+          <t>4775</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>31430</t>
+          <t>31781</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1631,24 +1631,24 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>4534</t>
+          <t>4586</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>33194</t>
+          <t>32668</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Globalking1001</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1658,24 +1658,24 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>4456</t>
+          <t>4547</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>34381</t>
+          <t>33050</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>32316256</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>"秋の風 .."</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1685,24 +1685,24 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>4399</t>
+          <t>4530</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>38825</t>
+          <t>34530</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>24733875</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>龍少</t>
+          <t>Globalking1001</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1712,24 +1712,24 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>4189</t>
+          <t>4460</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>39368</t>
+          <t>38775</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>56500325</t>
+          <t>38893233</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>haruharuyukizg9735</t>
+          <t>"快乐 二哈"</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1739,24 +1739,24 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>4164</t>
+          <t>4246</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>39984</t>
+          <t>39833</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>57813281</t>
+          <t>58203298</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>XAUEN</t>
+          <t>权旨qua</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1766,24 +1766,24 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>4134</t>
+          <t>4195</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>40111</t>
+          <t>39974</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>58203298</t>
+          <t>24733875</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>权旨qua</t>
+          <t>龍少</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1793,24 +1793,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>4128</t>
+          <t>4189</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>41970</t>
+          <t>41440</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>50837459</t>
+          <t>57813281</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>NINE日</t>
+          <t>XAUEN</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1820,24 +1820,24 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>4035</t>
+          <t>4114</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>43490</t>
+          <t>41638</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>32316256</t>
+          <t>56500325</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>"秋の風 .."</t>
+          <t>haruharuyukizg9735</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1847,24 +1847,24 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>3958</t>
+          <t>4104</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>44919</t>
+          <t>43575</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>38893233</t>
+          <t>50837459</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>"快乐 二哈"</t>
+          <t>NINE日</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1874,14 +1874,14 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>3808</t>
+          <t>3995</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>46116</t>
+          <t>46604</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1901,14 +1901,14 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>3676</t>
+          <t>3691</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>48288</t>
+          <t>48618</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1928,14 +1928,14 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>3445</t>
+          <t>3475</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>62852</t>
+          <t>62317</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1955,14 +1955,14 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2659</t>
+          <t>2691</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>14997</t>
+          <t>16569</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1982,14 +1982,14 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>5399</t>
+          <t>5392</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>60106</t>
+          <t>60669</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2009,14 +2009,14 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2744</t>
+          <t>2743</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>68258</t>
+          <t>68771</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2070,17 +2070,17 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>25369</t>
+          <t>22776</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>44708798</t>
+          <t>25479797</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>"㊥ mythgod"</t>
+          <t>"Mohamed Alnaqbi"</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2090,24 +2090,24 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>4806</t>
+          <t>5026</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>26083</t>
+          <t>26101</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>25479797</t>
+          <t>44708798</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>"Mohamed Alnaqbi"</t>
+          <t>"㊥ mythgod"</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2117,14 +2117,14 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>4773</t>
+          <t>4848</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>49206</t>
+          <t>49807</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2144,14 +2144,14 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>3361</t>
+          <t>3360</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>55661</t>
+          <t>56296</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2171,14 +2171,14 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2918</t>
+          <t>2916</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>22199</t>
+          <t>22999</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2198,14 +2198,14 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>4977</t>
+          <t>5014</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>30994</t>
+          <t>33913</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2225,14 +2225,14 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>4551</t>
+          <t>4491</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>49636</t>
+          <t>49760</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2252,14 +2252,14 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>3323</t>
+          <t>3364</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>51496</t>
+          <t>52100</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2286,7 +2286,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>51600</t>
+          <t>52236</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2306,14 +2306,14 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>3161</t>
+          <t>3159</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>56389</t>
+          <t>55653</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2333,14 +2333,14 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2887</t>
+          <t>2946</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>60122</t>
+          <t>60760</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2360,14 +2360,14 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2743</t>
+          <t>2740</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>73722</t>
+          <t>74350</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2387,14 +2387,14 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2443</t>
+          <t>2440</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>102328</t>
+          <t>103518</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2414,14 +2414,14 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>1613</t>
+          <t>1612</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>116171</t>
+          <t>117786</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2441,14 +2441,14 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>1463</t>
+          <t>1458</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>136264</t>
+          <t>138629</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2468,7 +2468,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>1230</t>
+          <t>1228</t>
         </is>
       </c>
     </row>
@@ -2718,7 +2718,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>53429</t>
+          <t>53015</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2738,14 +2738,14 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>3033</t>
+          <t>3101</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>41868</t>
+          <t>43774</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2765,7 +2765,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>4040</t>
+          <t>3991</t>
         </is>
       </c>
     </row>
@@ -2799,7 +2799,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>56093</t>
+          <t>56765</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2819,7 +2819,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2899</t>
+          <t>2895</t>
         </is>
       </c>
     </row>
@@ -2853,7 +2853,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>89297</t>
+          <t>89175</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -2873,14 +2873,14 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2040</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>89788</t>
+          <t>89269</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2900,14 +2900,14 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2038</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>103180</t>
+          <t>103242</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2927,14 +2927,14 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>1598</t>
+          <t>1616</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>121159</t>
+          <t>122805</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -2954,14 +2954,14 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>1398</t>
+          <t>1397</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>136333</t>
+          <t>138502</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -2988,7 +2988,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>201442</t>
+          <t>207228</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3177,7 +3177,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>51973</t>
+          <t>52137</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3197,7 +3197,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>3135</t>
+          <t>3166</t>
         </is>
       </c>
     </row>

--- a/Season_Trophies/87.xlsx
+++ b/Season_Trophies/87.xlsx
@@ -396,7 +396,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>61044</t>
+          <t>61317</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -416,14 +416,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2731</t>
+          <t>2728</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>24642</t>
+          <t>24987</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -443,14 +443,14 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4925</t>
+          <t>4940</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>31644</t>
+          <t>31145</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -470,14 +470,14 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4593</t>
+          <t>4638</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>31972</t>
+          <t>32576</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -504,7 +504,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>45610</t>
+          <t>45822</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -531,7 +531,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>46237</t>
+          <t>46460</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -558,7 +558,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>49567</t>
+          <t>49754</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -585,7 +585,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>58715</t>
+          <t>58900</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -612,7 +612,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>67720</t>
+          <t>67905</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -639,7 +639,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>76846</t>
+          <t>77071</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -666,7 +666,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>95951</t>
+          <t>96209</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -720,7 +720,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>13027</t>
+          <t>13884</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -740,14 +740,14 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5655</t>
+          <t>5641</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>9372</t>
+          <t>9007</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -767,24 +767,24 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5979</t>
+          <t>6089</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>11255</t>
+          <t>11068</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>49710892</t>
+          <t>53060417</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>MMMMMMM</t>
+          <t>㊥老纳信耶稣</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -794,24 +794,24 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5813</t>
+          <t>5914</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>11073</t>
+          <t>11117</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>47146736</t>
+          <t>49710892</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>"HK 品瑜"</t>
+          <t>MMMMMMM</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -821,24 +821,24 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>5829</t>
+          <t>5910</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>12921</t>
+          <t>11775</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>53060417</t>
+          <t>47146736</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>㊥老纳信耶稣</t>
+          <t>"HK 品瑜"</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -848,14 +848,14 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>5664</t>
+          <t>5848</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>15977</t>
+          <t>13020</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -875,14 +875,14 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5428</t>
+          <t>5721</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>17193</t>
+          <t>18098</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -902,24 +902,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5351</t>
+          <t>5339</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>18196</t>
+          <t>18534</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>38809086</t>
+          <t>57531381</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Kouenᶻᵍˣ</t>
+          <t>㊥蝦雞霸丸</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -929,24 +929,24 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>5292</t>
+          <t>5314</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>19019</t>
+          <t>18761</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4756174</t>
+          <t>38809086</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>純希です</t>
+          <t>Kouenᶻᵍˣ</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -956,24 +956,24 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>5246</t>
+          <t>5302</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20406</t>
+          <t>19613</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>57531381</t>
+          <t>4756174</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>㊥蝦雞霸丸</t>
+          <t>純希です</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -983,14 +983,14 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>5165</t>
+          <t>5253</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>15439</t>
+          <t>16419</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1010,24 +1010,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>5465</t>
+          <t>5443</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>15916</t>
+          <t>16703</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>54698813</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t>閃亮唐老鴨</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>5432</t>
+          <t>5426</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>16931</t>
+          <t>16654</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>54698813</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>閃亮唐老鴨</t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1064,24 +1064,24 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>5366</t>
+          <t>5430</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>21794</t>
+          <t>21131</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>55769051</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>㊥叮叮当.</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1091,24 +1091,24 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>5080</t>
+          <t>5163</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>23235</t>
+          <t>22859</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>55769051</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>㊥叮叮当.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1118,24 +1118,24 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>5001</t>
+          <t>5058</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>27619</t>
+          <t>27920</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>55860890</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>㊥Ethan</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1145,24 +1145,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>4772</t>
+          <t>4790</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>27773</t>
+          <t>28531</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>55860890</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>㊥Ethan</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1172,24 +1172,24 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>4765</t>
+          <t>4759</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>32531</t>
+          <t>30911</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>3649043</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>Dj6106</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1199,24 +1199,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>4553</t>
+          <t>4648</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>32854</t>
+          <t>34480</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>3649043</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Dj6106</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1226,14 +1226,14 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>4539</t>
+          <t>4487</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>35290</t>
+          <t>35227</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1253,14 +1253,14 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4423</t>
+          <t>4449</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>35293</t>
+          <t>35971</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1280,14 +1280,14 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4423</t>
+          <t>4411</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>40437</t>
+          <t>40284</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1307,14 +1307,14 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4165</t>
+          <t>4192</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>41764</t>
+          <t>42490</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1334,14 +1334,14 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4097</t>
+          <t>4075</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>6273</t>
+          <t>6678</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1361,14 +1361,14 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>6277</t>
+          <t>6332</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>9721</t>
+          <t>7675</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1388,14 +1388,14 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>5946</t>
+          <t>6217</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>10824</t>
+          <t>9442</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1415,14 +1415,14 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>5852</t>
+          <t>6052</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>12120</t>
+          <t>10410</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1442,24 +1442,24 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>5735</t>
+          <t>5971</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>15922</t>
+          <t>13391</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>6809364</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>"Scorp IP"</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1469,24 +1469,24 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>5431</t>
+          <t>5684</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>16127</t>
+          <t>16481</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>6809364</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>"Scorp IP"</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1496,14 +1496,14 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>5418</t>
+          <t>5439</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>17699</t>
+          <t>18250</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1523,24 +1523,24 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>5320</t>
+          <t>5330</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>20143</t>
+          <t>21236</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>54778421</t>
+          <t>38995116</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Emma</t>
+          <t>"Ramesh Pavai Nam"</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1550,24 +1550,24 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>5180</t>
+          <t>5156</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>21554</t>
+          <t>22024</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>38995116</t>
+          <t>54778421</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>"Ramesh Pavai Nam"</t>
+          <t>Emma</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1577,14 +1577,14 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>5093</t>
+          <t>5110</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>27565</t>
+          <t>24724</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1604,14 +1604,14 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>4775</t>
+          <t>4953</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>31781</t>
+          <t>31107</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1631,24 +1631,24 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>4586</t>
+          <t>4640</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>32668</t>
+          <t>33110</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>32316256</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>"秋の風 .."</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1658,24 +1658,24 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>4547</t>
+          <t>4553</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>33050</t>
+          <t>33505</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>32316256</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>"秋の風 .."</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1685,14 +1685,14 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>4530</t>
+          <t>4533</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>34530</t>
+          <t>33677</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1712,14 +1712,14 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>4460</t>
+          <t>4525</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>38775</t>
+          <t>39237</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1739,24 +1739,24 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>4246</t>
+          <t>4244</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>39833</t>
+          <t>39365</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>58203298</t>
+          <t>24733875</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>权旨qua</t>
+          <t>龍少</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1766,24 +1766,24 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>4195</t>
+          <t>4237</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>39974</t>
+          <t>40639</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>24733875</t>
+          <t>58203298</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>龍少</t>
+          <t>权旨qua</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1793,24 +1793,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>4189</t>
+          <t>4175</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>41440</t>
+          <t>40983</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>57813281</t>
+          <t>56500325</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>XAUEN</t>
+          <t>haruharuyukizg9735</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1820,24 +1820,24 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>4114</t>
+          <t>4157</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>41638</t>
+          <t>41898</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>56500325</t>
+          <t>57813281</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>haruharuyukizg9735</t>
+          <t>XAUEN</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1847,14 +1847,14 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>4104</t>
+          <t>4107</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>43575</t>
+          <t>44059</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1874,14 +1874,14 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>3995</t>
+          <t>3991</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>46604</t>
+          <t>45550</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1901,14 +1901,14 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>3691</t>
+          <t>3839</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>48618</t>
+          <t>48657</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1928,14 +1928,14 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>3475</t>
+          <t>3491</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>62317</t>
+          <t>62522</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1962,7 +1962,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>16569</t>
+          <t>17267</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1989,7 +1989,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>60669</t>
+          <t>60859</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2016,7 +2016,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>68771</t>
+          <t>68979</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2036,7 +2036,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2540</t>
+          <t>2539</t>
         </is>
       </c>
     </row>
@@ -2070,7 +2070,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>22776</t>
+          <t>23407</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2097,7 +2097,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>26101</t>
+          <t>26501</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2117,14 +2117,14 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>4848</t>
+          <t>4859</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>49807</t>
+          <t>49671</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2144,14 +2144,14 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>3360</t>
+          <t>3389</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>56296</t>
+          <t>56492</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2178,7 +2178,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>22999</t>
+          <t>22401</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2198,14 +2198,14 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>5014</t>
+          <t>5086</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>33913</t>
+          <t>34201</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2225,14 +2225,14 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>4491</t>
+          <t>4501</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>49760</t>
+          <t>49974</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2252,14 +2252,14 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>3364</t>
+          <t>3362</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>52100</t>
+          <t>52296</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2286,7 +2286,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>52236</t>
+          <t>52444</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2306,14 +2306,14 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>3159</t>
+          <t>3158</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>55653</t>
+          <t>55860</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2340,7 +2340,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>60760</t>
+          <t>60967</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2360,14 +2360,14 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2740</t>
+          <t>2739</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>74350</t>
+          <t>74542</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2387,14 +2387,14 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2440</t>
+          <t>2439</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>103518</t>
+          <t>103860</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2421,7 +2421,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>117786</t>
+          <t>118260</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2441,14 +2441,14 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>1458</t>
+          <t>1457</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>138629</t>
+          <t>139341</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2468,7 +2468,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>1228</t>
+          <t>1227</t>
         </is>
       </c>
     </row>
@@ -2718,7 +2718,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>53015</t>
+          <t>53242</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2738,14 +2738,14 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>3101</t>
+          <t>3099</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>43774</t>
+          <t>44115</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2765,7 +2765,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>3991</t>
+          <t>3989</t>
         </is>
       </c>
     </row>
@@ -2799,7 +2799,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>56765</t>
+          <t>57035</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2819,7 +2819,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2895</t>
+          <t>2892</t>
         </is>
       </c>
     </row>
@@ -2853,7 +2853,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>89175</t>
+          <t>88521</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -2873,14 +2873,14 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2040</t>
+          <t>2059</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>89269</t>
+          <t>88871</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2900,14 +2900,14 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>2038</t>
+          <t>2052</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>103242</t>
+          <t>103584</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2934,7 +2934,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>122805</t>
+          <t>123256</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -2961,7 +2961,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>138502</t>
+          <t>139096</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -2988,7 +2988,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>207228</t>
+          <t>208684</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3177,7 +3177,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>52137</t>
+          <t>52330</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">

--- a/Season_Trophies/87.xlsx
+++ b/Season_Trophies/87.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E113"/>
+  <dimension ref="A1:E111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -396,7 +396,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>61317</t>
+          <t>61099</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -416,14 +416,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2728</t>
+          <t>2744</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>24987</t>
+          <t>24888</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -443,24 +443,24 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4940</t>
+          <t>4977</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>31145</t>
+          <t>25148</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>55634661</t>
+          <t>47928278</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Opalus</t>
+          <t>"落日幻影 哈哈哈"</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -470,24 +470,24 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4638</t>
+          <t>4962</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>32576</t>
+          <t>30448</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>45967307</t>
+          <t>55634661</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Ricky</t>
+          <t>Opalus</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -497,24 +497,24 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4577</t>
+          <t>4699</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>45822</t>
+          <t>33245</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>47928278</t>
+          <t>45967307</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>"落日幻影 哈哈哈"</t>
+          <t>Ricky</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -524,14 +524,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3807</t>
+          <t>4577</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>46460</t>
+          <t>43361</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -551,14 +551,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3736</t>
+          <t>4041</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>49754</t>
+          <t>50004</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -585,7 +585,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>58900</t>
+          <t>59165</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -605,14 +605,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2814</t>
+          <t>2813</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>67905</t>
+          <t>68127</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -639,7 +639,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>77071</t>
+          <t>77396</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -666,7 +666,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>96209</t>
+          <t>96266</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -686,7 +686,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1796</t>
+          <t>1813</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>13884</t>
+          <t>14055</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -740,14 +740,14 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5641</t>
+          <t>5656</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>9007</t>
+          <t>9359</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -767,24 +767,24 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>6089</t>
+          <t>6081</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>11068</t>
+          <t>10922</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>53060417</t>
+          <t>49710892</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>㊥老纳信耶稣</t>
+          <t>MMMMMMM</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -794,24 +794,24 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5914</t>
+          <t>5951</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>11117</t>
+          <t>11768</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>49710892</t>
+          <t>53060417</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>MMMMMMM</t>
+          <t>㊥老纳信耶稣</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -821,14 +821,14 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>5910</t>
+          <t>5873</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>11775</t>
+          <t>12002</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -855,7 +855,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>13020</t>
+          <t>13841</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -875,14 +875,14 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5721</t>
+          <t>5672</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>18098</t>
+          <t>18695</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -902,24 +902,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5339</t>
+          <t>5335</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>18534</t>
+          <t>19310</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>57531381</t>
+          <t>38809086</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>㊥蝦雞霸丸</t>
+          <t>Kouenᶻᵍˣ</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -929,24 +929,24 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>5314</t>
+          <t>5302</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>18761</t>
+          <t>19803</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>38809086</t>
+          <t>4756174</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Kouenᶻᵍˣ</t>
+          <t>純希です</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -956,24 +956,24 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>5302</t>
+          <t>5275</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>19613</t>
+          <t>14995</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4756174</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>純希です</t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -983,14 +983,14 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>5253</t>
+          <t>5580</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>16419</t>
+          <t>17489</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1010,14 +1010,14 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>5443</t>
+          <t>5405</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>16703</t>
+          <t>17603</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>5426</t>
+          <t>5399</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>16654</t>
+          <t>22558</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1064,24 +1064,24 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>5430</t>
+          <t>5109</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>21131</t>
+          <t>23305</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>55769051</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>㊥叮叮当.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1091,24 +1091,24 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>5163</t>
+          <t>5067</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>22859</t>
+          <t>27758</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>55769051</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>㊥叮叮当.</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1118,24 +1118,24 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>5058</t>
+          <t>4827</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>27920</t>
+          <t>29302</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>55860890</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>㊥Ethan</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1145,24 +1145,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>4790</t>
+          <t>4751</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>28531</t>
+          <t>31873</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>55860890</t>
+          <t>3649043</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>㊥Ethan</t>
+          <t>Dj6106</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1172,24 +1172,24 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>4759</t>
+          <t>4637</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>30911</t>
+          <t>34275</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>3649043</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Dj6106</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1199,24 +1199,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>4648</t>
+          <t>4526</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>34480</t>
+          <t>35576</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>58839983</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>每逢佳节胖六斤</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1226,24 +1226,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>4487</t>
+          <t>4463</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>35227</t>
+          <t>35536</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>58839983</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>每逢佳节胖六斤</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4449</t>
+          <t>4465</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>35971</t>
+          <t>40565</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>58408326</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>"Killer Bee"</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1280,24 +1280,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4411</t>
+          <t>4200</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>40284</t>
+          <t>43096</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>58408326</t>
+          <t>1304123</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>"Killer Bee"</t>
+          <t>Cccccccccccc</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1307,24 +1307,24 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4192</t>
+          <t>4059</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>42490</t>
+          <t>6907</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1304123</t>
+          <t>4493731</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Cccccccccccc</t>
+          <t>Player-1527362</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1334,24 +1334,24 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4075</t>
+          <t>6326</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>6678</t>
+          <t>7889</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>4493731</t>
+          <t>7852598</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Player-1527362</t>
+          <t>seiji</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1361,24 +1361,24 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>6332</t>
+          <t>6217</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>7675</t>
+          <t>10705</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>7852598</t>
+          <t>11582001</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>seiji</t>
+          <t>iMinatoX4</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1388,24 +1388,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>6217</t>
+          <t>5971</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>9442</t>
+          <t>14896</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>4229136</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>"totoro wu"</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1415,24 +1415,24 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>6052</t>
+          <t>5588</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>10410</t>
+          <t>15876</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>11582001</t>
+          <t>55317038</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>iMinatoX4</t>
+          <t>necman12345</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1442,24 +1442,24 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>5971</t>
+          <t>5513</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>13391</t>
+          <t>16730</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>6809364</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>"Scorp IP"</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1469,24 +1469,24 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>5684</t>
+          <t>5454</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>16481</t>
+          <t>21297</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>6809364</t>
+          <t>38995116</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>"Scorp IP"</t>
+          <t>"Ramesh Pavai Nam"</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1496,24 +1496,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>5439</t>
+          <t>5191</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>18250</t>
+          <t>22647</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>55317038</t>
+          <t>54778421</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>necman12345</t>
+          <t>Emma</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1523,24 +1523,24 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>5330</t>
+          <t>5103</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>21236</t>
+          <t>25782</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>38995116</t>
+          <t>31401481</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>"Ramesh Pavai Nam"</t>
+          <t>Player-31401481</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1550,24 +1550,24 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>5156</t>
+          <t>4928</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>22024</t>
+          <t>31535</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>54778421</t>
+          <t>47459684</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Emma</t>
+          <t>㊥阿闹切克闹</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1577,24 +1577,24 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>5110</t>
+          <t>4652</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>24724</t>
+          <t>32608</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>31401481</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Player-31401481</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1604,24 +1604,24 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>4953</t>
+          <t>4605</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>31107</t>
+          <t>33253</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>47459684</t>
+          <t>32316256</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>㊥阿闹切克闹</t>
+          <t>"秋の風 .."</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1631,24 +1631,24 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>4640</t>
+          <t>4577</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>33110</t>
+          <t>34713</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>32316256</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>"秋の風 .."</t>
+          <t>Globalking1001</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1658,24 +1658,24 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>4553</t>
+          <t>4506</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>33505</t>
+          <t>39127</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>38893233</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>"快乐 二哈"</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1685,24 +1685,24 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>4533</t>
+          <t>4273</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>33677</t>
+          <t>39815</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>24733875</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Globalking1001</t>
+          <t>龍少</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1712,24 +1712,24 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>4525</t>
+          <t>4237</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>39237</t>
+          <t>40898</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>38893233</t>
+          <t>58203298</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>"快乐 二哈"</t>
+          <t>权旨qua</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1739,24 +1739,24 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>4244</t>
+          <t>4183</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>39365</t>
+          <t>41602</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>24733875</t>
+          <t>56500325</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>龍少</t>
+          <t>haruharuyukizg9735</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1766,24 +1766,24 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>4237</t>
+          <t>4145</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>40639</t>
+          <t>42516</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>58203298</t>
+          <t>57813281</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>权旨qua</t>
+          <t>XAUEN</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1793,24 +1793,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>4175</t>
+          <t>4094</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>40983</t>
+          <t>44402</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>56500325</t>
+          <t>50837459</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>haruharuyukizg9735</t>
+          <t>NINE日</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1820,24 +1820,24 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>4157</t>
+          <t>3990</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>41898</t>
+          <t>45693</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>57813281</t>
+          <t>52997727</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>XAUEN</t>
+          <t>larios</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1847,24 +1847,24 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>4107</t>
+          <t>3861</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>44059</t>
+          <t>48613</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>50837459</t>
+          <t>48634530</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>NINE日</t>
+          <t>leezhenrui</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1874,24 +1874,24 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>3991</t>
+          <t>3519</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>45550</t>
+          <t>62779</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>52997727</t>
+          <t>1550355</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>larios</t>
+          <t>"皓茵 世界"</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1901,78 +1901,78 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>3839</t>
+          <t>2691</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>48657</t>
+          <t>17872</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>48634530</t>
+          <t>31134300</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>leezhenrui</t>
+          <t>McMaX</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>3491</t>
+          <t>5385</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>62522</t>
+          <t>60681</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1550355</t>
+          <t>43281368</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>"皓茵 世界"</t>
+          <t>xhs2763</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2691</t>
+          <t>2758</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>17267</t>
+          <t>69214</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>31134300</t>
+          <t>44378757</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>McMaX</t>
+          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1982,24 +1982,24 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>5392</t>
+          <t>2539</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>60859</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>43281368</t>
+          <t>48738257</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>xhs2763</t>
+          <t>死亡洲际跳蛋</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2009,24 +2009,24 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2743</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>68979</t>
+          <t>24050</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>44378757</t>
+          <t>25479797</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
+          <t>"Mohamed Alnaqbi"</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2036,24 +2036,24 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2539</t>
+          <t>5026</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>27090</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>48738257</t>
+          <t>44708798</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>死亡洲际跳蛋</t>
+          <t>"㊥ mythgod"</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2063,24 +2063,24 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4858</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>23407</t>
+          <t>49549</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>25479797</t>
+          <t>54588689</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>"Mohamed Alnaqbi"</t>
+          <t>㊥墨衍枫迹☜</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2090,24 +2090,24 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>5026</t>
+          <t>3425</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>26501</t>
+          <t>56739</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>44708798</t>
+          <t>28855852</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>"㊥ mythgod"</t>
+          <t>tiger</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2117,24 +2117,24 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>4859</t>
+          <t>2916</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>49671</t>
+          <t>21125</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>54588689</t>
+          <t>18082891</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>㊥墨衍枫迹☜</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2144,24 +2144,24 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>3389</t>
+          <t>5202</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>56492</t>
+          <t>31087</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>28855852</t>
+          <t>55499394</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>tiger</t>
+          <t>Player-55499394</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2171,24 +2171,24 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2916</t>
+          <t>4672</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>22401</t>
+          <t>50249</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>18082891</t>
+          <t>47430231</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Kentantrino</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2198,24 +2198,24 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>5086</t>
+          <t>3358</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>34201</t>
+          <t>52558</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>55499394</t>
+          <t>11645391</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Player-55499394</t>
+          <t>"omar omar"</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2225,24 +2225,24 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>4501</t>
+          <t>3168</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>49974</t>
+          <t>52704</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>47430231</t>
+          <t>56700848</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Kentantrino</t>
+          <t>工口漫画老师</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2252,24 +2252,24 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>3362</t>
+          <t>3158</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>52296</t>
+          <t>56126</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>11645391</t>
+          <t>3391765</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>"omar omar"</t>
+          <t>马er</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2279,24 +2279,24 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>3169</t>
+          <t>2945</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>52444</t>
+          <t>61240</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>56700848</t>
+          <t>9718882</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>工口漫画老师</t>
+          <t>小霸王2021</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2306,24 +2306,24 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>3158</t>
+          <t>2739</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>55860</t>
+          <t>74795</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>3391765</t>
+          <t>15436348</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>马er</t>
+          <t>Lucas</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2333,24 +2333,24 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2946</t>
+          <t>2439</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>60967</t>
+          <t>104459</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>9718882</t>
+          <t>54941706</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>小霸王2021</t>
+          <t>AlexMenjivar20</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2360,24 +2360,24 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2739</t>
+          <t>1612</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>74542</t>
+          <t>118930</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>15436348</t>
+          <t>57219176</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Lucas</t>
+          <t>青莲道人</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2387,24 +2387,24 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2439</t>
+          <t>1457</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>103860</t>
+          <t>140576</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>54941706</t>
+          <t>49000199</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>AlexMenjivar20</t>
+          <t>SlipperyForester5672</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2414,24 +2414,24 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>1612</t>
+          <t>1225</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>118260</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>57219176</t>
+          <t>38994054</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>青莲道人</t>
+          <t>chengnan</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2441,24 +2441,24 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>1457</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>139341</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>49000199</t>
+          <t>55810157</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>SlipperyForester5672</t>
+          <t>Beard</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2468,7 +2468,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>1227</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2480,12 +2480,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>38994054</t>
+          <t>57556179</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>chengnan</t>
+          <t>特战新生代英雄</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2507,12 +2507,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>55810157</t>
+          <t>1222440</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Beard</t>
+          <t>"Sneaky Ninja Panda"</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2534,12 +2534,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>57556179</t>
+          <t>58340439</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>特战新生代英雄</t>
+          <t>70qilin</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2561,12 +2561,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>1222440</t>
+          <t>20372140</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>"Sneaky Ninja Panda"</t>
+          <t>人山即是仙</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2588,12 +2588,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>58340439</t>
+          <t>58615925</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>70qilin</t>
+          <t>齐天的大圣</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2615,12 +2615,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>20372140</t>
+          <t>58641574</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>人山即是仙</t>
+          <t>Player-58641574鱼</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2642,12 +2642,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>58615925</t>
+          <t>58743790</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>齐天的大圣</t>
+          <t>Ma</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2664,71 +2664,71 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>53543</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>58641574</t>
+          <t>41849539</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Player-58641574鱼</t>
+          <t>三号馆馆主</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3095</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>44489</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>58743790</t>
+          <t>56241637</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Ma</t>
+          <t>Player-14day</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3986</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>53242</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>41849539</t>
+          <t>47622456</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>三号馆馆主</t>
+          <t>伊恩</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2738,24 +2738,24 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>3099</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>44115</t>
+          <t>57134</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>56241637</t>
+          <t>55210350</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Player-14day</t>
+          <t>一个过客而已</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2765,7 +2765,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>3989</t>
+          <t>2899</t>
         </is>
       </c>
     </row>
@@ -2777,12 +2777,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>47622456</t>
+          <t>49553719</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>伊恩</t>
+          <t>"Oreo Captain Sir"</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2799,17 +2799,17 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>57035</t>
+          <t>89000</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>55210350</t>
+          <t>58671339</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>一个过客而已</t>
+          <t>"quang pro"</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2819,24 +2819,24 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2892</t>
+          <t>2057</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>89647</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>49553719</t>
+          <t>59082827</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>"Oreo Captain Sir"</t>
+          <t>Player-59082827</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2846,24 +2846,24 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2043</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>88521</t>
+          <t>104186</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>58671339</t>
+          <t>59106471</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>"quang pro"</t>
+          <t>anime</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2873,24 +2873,24 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2059</t>
+          <t>1616</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>88871</t>
+          <t>123997</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>59082827</t>
+          <t>41231396</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Player-59082827</t>
+          <t>ollsthebro</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2900,24 +2900,24 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>2052</t>
+          <t>1397</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>103584</t>
+          <t>140117</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>59106471</t>
+          <t>59112086</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>anime</t>
+          <t>sigma</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2927,24 +2927,24 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>1616</t>
+          <t>1229</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>123256</t>
+          <t>211276</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>41231396</t>
+          <t>55745105</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>ollsthebro</t>
+          <t>eldeniz</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2954,24 +2954,24 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>1397</t>
+          <t>1000</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>139096</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>59112086</t>
+          <t>58572199</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>sigma</t>
+          <t>你干嘛～哎呦～</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2981,24 +2981,24 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>1229</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>208684</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>55745105</t>
+          <t>58766144</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>eldeniz</t>
+          <t>EquablePrecedence38</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3008,7 +3008,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3020,12 +3020,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>58572199</t>
+          <t>29355299</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>你干嘛～哎呦～</t>
+          <t>Player-29355299</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3047,12 +3047,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>58766144</t>
+          <t>58910668</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>EquablePrecedence38</t>
+          <t>BrittleAuthor33</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3074,12 +3074,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>29355299</t>
+          <t>58174442</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Player-29355299</t>
+          <t>Player-58174442</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3101,12 +3101,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>58910668</t>
+          <t>59081265</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>BrittleAuthor33</t>
+          <t>爬楼梯</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3123,27 +3123,27 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>52583</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>58174442</t>
+          <t>41848598</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Player-58174442</t>
+          <t>国家一级保护沙雕</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3166</t>
         </is>
       </c>
     </row>
@@ -3155,17 +3155,17 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>59081265</t>
+          <t>12648101</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>爬楼梯</t>
+          <t>"player 198827"</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -3177,17 +3177,17 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>52330</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>41848598</t>
+          <t>9195340</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>国家一级保护沙雕</t>
+          <t>Namllllllik</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3197,7 +3197,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>3166</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3209,12 +3209,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>12648101</t>
+          <t>15755724</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>"player 198827"</t>
+          <t>"Last Good"</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3236,12 +3236,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>9195340</t>
+          <t>8850180</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Namllllllik</t>
+          <t>30624300</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3263,12 +3263,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>15755724</t>
+          <t>28624723</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>"Last Good"</t>
+          <t>"Woody Shade"</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3290,12 +3290,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>8850180</t>
+          <t>6010122</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>30624300</t>
+          <t>"Edward Peng"</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3317,12 +3317,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>28624723</t>
+          <t>9913517</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>"Woody Shade"</t>
+          <t>"Kenny Chan"</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3344,12 +3344,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>6010122</t>
+          <t>10636651</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>"Edward Peng"</t>
+          <t>"Ismail Aflou"</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3358,60 +3358,6 @@
         </is>
       </c>
       <c r="E111" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>9913517</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>"Kenny Chan"</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>10636651</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>"Ismail Aflou"</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/Season_Trophies/87.xlsx
+++ b/Season_Trophies/87.xlsx
@@ -396,17 +396,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>61099</t>
+          <t>68448</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>42542275</t>
+          <t>6510348</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>"同 风 雨"</t>
+          <t>Bonpoisson</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -416,24 +416,24 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2744</t>
+          <t>2559</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>24888</t>
+          <t>50419</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>37069173</t>
+          <t>7587898</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>詹toniii</t>
+          <t>藍精靈ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -443,24 +443,24 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4977</t>
+          <t>3380</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>25148</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>47928278</t>
+          <t>23687250</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>"落日幻影 哈哈哈"</t>
+          <t>"jetlijp ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -470,24 +470,24 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4962</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>30448</t>
+          <t>26330</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>55634661</t>
+          <t>37069173</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Opalus</t>
+          <t>詹toniii</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -497,24 +497,24 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4699</t>
+          <t>4956</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>33245</t>
+          <t>61500</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>45967307</t>
+          <t>42542275</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Ricky</t>
+          <t>"同 风 雨"</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -524,24 +524,24 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4577</t>
+          <t>2742</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>43361</t>
+          <t>34178</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>20737010</t>
+          <t>45967307</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>混着玩...</t>
+          <t>Ricky</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -551,24 +551,24 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4041</t>
+          <t>4577</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>50004</t>
+          <t>26011</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7587898</t>
+          <t>47928278</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>藍精靈ᶻᵍˣ</t>
+          <t>"落日幻影 哈哈哈"</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -578,24 +578,24 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3380</t>
+          <t>4975</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>59165</t>
+          <t>29878</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>59095922</t>
+          <t>55634661</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>xxxx7</t>
+          <t>Opalus</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -605,24 +605,24 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2813</t>
+          <t>4769</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>68127</t>
+          <t>77896</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>6510348</t>
+          <t>59093405</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Bonpoisson</t>
+          <t>永恒不朽6</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -632,24 +632,24 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2559</t>
+          <t>2330</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>77396</t>
+          <t>59515</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>59093405</t>
+          <t>59095922</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>永恒不朽6</t>
+          <t>xxxx7</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -659,14 +659,14 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2330</t>
+          <t>2813</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>96266</t>
+          <t>96591</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -686,51 +686,51 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1813</t>
+          <t>1824</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>41213</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>23687250</t>
+          <t>1304123</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>"jetlijp ᶻᵍˣ"</t>
+          <t>Cccccccccccc</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4198</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>14055</t>
+          <t>63134</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>37861953</t>
+          <t>1550355</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>"Durex ๑• . •๑"</t>
+          <t>"皓茵 世界"</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -740,24 +740,24 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5656</t>
+          <t>2691</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>9359</t>
+          <t>33112</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>47131129</t>
+          <t>3649043</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>Dj6106</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -767,24 +767,24 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>6081</t>
+          <t>4621</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>10922</t>
+          <t>6559</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>49710892</t>
+          <t>4493731</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>MMMMMMM</t>
+          <t>Player-1527362</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -794,24 +794,24 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5951</t>
+          <t>6537</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>11768</t>
+          <t>18917</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>53060417</t>
+          <t>4756174</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>㊥老纳信耶稣</t>
+          <t>純希です</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -821,24 +821,24 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>5873</t>
+          <t>5402</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>12002</t>
+          <t>15872</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>47146736</t>
+          <t>6809364</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>"HK 品瑜"</t>
+          <t>"Scorp IP"</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -848,24 +848,24 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>5848</t>
+          <t>5602</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>13841</t>
+          <t>6803</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>53520939</t>
+          <t>7852598</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>㊥虎哥tiger</t>
+          <t>seiji</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -875,24 +875,24 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5672</t>
+          <t>6503</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>18695</t>
+          <t>15117</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>12333251</t>
+          <t>8057001</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>"㊌ Mingxuan"</t>
+          <t>㊥兵者诡道也</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -902,24 +902,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5335</t>
+          <t>5665</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>19310</t>
+          <t>9844</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>38809086</t>
+          <t>11582001</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Kouenᶻᵍˣ</t>
+          <t>iMinatoX4</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -929,24 +929,24 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>5302</t>
+          <t>6176</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>19803</t>
+          <t>17405</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4756174</t>
+          <t>12333251</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>純希です</t>
+          <t>"㊌ Mingxuan"</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -956,24 +956,24 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>5275</t>
+          <t>5494</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>14995</t>
+          <t>43822</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>20737010</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t>混着玩...</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -983,24 +983,24 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>5580</t>
+          <t>4041</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>17489</t>
+          <t>40471</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>8057001</t>
+          <t>24733875</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>㊥兵者诡道也</t>
+          <t>龍少</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1010,24 +1010,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>5405</t>
+          <t>4237</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>17603</t>
+          <t>24860</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>54698813</t>
+          <t>31401481</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>閃亮唐老鴨</t>
+          <t>Player-31401481</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>5399</t>
+          <t>5041</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>22558</t>
+          <t>16179</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1064,24 +1064,24 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>5109</t>
+          <t>5579</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>23305</t>
+          <t>26710</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>55769051</t>
+          <t>32316256</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>㊥叮叮当.</t>
+          <t>"秋の風 .."</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1091,24 +1091,24 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>5067</t>
+          <t>4934</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>27758</t>
+          <t>14358</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>37861953</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>"Durex ๑• . •๑"</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1118,24 +1118,24 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>4827</t>
+          <t>5732</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>29302</t>
+          <t>19623</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>55860890</t>
+          <t>38809086</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>㊥Ethan</t>
+          <t>Kouenᶻᵍˣ</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1145,24 +1145,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>4751</t>
+          <t>5363</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>31873</t>
+          <t>33379</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>3649043</t>
+          <t>38893233</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Dj6106</t>
+          <t>"快乐 二哈"</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1172,24 +1172,24 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>4637</t>
+          <t>4610</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>34275</t>
+          <t>22824</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>38995116</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>"Ramesh Pavai Nam"</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1199,24 +1199,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>4526</t>
+          <t>5176</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>35576</t>
+          <t>29237</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>58839983</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>每逢佳节胖六斤</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1226,24 +1226,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>4463</t>
+          <t>4803</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>35536</t>
+          <t>8450</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>47131129</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>NAM</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4465</t>
+          <t>6303</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>40565</t>
+          <t>10954</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>58408326</t>
+          <t>47146736</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>"Killer Bee"</t>
+          <t>"HK 品瑜"</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1280,24 +1280,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4200</t>
+          <t>6095</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>43096</t>
+          <t>31611</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1304123</t>
+          <t>47459684</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Cccccccccccc</t>
+          <t>㊥阿闹切克闹</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1307,24 +1307,24 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4059</t>
+          <t>4689</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>6907</t>
+          <t>48871</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>4493731</t>
+          <t>48634530</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Player-1527362</t>
+          <t>leezhenrui</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1334,24 +1334,24 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>6326</t>
+          <t>3532</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>7889</t>
+          <t>12399</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>7852598</t>
+          <t>49710892</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>seiji</t>
+          <t>MMMMMMM</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1361,24 +1361,24 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>6217</t>
+          <t>5973</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>10705</t>
+          <t>40334</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>11582001</t>
+          <t>50837459</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>iMinatoX4</t>
+          <t>NINE日</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1388,24 +1388,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>5971</t>
+          <t>4244</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>14896</t>
+          <t>46108</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>52997727</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>larios</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1415,24 +1415,24 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>5588</t>
+          <t>3861</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>15876</t>
+          <t>11450</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>55317038</t>
+          <t>53060417</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>necman12345</t>
+          <t>㊥老纳信耶稣</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1442,24 +1442,24 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>5513</t>
+          <t>6057</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>16730</t>
+          <t>13080</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>6809364</t>
+          <t>53520939</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>"Scorp IP"</t>
+          <t>㊥虎哥tiger</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1469,24 +1469,24 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>5454</t>
+          <t>5869</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>21297</t>
+          <t>21387</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>38995116</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>"Ramesh Pavai Nam"</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1496,24 +1496,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>5191</t>
+          <t>5264</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>22647</t>
+          <t>16822</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>54778421</t>
+          <t>54698813</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Emma</t>
+          <t>閃亮唐老鴨</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1523,24 +1523,24 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>5103</t>
+          <t>5532</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>25782</t>
+          <t>23945</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>31401481</t>
+          <t>54778421</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Player-31401481</t>
+          <t>Emma</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1550,24 +1550,24 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>4928</t>
+          <t>5095</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>31535</t>
+          <t>18273</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>47459684</t>
+          <t>55317038</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>㊥阿闹切克闹</t>
+          <t>necman12345</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1577,24 +1577,24 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>4652</t>
+          <t>5438</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>32608</t>
+          <t>22210</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>55769051</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>㊥叮叮当.</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1604,24 +1604,24 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>4605</t>
+          <t>5220</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>33253</t>
+          <t>26678</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>32316256</t>
+          <t>55860890</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>"秋の風 .."</t>
+          <t>㊥Ethan</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1631,24 +1631,24 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>4577</t>
+          <t>4936</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>34713</t>
+          <t>13377</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Globalking1001</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1658,24 +1658,24 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>4506</t>
+          <t>5828</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>39127</t>
+          <t>34637</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>38893233</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>"快乐 二哈"</t>
+          <t>Globalking1001</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1685,24 +1685,24 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>4273</t>
+          <t>4556</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>39815</t>
+          <t>42226</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>24733875</t>
+          <t>56500325</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>龍少</t>
+          <t>haruharuyukizg9735</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1712,24 +1712,24 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>4237</t>
+          <t>4139</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>40898</t>
+          <t>33228</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>58203298</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>权旨qua</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1739,24 +1739,24 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>4183</t>
+          <t>4616</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>41602</t>
+          <t>35765</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>56500325</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>haruharuyukizg9735</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1766,24 +1766,24 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>4145</t>
+          <t>4500</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>42516</t>
+          <t>33752</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>57813281</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>XAUEN</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1793,24 +1793,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>4094</t>
+          <t>4596</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>44402</t>
+          <t>43601</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>50837459</t>
+          <t>57813281</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>NINE日</t>
+          <t>XAUEN</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1820,24 +1820,24 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>3990</t>
+          <t>4055</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>45693</t>
+          <t>40812</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>52997727</t>
+          <t>58203298</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>larios</t>
+          <t>权旨qua</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1847,24 +1847,24 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>3861</t>
+          <t>4218</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>48613</t>
+          <t>42512</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>48634530</t>
+          <t>58408326</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>leezhenrui</t>
+          <t>"Killer Bee"</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1874,24 +1874,24 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>3519</t>
+          <t>4123</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>62779</t>
+          <t>35662</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1550355</t>
+          <t>58839983</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>"皓茵 世界"</t>
+          <t>每逢佳节胖六斤</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1901,24 +1901,24 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2691</t>
+          <t>4506</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>17872</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>31134300</t>
+          <t>1222440</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>McMaX</t>
+          <t>"Sneaky Ninja Panda"</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1928,24 +1928,24 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>5385</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>60681</t>
+          <t>56548</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>43281368</t>
+          <t>3391765</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>xhs2763</t>
+          <t>马er</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1955,24 +1955,24 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2758</t>
+          <t>2944</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>69214</t>
+          <t>61634</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>44378757</t>
+          <t>9718882</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
+          <t>小霸王2021</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1982,24 +1982,24 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2539</t>
+          <t>2737</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>53010</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>48738257</t>
+          <t>11645391</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>死亡洲际跳蛋</t>
+          <t>"omar omar"</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2009,24 +2009,24 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3168</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>24050</t>
+          <t>75222</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>25479797</t>
+          <t>15436348</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>"Mohamed Alnaqbi"</t>
+          <t>Lucas</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2036,24 +2036,24 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>5026</t>
+          <t>2439</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>27090</t>
+          <t>21815</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>44708798</t>
+          <t>18082891</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>"㊥ mythgod"</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2063,24 +2063,24 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>4858</t>
+          <t>5241</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>49549</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>54588689</t>
+          <t>20372140</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>㊥墨衍枫迹☜</t>
+          <t>人山即是仙</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2090,24 +2090,24 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>3425</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>56739</t>
+          <t>22548</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>28855852</t>
+          <t>25479797</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>tiger</t>
+          <t>"Mohamed Alnaqbi"</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2117,24 +2117,24 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2916</t>
+          <t>5200</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>21125</t>
+          <t>57168</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>18082891</t>
+          <t>28855852</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>tiger</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2144,24 +2144,24 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>5202</t>
+          <t>2916</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>31087</t>
+          <t>17211</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>55499394</t>
+          <t>31134300</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Player-55499394</t>
+          <t>McMaX</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2171,24 +2171,24 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>4672</t>
+          <t>5509</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>50249</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>47430231</t>
+          <t>38994054</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Kentantrino</t>
+          <t>chengnan</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2198,24 +2198,24 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>3358</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>52558</t>
+          <t>61067</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>11645391</t>
+          <t>43281368</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>"omar omar"</t>
+          <t>xhs2763</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2225,24 +2225,24 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>3168</t>
+          <t>2757</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>52704</t>
+          <t>69540</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>56700848</t>
+          <t>44378757</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>工口漫画老师</t>
+          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2252,24 +2252,24 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>3158</t>
+          <t>2539</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>56126</t>
+          <t>27472</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>3391765</t>
+          <t>44708798</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>马er</t>
+          <t>"㊥ mythgod"</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2279,24 +2279,24 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2945</t>
+          <t>4891</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>61240</t>
+          <t>50718</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>9718882</t>
+          <t>47430231</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>小霸王2021</t>
+          <t>Kentantrino</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2306,24 +2306,24 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2739</t>
+          <t>3355</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>74795</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>15436348</t>
+          <t>48738257</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Lucas</t>
+          <t>死亡洲际跳蛋</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2333,24 +2333,24 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2439</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>104459</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>54941706</t>
+          <t>49000199</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>AlexMenjivar20</t>
+          <t>SlipperyForester5672</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2360,24 +2360,24 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>1612</t>
+          <t>1225</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>118930</t>
+          <t>49816</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>57219176</t>
+          <t>54588689</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>青莲道人</t>
+          <t>㊥墨衍枫迹☜</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2387,24 +2387,24 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>1457</t>
+          <t>3440</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>140576</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>49000199</t>
+          <t>54941706</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>SlipperyForester5672</t>
+          <t>AlexMenjivar20</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2414,24 +2414,24 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>1225</t>
+          <t>1612</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>32423</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>38994054</t>
+          <t>55499394</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>chengnan</t>
+          <t>Player-55499394</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2441,14 +2441,14 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4653</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2475,17 +2475,17 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>52751</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>57556179</t>
+          <t>56700848</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>特战新生代英雄</t>
+          <t>工口漫画老师</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2495,24 +2495,24 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3187</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1222440</t>
+          <t>57219176</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>"Sneaky Ninja Panda"</t>
+          <t>青莲道人</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2522,24 +2522,24 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1455</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>58340439</t>
+          <t>57556179</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>70qilin</t>
+          <t>特战新生代英雄</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2556,17 +2556,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>20372140</t>
+          <t>58340439</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>人山即是仙</t>
+          <t>70qilin</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2583,7 +2583,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2610,7 +2610,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2637,7 +2637,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2664,17 +2664,17 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>53543</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>41849539</t>
+          <t>29355299</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>三号馆馆主</t>
+          <t>Player-29355299</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2684,24 +2684,24 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>3095</t>
+          <t>999</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>44489</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>56241637</t>
+          <t>41231396</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Player-14day</t>
+          <t>ollsthebro</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2711,24 +2711,24 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>3986</t>
+          <t>1397</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>53619</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>47622456</t>
+          <t>41849539</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>伊恩</t>
+          <t>三号馆馆主</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2738,24 +2738,24 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3122</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>57134</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>55210350</t>
+          <t>47622456</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>一个过客而已</t>
+          <t>伊恩</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2765,14 +2765,14 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2899</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2799,17 +2799,17 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>89000</t>
+          <t>57531</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>58671339</t>
+          <t>55210350</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>"quang pro"</t>
+          <t>一个过客而已</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2819,24 +2819,24 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2057</t>
+          <t>2899</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>89647</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>59082827</t>
+          <t>55745105</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Player-59082827</t>
+          <t>eldeniz</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2846,24 +2846,24 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2043</t>
+          <t>1000</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>104186</t>
+          <t>45019</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>59106471</t>
+          <t>56241637</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>anime</t>
+          <t>Player-14day</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2873,24 +2873,24 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>1616</t>
+          <t>3982</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>123997</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>41231396</t>
+          <t>58174442</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>ollsthebro</t>
+          <t>Player-58174442</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2900,24 +2900,24 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>1397</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>140117</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>59112086</t>
+          <t>58572199</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>sigma</t>
+          <t>你干嘛～哎呦～</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2927,24 +2927,24 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>1229</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>211276</t>
+          <t>89567</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>55745105</t>
+          <t>58671339</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>eldeniz</t>
+          <t>"quang pro"</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2954,24 +2954,24 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>2057</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>58572199</t>
+          <t>58766144</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>你干嘛～哎呦～</t>
+          <t>EquablePrecedence38</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2988,17 +2988,17 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>58766144</t>
+          <t>58910668</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>EquablePrecedence38</t>
+          <t>BrittleAuthor33</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3015,17 +3015,17 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>29355299</t>
+          <t>59081265</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Player-29355299</t>
+          <t>爬楼梯</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3042,17 +3042,17 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>89455</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>58910668</t>
+          <t>59082827</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>BrittleAuthor33</t>
+          <t>Player-59082827</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3062,24 +3062,24 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2059</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>58174442</t>
+          <t>59106471</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Player-58174442</t>
+          <t>anime</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3089,24 +3089,24 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1616</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>59081265</t>
+          <t>59112086</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>爬楼梯</t>
+          <t>sigma</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3116,24 +3116,24 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1229</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>52583</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>41848598</t>
+          <t>6010122</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>国家一级保护沙雕</t>
+          <t>"Edward Peng"</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3143,24 +3143,24 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>3166</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>12648101</t>
+          <t>8850180</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>"player 198827"</t>
+          <t>30624300</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3177,7 +3177,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3204,17 +3204,17 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>15755724</t>
+          <t>9913517</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>"Last Good"</t>
+          <t>"Kenny Chan"</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3231,17 +3231,17 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>8850180</t>
+          <t>10636651</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>30624300</t>
+          <t>"Ismail Aflou"</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3258,17 +3258,17 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>28624723</t>
+          <t>12648101</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>"Woody Shade"</t>
+          <t>"player 198827"</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3285,17 +3285,17 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>6010122</t>
+          <t>15755724</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>"Edward Peng"</t>
+          <t>"Last Good"</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3312,17 +3312,17 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>9913517</t>
+          <t>28624723</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>"Kenny Chan"</t>
+          <t>"Woody Shade"</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3339,17 +3339,17 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>52311</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>10636651</t>
+          <t>41848598</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>"Ismail Aflou"</t>
+          <t>国家一级保护沙雕</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3359,7 +3359,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3224</t>
         </is>
       </c>
     </row>

--- a/Season_Trophies/87.xlsx
+++ b/Season_Trophies/87.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E111"/>
+  <dimension ref="A1:E151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3123,17 +3123,17 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2094</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>6010122</t>
+          <t>7893843</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>"Edward Peng"</t>
+          <t>"☆ MEDUSA ᴰ☆ᴬ"</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3143,24 +3143,24 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4505</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15883</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>8850180</t>
+          <t>19940010</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>30624300</t>
+          <t>maik89</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3170,24 +3170,24 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3952</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>52180</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>9195340</t>
+          <t>50627978</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Namllllllik</t>
+          <t>"☆ PANDORA ᴰ☆ᴬ"</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3197,24 +3197,24 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2650</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>54312</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>9913517</t>
+          <t>4154202</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>"Kenny Chan"</t>
+          <t>"Klaus Taler"</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3224,24 +3224,24 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2608</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5885</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>10636651</t>
+          <t>22514681</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>"Ismail Aflou"</t>
+          <t>"☆ BALOO ᴰ☆ᴬ"</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3251,24 +3251,24 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4284</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14809</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>12648101</t>
+          <t>33634191</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>"player 198827"</t>
+          <t>"Deus Noctem"</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3278,24 +3278,24 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3983</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14833</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>15755724</t>
+          <t>5653920</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>"Last Good"</t>
+          <t>SvenZz</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3305,24 +3305,24 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3982</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18934</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>28624723</t>
+          <t>57732675</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>"Woody Shade"</t>
+          <t>Grimm</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3332,24 +3332,24 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3841</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>52311</t>
+          <t>22892</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>41848598</t>
+          <t>24195835</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>国家一级保护沙雕</t>
+          <t>"DSA ToxiX"</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3359,7 +3359,1087 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>3224</t>
+          <t>3715</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>25462</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>35493634</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>"☆ Thomas S. ᴰ☆ᴬ"</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>3632</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>25536</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>5601492</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Einherjer1975</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>3629</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>27569</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>4186901</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>"DSA Alex"</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>3561</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>31646</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>21042575</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Olminator</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>3421</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>34269</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>58029196</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>hateboxone</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>3323</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>34316</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>29621011</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>SilentStorm</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>3322</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>35271</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>48588331</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Chris</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>3285</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>39831</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>9121055</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>JuegoDMierd</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>3074</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>40882</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>45207062</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>"| 123 |"</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>3025</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>41040</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>19985443</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>"☆ Coura ᴰ☆ᴬ"</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>3018</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>45589</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>7315419</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Campino1410</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>2840</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>46119</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>6575464</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>"☆ Kinnay ᴰ☆ᴬ"</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>2822</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>47778</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>44703584</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>"DSA FiftyPark"</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>2770</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>51416</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>51102648</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Pilsbirne</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>2668</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>55570</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>51138331</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>GoldenAquarius</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>2586</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>999999</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>57949338</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>"☆ Neptun01 ᴰ☆ᴬ"</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>19676</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>41468909</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>To</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>3818</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>23696</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>7248556</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>"☆ Unbroken ᴰ☆ᴬ"</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>3688</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>24393</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>58161267</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>"☆ Madruk1985 D☆A"</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>3665</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>26493</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>44334179</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Commando</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>3599</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>27319</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>14679266</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Amboss</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>3570</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>28494</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>14999725</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>"☆ Gandolf ᴰ☆ᴬ"</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>3531</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>28768</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>21533545</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>"☆ Andy ᴰ☆ᴬ"</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>3521</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>29674</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>203024</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>"Manuel Dominick"</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>3491</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>30541</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>24404822</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>"☆ Al Bundy ᴰ☆ᴬ"</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>3461</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>35357</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>6010385</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>"Jose Javier Davila V"</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>3281</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>37686</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>5488187</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Vitala93</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>3176</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>39013</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>3628285</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>"Schwatten92 "</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>3116</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>48144</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>36985876</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>"Eleni Sachinidou"</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>2759</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>49186</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>7520688</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>DSA_AustrianFish</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>2726</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>49226</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>58992516</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>2725</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>51926</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>58187893</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>MagiendJr</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>2656</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>54103</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>17695863</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Player-17695863</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>2612</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>57722</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>4539315</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Recrush</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>2556</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>60189</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>58074881</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>USER39</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>2528</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>62842</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>6132629</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>supergamer</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>2504</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>64944</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>47243338</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>benja</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>2494</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>68120</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>56737748</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Dennny</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>2331</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>999999</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>33307536</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Player-DsaBruno</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>999999</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>17176957</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Brutus</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>

--- a/Season_Trophies/87.xlsx
+++ b/Season_Trophies/87.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E151"/>
+  <dimension ref="A1:E111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3123,17 +3123,17 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2094</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>7893843</t>
+          <t>6010122</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>"☆ MEDUSA ᴰ☆ᴬ"</t>
+          <t>"Edward Peng"</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3143,24 +3143,24 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>4505</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>15883</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>19940010</t>
+          <t>8850180</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>maik89</t>
+          <t>30624300</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3170,24 +3170,24 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>3952</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>52180</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>50627978</t>
+          <t>9195340</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>"☆ PANDORA ᴰ☆ᴬ"</t>
+          <t>Namllllllik</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3197,24 +3197,24 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>2650</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>54312</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>4154202</t>
+          <t>9913517</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>"Klaus Taler"</t>
+          <t>"Kenny Chan"</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3224,24 +3224,24 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>2608</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>5885</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>22514681</t>
+          <t>10636651</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>"☆ BALOO ᴰ☆ᴬ"</t>
+          <t>"Ismail Aflou"</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3251,24 +3251,24 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>4284</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>14809</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>33634191</t>
+          <t>12648101</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>"Deus Noctem"</t>
+          <t>"player 198827"</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3278,24 +3278,24 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>3983</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>14833</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>5653920</t>
+          <t>15755724</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>SvenZz</t>
+          <t>"Last Good"</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3305,24 +3305,24 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>3982</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>18934</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>57732675</t>
+          <t>28624723</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Grimm</t>
+          <t>"Woody Shade"</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3332,24 +3332,24 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>3841</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>22892</t>
+          <t>52311</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>24195835</t>
+          <t>41848598</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>"DSA ToxiX"</t>
+          <t>国家一级保护沙雕</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3359,1087 +3359,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>3715</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>25462</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>35493634</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>"☆ Thomas S. ᴰ☆ᴬ"</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>3632</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>25536</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>5601492</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>Einherjer1975</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>3629</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>27569</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>4186901</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>"DSA Alex"</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>3561</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>31646</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>21042575</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>Olminator</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>3421</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>34269</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>58029196</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>hateboxone</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>3323</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>34316</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>29621011</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>SilentStorm</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>3322</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>35271</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>48588331</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>Chris</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>3285</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>39831</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>9121055</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>JuegoDMierd</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>3074</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>40882</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>45207062</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>"| 123 |"</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>3025</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>41040</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>19985443</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>"☆ Coura ᴰ☆ᴬ"</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>3018</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>45589</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>7315419</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>Campino1410</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>2840</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>46119</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>6575464</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>"☆ Kinnay ᴰ☆ᴬ"</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>2822</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>47778</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>44703584</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>"DSA FiftyPark"</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>2770</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>51416</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>51102648</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>Pilsbirne</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>2668</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>55570</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>51138331</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>GoldenAquarius</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>2586</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>57949338</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>"☆ Neptun01 ᴰ☆ᴬ"</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>19676</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>41468909</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>To</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>3818</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>23696</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>7248556</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>"☆ Unbroken ᴰ☆ᴬ"</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>3688</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>24393</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>58161267</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>"☆ Madruk1985 D☆A"</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>3665</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>26493</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>44334179</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>Commando</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>3599</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>27319</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>14679266</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>Amboss</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>3570</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>28494</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>14999725</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>"☆ Gandolf ᴰ☆ᴬ"</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>3531</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>28768</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>21533545</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>"☆ Andy ᴰ☆ᴬ"</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>3521</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>29674</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>203024</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>"Manuel Dominick"</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>3491</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>30541</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>24404822</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>"☆ Al Bundy ᴰ☆ᴬ"</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>3461</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>35357</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>6010385</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>"Jose Javier Davila V"</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>3281</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>37686</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>5488187</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>Vitala93</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>3176</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>39013</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>3628285</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>"Schwatten92 "</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>3116</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>48144</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>36985876</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>"Eleni Sachinidou"</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>2759</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>49186</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>7520688</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>DSA_AustrianFish</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>2726</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>49226</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>58992516</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>Luke</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>2725</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>51926</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>58187893</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>MagiendJr</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>2656</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>54103</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>17695863</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>Player-17695863</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>2612</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>57722</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>4539315</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>Recrush</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>2556</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>60189</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>58074881</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>USER39</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>2528</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>62842</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>6132629</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>supergamer</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>2504</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>64944</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>47243338</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>benja</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>2494</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>68120</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>56737748</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>Dennny</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>2331</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>33307536</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>Player-DsaBruno</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>17176957</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>Brutus</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>0</t>
+          <t>3224</t>
         </is>
       </c>
     </row>

--- a/Season_Trophies/87.xlsx
+++ b/Season_Trophies/87.xlsx
@@ -568,7 +568,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>"落日幻影 哈哈哈"</t>
+          <t>垃圾游戏草</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1675,7 +1675,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Globalking1001</t>
+          <t>Globalking</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
